--- a/Running projects/Imtiaz Korangi (Labour RAtes)/1- BOQ of ACMV Works.xlsx
+++ b/Running projects/Imtiaz Korangi (Labour RAtes)/1- BOQ of ACMV Works.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xls\Sent BOQ\Imtiaz Korangi (Labour RAtes)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Imtiaz Korangi (Labour RAtes)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D87C4-9C0C-4779-855A-3040B67818D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5B515C-0E1E-49FF-9BE9-42F407CD2F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2460" yWindow="2460" windowWidth="15330" windowHeight="10890" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="52" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="\a">#N/A</definedName>
@@ -40,21 +39,21 @@
     <definedName name="_NA3">#REF!</definedName>
     <definedName name="_NA7">#REF!</definedName>
     <definedName name="_NA9">#REF!</definedName>
-    <definedName name="_PR625">'[5]Normal Basis'!$133:$133</definedName>
-    <definedName name="_PR706">'[5]Normal Basis'!#REF!</definedName>
-    <definedName name="_PR730">'[5]Normal Basis'!#REF!</definedName>
-    <definedName name="_PR741">'[5]Normal Basis'!$76:$76</definedName>
-    <definedName name="_PR857">'[5]Normal Basis'!$59:$59</definedName>
-    <definedName name="_PR858">'[5]Normal Basis'!$57:$57</definedName>
-    <definedName name="_PR862">'[5]Normal Basis'!$53:$53</definedName>
-    <definedName name="_PR864">'[5]Normal Basis'!$51:$51</definedName>
-    <definedName name="_PR873">'[5]Normal Basis'!$42:$42</definedName>
-    <definedName name="_PR874">'[5]Normal Basis'!$41:$41</definedName>
-    <definedName name="_PR883">'[5]Normal Basis'!#REF!</definedName>
+    <definedName name="_PR625">'[1]Normal Basis'!$133:$133</definedName>
+    <definedName name="_PR706">'[1]Normal Basis'!#REF!</definedName>
+    <definedName name="_PR730">'[1]Normal Basis'!#REF!</definedName>
+    <definedName name="_PR741">'[1]Normal Basis'!$76:$76</definedName>
+    <definedName name="_PR857">'[1]Normal Basis'!$59:$59</definedName>
+    <definedName name="_PR858">'[1]Normal Basis'!$57:$57</definedName>
+    <definedName name="_PR862">'[1]Normal Basis'!$53:$53</definedName>
+    <definedName name="_PR864">'[1]Normal Basis'!$51:$51</definedName>
+    <definedName name="_PR873">'[1]Normal Basis'!$42:$42</definedName>
+    <definedName name="_PR874">'[1]Normal Basis'!$41:$41</definedName>
+    <definedName name="_PR883">'[1]Normal Basis'!#REF!</definedName>
     <definedName name="_TAQ">#REF!</definedName>
-    <definedName name="a">'[1]Bill 1'!$A$4:$F$29</definedName>
-    <definedName name="AAA">'[5]Normal Basis'!#REF!</definedName>
-    <definedName name="asdasdas">'[5]Normal Basis'!#REF!</definedName>
+    <definedName name="a">'[2]Bill 1'!$A$4:$F$29</definedName>
+    <definedName name="AAA">'[1]Normal Basis'!#REF!</definedName>
+    <definedName name="asdasdas">'[1]Normal Basis'!#REF!</definedName>
     <definedName name="b">#REF!</definedName>
     <definedName name="BOQ">#REF!</definedName>
     <definedName name="CHW">#REF!</definedName>
@@ -68,8 +67,8 @@
     <definedName name="list" localSheetId="1">#REF!</definedName>
     <definedName name="list">#REF!</definedName>
     <definedName name="NA">#REF!</definedName>
-    <definedName name="PR_883M">'[5]Normal Basis'!$33:$33</definedName>
-    <definedName name="PR858F">'[5]Normal Basis'!$58:$58</definedName>
+    <definedName name="PR_883M">'[1]Normal Basis'!$33:$33</definedName>
+    <definedName name="PR858F">'[1]Normal Basis'!$58:$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">FIre!$A$1:$J$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">HVAC!$A$1:$J$283</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Plumbing!$A$1:$J$116</definedName>
@@ -89,16 +88,16 @@
     <definedName name="TO" localSheetId="1">#REF!</definedName>
     <definedName name="TO">#REF!</definedName>
     <definedName name="UN">#REF!</definedName>
-    <definedName name="weqeqwe">'[5]Normal Basis'!#REF!</definedName>
+    <definedName name="weqeqwe">'[1]Normal Basis'!#REF!</definedName>
     <definedName name="WTP">#REF!</definedName>
     <definedName name="WWTP">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="410">
   <si>
     <t>Job.</t>
   </si>
@@ -1433,6 +1432,12 @@
   </si>
   <si>
     <t>IMITAZ SUPERMARKET KORANGI KARACHI</t>
+  </si>
+  <si>
+    <t>Rec 40%</t>
+  </si>
+  <si>
+    <t>Less WHT 6.60%</t>
   </si>
 </sst>
 </file>
@@ -3672,33 +3677,6 @@
     <xf numFmtId="168" fontId="5" fillId="0" borderId="73" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3724,49 +3702,10 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="74" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="76" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="77" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="54" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4201,12 +4140,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4283,43 +4216,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="52" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="67" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="67" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="74" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="75" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="76" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="24" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="53" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="77" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -4580,14 +4477,8 @@
     <xf numFmtId="169" fontId="6" fillId="0" borderId="18" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4603,12 +4494,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4679,11 +4564,131 @@
     <xf numFmtId="168" fontId="26" fillId="7" borderId="73" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="73" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="74" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="76" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="77" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="52" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="53" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="77" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="67" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="67" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="74" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="75" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="76" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4725,383 +4730,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Bill 1"/>
-      <sheetName val="TOC"/>
-      <sheetName val="SOC"/>
-      <sheetName val="BOQ-1of1"/>
-      <sheetName val="BOQ-1of2"/>
-      <sheetName val="BOQ-2"/>
-      <sheetName val="BOQ-3"/>
-      <sheetName val="BOQ 4A-1"/>
-      <sheetName val="Boq 4A-2"/>
-      <sheetName val="BOQ 4B-1"/>
-      <sheetName val="BOQ 4B-2"/>
-      <sheetName val="BOQ 4B-3"/>
-      <sheetName val="BOQ 4C-1"/>
-      <sheetName val="BOQ 4C-2"/>
-      <sheetName val="BOQ-5"/>
-      <sheetName val="BOQ 6"/>
-      <sheetName val="BOQ 7"/>
-      <sheetName val="SOC-FINAL"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v xml:space="preserve"> NALLIENT- GAWADAR SUB SECTION</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Bill No. 1:  Earthwork</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Pay Item</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Item Description</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Unit</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Quantity</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Rate</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>Amount</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>No.</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>(Rs.)</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>(Rs.)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>101</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Clearing &amp; Grubbing</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>SM</v>
-          </cell>
-          <cell r="D9">
-            <v>980000</v>
-          </cell>
-          <cell r="F9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>102a</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Removal of trees , 150-300 mm girth</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>Each</v>
-          </cell>
-          <cell r="D10">
-            <v>30</v>
-          </cell>
-          <cell r="F10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>102b</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Removal of trees , 301-600 mm girth</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Each</v>
-          </cell>
-          <cell r="D11">
-            <v>24</v>
-          </cell>
-          <cell r="F11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>102c</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Removal of trees , 601 mm or over girth</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Each</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="F12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>104</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Compaction of Natural Ground</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>SM</v>
-          </cell>
-          <cell r="D13">
-            <v>1210000</v>
-          </cell>
-          <cell r="F13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>106a</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Excavate Unsuitable  Common Material</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>CM</v>
-          </cell>
-          <cell r="D14">
-            <v>90000</v>
-          </cell>
-          <cell r="F14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>108a</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v xml:space="preserve">Formation of Embankment from Roadway Excavation </v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>CM</v>
-          </cell>
-          <cell r="D15">
-            <v>210000</v>
-          </cell>
-          <cell r="F15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v xml:space="preserve"> in Common Material</v>
-          </cell>
-          <cell r="F16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>108b</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>Formation of Embankment from Roadway Excavation</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>CM</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="F17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>in Rock Material</v>
-          </cell>
-          <cell r="F18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>108c</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v xml:space="preserve">Formation of Embankment from Borrow Excavation </v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>CM</v>
-          </cell>
-          <cell r="D19">
-            <v>1790000</v>
-          </cell>
-          <cell r="F19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v xml:space="preserve"> in Common Material</v>
-          </cell>
-          <cell r="F20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Total of Bill 1 carried to summary</v>
-          </cell>
-          <cell r="F28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>[ C40AC98.XLS    Bill 1 ]</v>
-          </cell>
-          <cell r="F29" t="str">
-            <v>PG # 2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Approved List of Manufacturers"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Bill of Quantities"/>
-      <sheetName val="Fixture Schedule"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="116">
-          <cell r="J116">
-            <v>1335200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="BiIl of Quantities"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="71">
-          <cell r="J71">
-            <v>3142300</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="GRAND SUMMARY"/>
-      <sheetName val="D-HVAC SUMMARY"/>
-      <sheetName val="D-HVAC BOQ"/>
-      <sheetName val="HVAC ALM"/>
-      <sheetName val="E-PLUMBING SUMMARY"/>
-      <sheetName val="E-PLUMBING BOQ"/>
-      <sheetName val="PLUMBING ALM"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5518,6 +5146,355 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Bill 1"/>
+      <sheetName val="TOC"/>
+      <sheetName val="SOC"/>
+      <sheetName val="BOQ-1of1"/>
+      <sheetName val="BOQ-1of2"/>
+      <sheetName val="BOQ-2"/>
+      <sheetName val="BOQ-3"/>
+      <sheetName val="BOQ 4A-1"/>
+      <sheetName val="Boq 4A-2"/>
+      <sheetName val="BOQ 4B-1"/>
+      <sheetName val="BOQ 4B-2"/>
+      <sheetName val="BOQ 4B-3"/>
+      <sheetName val="BOQ 4C-1"/>
+      <sheetName val="BOQ 4C-2"/>
+      <sheetName val="BOQ-5"/>
+      <sheetName val="BOQ 6"/>
+      <sheetName val="BOQ 7"/>
+      <sheetName val="SOC-FINAL"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v xml:space="preserve"> NALLIENT- GAWADAR SUB SECTION</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Bill No. 1:  Earthwork</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Pay Item</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Item Description</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Unit</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>Quantity</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Rate</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>Amount</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>No.</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>(Rs.)</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>(Rs.)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>101</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Clearing &amp; Grubbing</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>SM</v>
+          </cell>
+          <cell r="D9">
+            <v>980000</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>102a</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Removal of trees , 150-300 mm girth</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Each</v>
+          </cell>
+          <cell r="D10">
+            <v>30</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>102b</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Removal of trees , 301-600 mm girth</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Each</v>
+          </cell>
+          <cell r="D11">
+            <v>24</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>102c</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Removal of trees , 601 mm or over girth</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Each</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>104</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Compaction of Natural Ground</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>SM</v>
+          </cell>
+          <cell r="D13">
+            <v>1210000</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>106a</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Excavate Unsuitable  Common Material</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>CM</v>
+          </cell>
+          <cell r="D14">
+            <v>90000</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>108a</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v xml:space="preserve">Formation of Embankment from Roadway Excavation </v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>CM</v>
+          </cell>
+          <cell r="D15">
+            <v>210000</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v xml:space="preserve"> in Common Material</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>108b</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Formation of Embankment from Roadway Excavation</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>CM</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>in Rock Material</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>108c</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v xml:space="preserve">Formation of Embankment from Borrow Excavation </v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>CM</v>
+          </cell>
+          <cell r="D19">
+            <v>1790000</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v xml:space="preserve"> in Common Material</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Total of Bill 1 carried to summary</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>[ C40AC98.XLS    Bill 1 ]</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>PG # 2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Approved List of Manufacturers"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Bill of Quantities"/>
+      <sheetName val="Fixture Schedule"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="116">
+          <cell r="J116">
+            <v>1335200</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="BiIl of Quantities"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="71">
+          <cell r="J71">
+            <v>3142300</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -5808,216 +5785,231 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="633" customWidth="1"/>
-    <col min="2" max="2" width="44.875" style="633" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="633" customWidth="1"/>
-    <col min="4" max="4" width="8" style="633"/>
-    <col min="5" max="5" width="10.75" style="633" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8" style="633"/>
+    <col min="1" max="1" width="10.125" style="595" customWidth="1"/>
+    <col min="2" max="2" width="44.875" style="595" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="595" customWidth="1"/>
+    <col min="4" max="4" width="8" style="595"/>
+    <col min="5" max="5" width="10.75" style="595" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8" style="595"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="665" t="s">
+      <c r="A1" s="627" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="665"/>
-      <c r="C1" s="665"/>
+      <c r="B1" s="627"/>
+      <c r="C1" s="627"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="634"/>
-      <c r="B2" s="634"/>
-      <c r="C2" s="635"/>
+      <c r="A2" s="596"/>
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="636" t="s">
+      <c r="A3" s="624" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="636"/>
-      <c r="C3" s="636"/>
+      <c r="B3" s="624"/>
+      <c r="C3" s="624"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="637"/>
-      <c r="B4" s="637"/>
-      <c r="C4" s="638"/>
+      <c r="A4" s="625"/>
+      <c r="B4" s="625"/>
+      <c r="C4" s="598"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="639" t="s">
+      <c r="A5" s="599" t="s">
         <v>395</v>
       </c>
-      <c r="B5" s="639" t="s">
+      <c r="B5" s="599" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="639" t="s">
+      <c r="C5" s="599" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="642" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="640"/>
-      <c r="B6" s="641"/>
-      <c r="C6" s="645"/>
-    </row>
-    <row r="7" spans="1:5" s="642" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="640" t="s">
+    <row r="6" spans="1:5" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="600"/>
+      <c r="B6" s="601"/>
+      <c r="C6" s="605"/>
+    </row>
+    <row r="7" spans="1:5" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="600" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="641" t="s">
+      <c r="B7" s="601" t="s">
         <v>399</v>
       </c>
-      <c r="C7" s="658">
+      <c r="C7" s="618">
         <f>HVAC!J276</f>
         <v>9687950</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="642" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="640" t="s">
+    <row r="8" spans="1:5" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="600" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="641" t="s">
+      <c r="B8" s="601" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="658">
+      <c r="C8" s="618">
         <f>Plumbing!J116</f>
         <v>1335200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="642" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="640" t="s">
+    <row r="9" spans="1:5" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="600" t="s">
         <v>398</v>
       </c>
-      <c r="B9" s="644" t="s">
+      <c r="B9" s="604" t="s">
         <v>403</v>
       </c>
-      <c r="C9" s="658">
+      <c r="C9" s="618">
         <f>FIre!J71</f>
         <v>3142300</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="660" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="640"/>
-      <c r="B10" s="646" t="s">
+    <row r="10" spans="1:5" s="620" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="600"/>
+      <c r="B10" s="606" t="s">
         <v>401</v>
       </c>
-      <c r="C10" s="659">
+      <c r="C10" s="619">
         <f>SUM(C7:C9)</f>
         <v>14165450</v>
       </c>
-      <c r="D10" s="642"/>
-      <c r="E10" s="643"/>
-    </row>
-    <row r="11" spans="1:5" s="660" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="640"/>
-      <c r="B11" s="646" t="s">
+      <c r="D10" s="602"/>
+      <c r="E10" s="603"/>
+    </row>
+    <row r="11" spans="1:5" s="620" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="600"/>
+      <c r="B11" s="606" t="s">
         <v>405</v>
       </c>
-      <c r="C11" s="659">
+      <c r="C11" s="619">
         <f>C10*11.757%</f>
         <v>1665431.9564999999</v>
       </c>
-      <c r="D11" s="642"/>
-      <c r="E11" s="643"/>
-    </row>
-    <row r="12" spans="1:5" s="660" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="640"/>
-      <c r="B12" s="646" t="s">
+      <c r="D11" s="602"/>
+      <c r="E11" s="603"/>
+    </row>
+    <row r="12" spans="1:5" s="620" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="600"/>
+      <c r="B12" s="606" t="s">
         <v>404</v>
       </c>
-      <c r="C12" s="659">
+      <c r="C12" s="619">
         <f>C10-C11</f>
         <v>12500018.043500001</v>
       </c>
-      <c r="D12" s="642"/>
-      <c r="E12" s="643"/>
-    </row>
-    <row r="13" spans="1:5" s="660" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="640"/>
-      <c r="B13" s="646"/>
-      <c r="C13" s="661"/>
-      <c r="D13" s="642"/>
-      <c r="E13" s="643"/>
-    </row>
-    <row r="14" spans="1:5" s="660" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="640"/>
-      <c r="B14" s="646" t="s">
+      <c r="D12" s="602"/>
+      <c r="E12" s="603"/>
+    </row>
+    <row r="13" spans="1:5" s="620" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="600"/>
+      <c r="B13" s="606"/>
+      <c r="C13" s="621"/>
+      <c r="D13" s="602"/>
+      <c r="E13" s="603"/>
+    </row>
+    <row r="14" spans="1:5" s="620" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="600"/>
+      <c r="B14" s="606" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="659">
+      <c r="C14" s="619">
         <f>C12*15%</f>
         <v>1875002.706525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="660" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="664" t="s">
+    <row r="15" spans="1:5" s="620" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="626" t="s">
         <v>406</v>
       </c>
-      <c r="B15" s="664"/>
-      <c r="C15" s="663">
+      <c r="B15" s="626"/>
+      <c r="C15" s="623">
         <f>C14+C12</f>
         <v>14375020.750025</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="660" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="662"/>
-      <c r="B16" s="662"/>
+    <row r="16" spans="1:5" s="620" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="622"/>
+      <c r="B16" s="622"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="647"/>
-      <c r="B17" s="647"/>
-      <c r="C17" s="648"/>
+      <c r="A17" s="607"/>
+      <c r="B17" s="607"/>
+      <c r="C17" s="608"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="649"/>
-      <c r="B18" s="647"/>
-      <c r="C18" s="650"/>
+      <c r="A18" s="609"/>
+      <c r="B18" s="607"/>
+      <c r="C18" s="610"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="651"/>
-      <c r="B19" s="651"/>
-      <c r="C19" s="652"/>
+      <c r="A19" s="611"/>
+      <c r="B19" s="611" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="612">
+        <f>C15*40%</f>
+        <v>5750008.3000100004</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="647"/>
-      <c r="B20" s="647"/>
+      <c r="A20" s="607"/>
+      <c r="B20" s="607"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="647"/>
-      <c r="B21" s="647"/>
+      <c r="A21" s="607"/>
+      <c r="B21" s="607" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" s="610">
+        <f>C19*6.6008%</f>
+        <v>379546.54786706012</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="647"/>
-      <c r="B22" s="647"/>
+      <c r="A22" s="607"/>
+      <c r="B22" s="607"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="653"/>
-      <c r="B23" s="647"/>
+      <c r="A23" s="613"/>
+      <c r="B23" s="607"/>
+      <c r="C23" s="610">
+        <f>C19-C21</f>
+        <v>5370461.7521429406</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="654"/>
-      <c r="B24" s="647"/>
+      <c r="A24" s="614"/>
+      <c r="B24" s="607"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="653"/>
-      <c r="B25" s="647"/>
+      <c r="A25" s="613"/>
+      <c r="B25" s="607"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="653"/>
-      <c r="B26" s="647"/>
+      <c r="A26" s="613"/>
+      <c r="B26" s="607"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="655"/>
-      <c r="B27" s="656"/>
+      <c r="A27" s="615"/>
+      <c r="B27" s="616"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="655"/>
-      <c r="B28" s="656"/>
+      <c r="A28" s="615"/>
+      <c r="B28" s="616"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="655"/>
-      <c r="B29" s="657"/>
+      <c r="A29" s="615"/>
+      <c r="B29" s="617"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6151,24 +6143,24 @@
       <c r="B7" s="22"/>
       <c r="D7" s="23"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="296" t="s">
+      <c r="F7" s="631" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="297"/>
-      <c r="H7" s="298" t="s">
+      <c r="G7" s="632"/>
+      <c r="H7" s="633" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="299"/>
+      <c r="I7" s="634"/>
       <c r="J7" s="27" t="s">
         <v>92</v>
       </c>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="300" t="s">
+      <c r="A8" s="635" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="301"/>
+      <c r="B8" s="636"/>
       <c r="C8" s="29" t="s">
         <v>87</v>
       </c>
@@ -13652,50 +13644,50 @@
       <c r="J277" s="20"/>
     </row>
     <row r="278" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="295" t="s">
+      <c r="A278" s="630" t="s">
         <v>124</v>
       </c>
-      <c r="B278" s="295"/>
-      <c r="C278" s="295"/>
-      <c r="D278" s="295"/>
-      <c r="E278" s="295"/>
-      <c r="F278" s="295"/>
-      <c r="G278" s="295"/>
-      <c r="H278" s="295"/>
-      <c r="I278" s="295"/>
-      <c r="J278" s="295"/>
+      <c r="B278" s="630"/>
+      <c r="C278" s="630"/>
+      <c r="D278" s="630"/>
+      <c r="E278" s="630"/>
+      <c r="F278" s="630"/>
+      <c r="G278" s="630"/>
+      <c r="H278" s="630"/>
+      <c r="I278" s="630"/>
+      <c r="J278" s="630"/>
       <c r="K278" s="16">
-        <f>J276+'[2]Bill of Quantities'!$J$116+'[3]BiIl of Quantities'!$J$71</f>
+        <f>J276+'[3]Bill of Quantities'!$J$116+'[4]BiIl of Quantities'!$J$71</f>
         <v>14165450</v>
       </c>
     </row>
     <row r="279" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="294" t="s">
+      <c r="A279" s="629" t="s">
         <v>155</v>
       </c>
-      <c r="B279" s="294"/>
-      <c r="C279" s="294"/>
-      <c r="D279" s="294"/>
-      <c r="E279" s="294"/>
-      <c r="F279" s="294"/>
-      <c r="G279" s="294"/>
-      <c r="H279" s="294"/>
-      <c r="I279" s="294"/>
-      <c r="J279" s="294"/>
+      <c r="B279" s="629"/>
+      <c r="C279" s="629"/>
+      <c r="D279" s="629"/>
+      <c r="E279" s="629"/>
+      <c r="F279" s="629"/>
+      <c r="G279" s="629"/>
+      <c r="H279" s="629"/>
+      <c r="I279" s="629"/>
+      <c r="J279" s="629"/>
     </row>
     <row r="280" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="294" t="s">
+      <c r="A280" s="629" t="s">
         <v>156</v>
       </c>
-      <c r="B280" s="294"/>
-      <c r="C280" s="294"/>
-      <c r="D280" s="294"/>
-      <c r="E280" s="294"/>
-      <c r="F280" s="294"/>
-      <c r="G280" s="294"/>
-      <c r="H280" s="294"/>
-      <c r="I280" s="294"/>
-      <c r="J280" s="294"/>
+      <c r="B280" s="629"/>
+      <c r="C280" s="629"/>
+      <c r="D280" s="629"/>
+      <c r="E280" s="629"/>
+      <c r="F280" s="629"/>
+      <c r="G280" s="629"/>
+      <c r="H280" s="629"/>
+      <c r="I280" s="629"/>
+      <c r="J280" s="629"/>
       <c r="K280" s="287">
         <v>12500000</v>
       </c>
@@ -13707,80 +13699,80 @@
       </c>
     </row>
     <row r="281" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="294" t="s">
+      <c r="A281" s="629" t="s">
         <v>154</v>
       </c>
-      <c r="B281" s="294"/>
-      <c r="C281" s="294"/>
-      <c r="D281" s="294"/>
-      <c r="E281" s="294"/>
-      <c r="F281" s="294"/>
-      <c r="G281" s="294"/>
-      <c r="H281" s="294"/>
-      <c r="I281" s="294"/>
-      <c r="J281" s="294"/>
+      <c r="B281" s="629"/>
+      <c r="C281" s="629"/>
+      <c r="D281" s="629"/>
+      <c r="E281" s="629"/>
+      <c r="F281" s="629"/>
+      <c r="G281" s="629"/>
+      <c r="H281" s="629"/>
+      <c r="I281" s="629"/>
+      <c r="J281" s="629"/>
     </row>
     <row r="282" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="295" t="s">
+      <c r="A282" s="630" t="s">
         <v>123</v>
       </c>
-      <c r="B282" s="295"/>
-      <c r="C282" s="295"/>
-      <c r="D282" s="295"/>
-      <c r="E282" s="295"/>
-      <c r="F282" s="295"/>
-      <c r="G282" s="295"/>
-      <c r="H282" s="295"/>
-      <c r="I282" s="295"/>
-      <c r="J282" s="295"/>
+      <c r="B282" s="630"/>
+      <c r="C282" s="630"/>
+      <c r="D282" s="630"/>
+      <c r="E282" s="630"/>
+      <c r="F282" s="630"/>
+      <c r="G282" s="630"/>
+      <c r="H282" s="630"/>
+      <c r="I282" s="630"/>
+      <c r="J282" s="630"/>
       <c r="K282" s="289">
         <f>K278-K280</f>
         <v>1665450</v>
       </c>
     </row>
     <row r="283" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="295" t="s">
+      <c r="A283" s="630" t="s">
         <v>122</v>
       </c>
-      <c r="B283" s="295"/>
-      <c r="C283" s="295"/>
-      <c r="D283" s="295"/>
-      <c r="E283" s="295"/>
-      <c r="F283" s="295"/>
-      <c r="G283" s="295"/>
-      <c r="H283" s="295"/>
-      <c r="I283" s="295"/>
-      <c r="J283" s="295"/>
+      <c r="B283" s="630"/>
+      <c r="C283" s="630"/>
+      <c r="D283" s="630"/>
+      <c r="E283" s="630"/>
+      <c r="F283" s="630"/>
+      <c r="G283" s="630"/>
+      <c r="H283" s="630"/>
+      <c r="I283" s="630"/>
+      <c r="J283" s="630"/>
       <c r="K283" s="289">
         <f>K282/K278</f>
         <v>0.11757127376821774</v>
       </c>
     </row>
     <row r="284" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="K284" s="293" t="s">
+      <c r="K284" s="628" t="s">
         <v>214</v>
       </c>
-      <c r="L284" s="293"/>
+      <c r="L284" s="628"/>
       <c r="M284" s="290"/>
       <c r="N284" s="290"/>
       <c r="O284" s="290"/>
       <c r="P284" s="290"/>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K285" s="293"/>
-      <c r="L285" s="293"/>
+      <c r="K285" s="628"/>
+      <c r="L285" s="628"/>
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K286" s="293"/>
-      <c r="L286" s="293"/>
+      <c r="K286" s="628"/>
+      <c r="L286" s="628"/>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K287" s="293"/>
-      <c r="L287" s="293"/>
+      <c r="K287" s="628"/>
+      <c r="L287" s="628"/>
     </row>
     <row r="288" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K288" s="293"/>
-      <c r="L288" s="293"/>
+      <c r="K288" s="628"/>
+      <c r="L288" s="628"/>
     </row>
     <row r="289" spans="3:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C289" s="190"/>
@@ -13874,12 +13866,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="494" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="494" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="470" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="470" customWidth="1"/>
     <col min="3" max="3" width="44.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="495" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="495" customWidth="1"/>
-    <col min="6" max="7" width="10.625" style="495" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="471" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="471" customWidth="1"/>
+    <col min="6" max="7" width="10.625" style="471" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
@@ -14454,148 +14446,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="642" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="305"/>
+      <c r="B1" s="642"/>
+      <c r="C1" s="642"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="296"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="306" t="s">
+      <c r="A2" s="643" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="306"/>
-      <c r="C2" s="306"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
+      <c r="B2" s="643"/>
+      <c r="C2" s="643"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="307"/>
-      <c r="B3" s="307"/>
+      <c r="A3" s="298"/>
+      <c r="B3" s="298"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="294"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="308"/>
+      <c r="B4" s="299"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="J4" s="309" t="s">
+      <c r="D4" s="294"/>
+      <c r="E4" s="294"/>
+      <c r="F4" s="294"/>
+      <c r="G4" s="294"/>
+      <c r="J4" s="300" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="310" t="s">
+      <c r="A5" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="311"/>
-      <c r="C5" s="307"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="312"/>
-      <c r="J5" s="305" t="s">
+      <c r="B5" s="293"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="294"/>
+      <c r="H5" s="302"/>
+      <c r="I5" s="302"/>
+      <c r="J5" s="296" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="313"/>
-      <c r="B6" s="307"/>
-      <c r="C6" s="307" t="s">
+      <c r="A6" s="297"/>
+      <c r="B6" s="298"/>
+      <c r="C6" s="298" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="303"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="303"/>
-      <c r="G6" s="303"/>
-      <c r="H6" s="312"/>
-      <c r="I6" s="312"/>
-      <c r="J6" s="305"/>
+      <c r="D6" s="294"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="294"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="296"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="314" t="s">
+      <c r="A7" s="644" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="315"/>
-      <c r="C7" s="316" t="s">
+      <c r="B7" s="645"/>
+      <c r="C7" s="648" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="316" t="s">
+      <c r="D7" s="648" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="317" t="s">
+      <c r="E7" s="650" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="318" t="s">
+      <c r="F7" s="637" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="319"/>
-      <c r="H7" s="318" t="s">
+      <c r="G7" s="638"/>
+      <c r="H7" s="637" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="320"/>
-      <c r="J7" s="321" t="s">
+      <c r="I7" s="639"/>
+      <c r="J7" s="303" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323"/>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="326" t="s">
+      <c r="A8" s="646"/>
+      <c r="B8" s="647"/>
+      <c r="C8" s="649"/>
+      <c r="D8" s="649"/>
+      <c r="E8" s="651"/>
+      <c r="F8" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="327" t="s">
+      <c r="G8" s="305" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="326" t="s">
+      <c r="H8" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="327" t="s">
+      <c r="I8" s="305" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="328" t="s">
+      <c r="J8" s="306" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="329"/>
-      <c r="B9" s="330"/>
-      <c r="C9" s="331" t="s">
+      <c r="A9" s="307"/>
+      <c r="B9" s="308"/>
+      <c r="C9" s="309" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="332"/>
-      <c r="G9" s="332"/>
-      <c r="H9" s="333"/>
-      <c r="I9" s="334"/>
-      <c r="J9" s="335"/>
-    </row>
-    <row r="10" spans="1:10" s="340" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="311"/>
+      <c r="I9" s="312"/>
+      <c r="J9" s="313"/>
+    </row>
+    <row r="10" spans="1:10" s="318" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="72"/>
-      <c r="B10" s="336"/>
+      <c r="B10" s="314"/>
       <c r="C10" s="46" t="s">
         <v>222</v>
       </c>
@@ -14603,474 +14595,474 @@
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
-      <c r="H10" s="337"/>
-      <c r="I10" s="338"/>
-      <c r="J10" s="339"/>
-    </row>
-    <row r="11" spans="1:10" s="340" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="341">
+      <c r="H10" s="315"/>
+      <c r="I10" s="316"/>
+      <c r="J10" s="317"/>
+    </row>
+    <row r="11" spans="1:10" s="318" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="319">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="342"/>
-      <c r="C11" s="343" t="s">
+      <c r="B11" s="320"/>
+      <c r="C11" s="321" t="s">
         <v>223</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="337"/>
-      <c r="I11" s="338"/>
-      <c r="J11" s="339"/>
-    </row>
-    <row r="12" spans="1:10" s="340" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="315"/>
+      <c r="I11" s="316"/>
+      <c r="J11" s="317"/>
+    </row>
+    <row r="12" spans="1:10" s="318" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="72"/>
-      <c r="B12" s="342" t="s">
+      <c r="B12" s="320" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="344" t="s">
+      <c r="C12" s="322" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="345" t="str">
+      <c r="D12" s="323" t="str">
         <f>IF(C12="","",IF(E12="","",IF(E12&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E12" s="346">
+      <c r="E12" s="324">
         <v>7</v>
       </c>
-      <c r="F12" s="345"/>
-      <c r="G12" s="345">
+      <c r="F12" s="323"/>
+      <c r="G12" s="323">
         <f>F12*E12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="347">
+      <c r="H12" s="325">
         <v>7000</v>
       </c>
-      <c r="I12" s="348">
+      <c r="I12" s="326">
         <f>H12*E12</f>
         <v>49000</v>
       </c>
-      <c r="J12" s="349">
+      <c r="J12" s="327">
         <f>I12+G12</f>
         <v>49000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="340" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="341">
+    <row r="13" spans="1:10" s="318" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="319">
         <f>A11+0.1</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="B13" s="342"/>
-      <c r="C13" s="350" t="s">
+      <c r="B13" s="320"/>
+      <c r="C13" s="328" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="351"/>
-      <c r="E13" s="352"/>
-      <c r="F13" s="351"/>
-      <c r="G13" s="353"/>
-      <c r="H13" s="351"/>
-      <c r="I13" s="351"/>
-      <c r="J13" s="354"/>
-    </row>
-    <row r="14" spans="1:10" s="340" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="329"/>
+      <c r="E13" s="330"/>
+      <c r="F13" s="329"/>
+      <c r="G13" s="331"/>
+      <c r="H13" s="329"/>
+      <c r="I13" s="329"/>
+      <c r="J13" s="332"/>
+    </row>
+    <row r="14" spans="1:10" s="318" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="72"/>
-      <c r="B14" s="355" t="s">
+      <c r="B14" s="333" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="356" t="str">
+      <c r="D14" s="334" t="str">
         <f>IF(C14="","",IF(E14="","",IF(E14&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E14" s="357">
+      <c r="E14" s="335">
         <v>4</v>
       </c>
-      <c r="F14" s="345"/>
-      <c r="G14" s="345">
+      <c r="F14" s="323"/>
+      <c r="G14" s="323">
         <f>F14*E14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="347">
+      <c r="H14" s="325">
         <v>6000</v>
       </c>
-      <c r="I14" s="348">
+      <c r="I14" s="326">
         <f>H14*E14</f>
         <v>24000</v>
       </c>
-      <c r="J14" s="349">
+      <c r="J14" s="327">
         <f>I14+G14</f>
         <v>24000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="340" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="341">
+    <row r="15" spans="1:10" s="318" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="319">
         <f>A13+0.1</f>
         <v>1.3000000000000003</v>
       </c>
-      <c r="B15" s="358"/>
-      <c r="C15" s="343" t="s">
+      <c r="B15" s="336"/>
+      <c r="C15" s="321" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="359"/>
-      <c r="E15" s="360"/>
-      <c r="F15" s="359"/>
-      <c r="G15" s="359"/>
-      <c r="H15" s="361"/>
-      <c r="I15" s="362"/>
-      <c r="J15" s="363"/>
-    </row>
-    <row r="16" spans="1:10" s="340" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="364"/>
-      <c r="B16" s="342" t="s">
+      <c r="D15" s="337"/>
+      <c r="E15" s="338"/>
+      <c r="F15" s="337"/>
+      <c r="G15" s="337"/>
+      <c r="H15" s="339"/>
+      <c r="I15" s="340"/>
+      <c r="J15" s="341"/>
+    </row>
+    <row r="16" spans="1:10" s="318" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="342"/>
+      <c r="B16" s="320" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="365" t="s">
+      <c r="C16" s="343" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="345" t="str">
+      <c r="D16" s="323" t="str">
         <f>IF(C16="","",IF(E16="","",IF(E16&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E16" s="346">
+      <c r="E16" s="324">
         <v>7</v>
       </c>
-      <c r="F16" s="345"/>
-      <c r="G16" s="345">
+      <c r="F16" s="323"/>
+      <c r="G16" s="323">
         <f>F16*E16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="347">
+      <c r="H16" s="325">
         <v>1500</v>
       </c>
-      <c r="I16" s="348">
+      <c r="I16" s="326">
         <f>H16*E16</f>
         <v>10500</v>
       </c>
-      <c r="J16" s="349">
+      <c r="J16" s="327">
         <f>I16+G16</f>
         <v>10500</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="340" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="341">
+    <row r="17" spans="1:10" s="318" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="319">
         <f>A15+0.1</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="B17" s="358"/>
-      <c r="C17" s="343" t="s">
+      <c r="B17" s="336"/>
+      <c r="C17" s="321" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="359"/>
-      <c r="E17" s="360"/>
-      <c r="F17" s="359"/>
-      <c r="G17" s="359"/>
-      <c r="H17" s="361"/>
-      <c r="I17" s="362"/>
-      <c r="J17" s="363"/>
-    </row>
-    <row r="18" spans="1:10" s="340" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="364"/>
-      <c r="B18" s="342" t="s">
+      <c r="D17" s="337"/>
+      <c r="E17" s="338"/>
+      <c r="F17" s="337"/>
+      <c r="G17" s="337"/>
+      <c r="H17" s="339"/>
+      <c r="I17" s="340"/>
+      <c r="J17" s="341"/>
+    </row>
+    <row r="18" spans="1:10" s="318" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="342"/>
+      <c r="B18" s="320" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="365" t="s">
+      <c r="C18" s="343" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="345" t="str">
+      <c r="D18" s="323" t="str">
         <f>IF(C18="","",IF(E18="","",IF(E18&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E18" s="346">
+      <c r="E18" s="324">
         <v>4</v>
       </c>
-      <c r="F18" s="345"/>
-      <c r="G18" s="345">
+      <c r="F18" s="323"/>
+      <c r="G18" s="323">
         <f>F18*E18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="347">
+      <c r="H18" s="325">
         <v>1000</v>
       </c>
-      <c r="I18" s="348">
+      <c r="I18" s="326">
         <f>H18*E18</f>
         <v>4000</v>
       </c>
-      <c r="J18" s="349">
+      <c r="J18" s="327">
         <f>I18+G18</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="340" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="341">
+    <row r="19" spans="1:10" s="318" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="319">
         <f>A17+0.1</f>
         <v>1.5000000000000004</v>
       </c>
-      <c r="B19" s="358"/>
-      <c r="C19" s="343" t="s">
+      <c r="B19" s="336"/>
+      <c r="C19" s="321" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="359"/>
-      <c r="E19" s="360"/>
-      <c r="F19" s="359"/>
-      <c r="G19" s="359"/>
-      <c r="H19" s="361"/>
-      <c r="I19" s="362"/>
-      <c r="J19" s="363"/>
-    </row>
-    <row r="20" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="341"/>
-      <c r="B20" s="366" t="s">
+      <c r="D19" s="337"/>
+      <c r="E19" s="338"/>
+      <c r="F19" s="337"/>
+      <c r="G19" s="337"/>
+      <c r="H19" s="339"/>
+      <c r="I19" s="340"/>
+      <c r="J19" s="341"/>
+    </row>
+    <row r="20" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="319"/>
+      <c r="B20" s="344" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="344" t="s">
+      <c r="C20" s="322" t="s">
         <v>232</v>
       </c>
-      <c r="D20" s="345" t="str">
+      <c r="D20" s="323" t="str">
         <f>IF(C20="","",IF(E20="","",IF(E20&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E20" s="346">
+      <c r="E20" s="324">
         <v>1</v>
       </c>
-      <c r="F20" s="345"/>
-      <c r="G20" s="345">
+      <c r="F20" s="323"/>
+      <c r="G20" s="323">
         <f>F20*E20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="347">
+      <c r="H20" s="325">
         <v>5000</v>
       </c>
-      <c r="I20" s="348">
+      <c r="I20" s="326">
         <f>H20*E20</f>
         <v>5000</v>
       </c>
-      <c r="J20" s="349">
+      <c r="J20" s="327">
         <f>I20+G20</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="341"/>
-      <c r="B21" s="366" t="s">
+    <row r="21" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="319"/>
+      <c r="B21" s="344" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="344" t="s">
+      <c r="C21" s="322" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="345" t="str">
+      <c r="D21" s="323" t="str">
         <f>IF(C21="","",IF(E21="","",IF(E21&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E21" s="346">
+      <c r="E21" s="324">
         <v>8</v>
       </c>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345">
+      <c r="F21" s="323"/>
+      <c r="G21" s="323">
         <f>F21*E21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="347">
+      <c r="H21" s="325">
         <v>5000</v>
       </c>
-      <c r="I21" s="348">
+      <c r="I21" s="326">
         <f>H21*E21</f>
         <v>40000</v>
       </c>
-      <c r="J21" s="349">
+      <c r="J21" s="327">
         <f>I21+G21</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="340" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="367">
+    <row r="22" spans="1:10" s="318" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="345">
         <f>A19+0.1</f>
         <v>1.6000000000000005</v>
       </c>
-      <c r="B22" s="358"/>
-      <c r="C22" s="368" t="s">
+      <c r="B22" s="336"/>
+      <c r="C22" s="346" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="369"/>
-      <c r="E22" s="370"/>
-      <c r="F22" s="369"/>
-      <c r="G22" s="369"/>
-      <c r="H22" s="371"/>
-      <c r="I22" s="372"/>
-      <c r="J22" s="373"/>
-    </row>
-    <row r="23" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="347"/>
+      <c r="E22" s="348"/>
+      <c r="F22" s="347"/>
+      <c r="G22" s="347"/>
+      <c r="H22" s="349"/>
+      <c r="I22" s="350"/>
+      <c r="J22" s="351"/>
+    </row>
+    <row r="23" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="72"/>
-      <c r="B23" s="374" t="s">
+      <c r="B23" s="352" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="345" t="str">
+      <c r="D23" s="323" t="str">
         <f>IF(C23="","",IF(E23="","",IF(E23&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E23" s="346">
+      <c r="E23" s="324">
         <v>1</v>
       </c>
-      <c r="F23" s="345"/>
-      <c r="G23" s="345">
+      <c r="F23" s="323"/>
+      <c r="G23" s="323">
         <f>F23*E23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="347">
+      <c r="H23" s="325">
         <v>2000</v>
       </c>
-      <c r="I23" s="348">
+      <c r="I23" s="326">
         <f>H23*E23</f>
         <v>2000</v>
       </c>
-      <c r="J23" s="349">
+      <c r="J23" s="327">
         <f>I23+G23</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="375"/>
-      <c r="B24" s="376" t="s">
+    <row r="24" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="353"/>
+      <c r="B24" s="354" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="377" t="s">
+      <c r="C24" s="355" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="378" t="str">
+      <c r="D24" s="356" t="str">
         <f>IF(C24="","",IF(E24="","",IF(E24&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E24" s="379">
+      <c r="E24" s="357">
         <v>8</v>
       </c>
-      <c r="F24" s="345"/>
-      <c r="G24" s="345">
+      <c r="F24" s="323"/>
+      <c r="G24" s="323">
         <f>F24*E24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="347">
+      <c r="H24" s="325">
         <v>2000</v>
       </c>
-      <c r="I24" s="348">
+      <c r="I24" s="326">
         <f>H24*E24</f>
         <v>16000</v>
       </c>
-      <c r="J24" s="349">
+      <c r="J24" s="327">
         <f>I24+G24</f>
         <v>16000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="340" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="367">
+    <row r="25" spans="1:10" s="318" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="345">
         <f>A22+0.1</f>
         <v>1.7000000000000006</v>
       </c>
-      <c r="B25" s="374"/>
-      <c r="C25" s="350" t="s">
+      <c r="B25" s="352"/>
+      <c r="C25" s="328" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="359" t="str">
+      <c r="D25" s="337" t="str">
         <f>IF(C25="","",IF(E25="","",IF(E25&gt;1,"Nos.","No.")))</f>
         <v/>
       </c>
-      <c r="E25" s="360"/>
-      <c r="F25" s="359"/>
-      <c r="G25" s="359"/>
-      <c r="H25" s="361"/>
-      <c r="I25" s="362"/>
-      <c r="J25" s="363"/>
-    </row>
-    <row r="26" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="380"/>
-      <c r="B26" s="381" t="s">
+      <c r="E25" s="338"/>
+      <c r="F25" s="337"/>
+      <c r="G25" s="337"/>
+      <c r="H25" s="339"/>
+      <c r="I25" s="340"/>
+      <c r="J25" s="341"/>
+    </row>
+    <row r="26" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="358"/>
+      <c r="B26" s="359" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="344" t="s">
+      <c r="C26" s="322" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="345" t="str">
+      <c r="D26" s="323" t="str">
         <f>IF(C26="","",IF(E26="","",IF(E26&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E26" s="346">
+      <c r="E26" s="324">
         <v>4</v>
       </c>
-      <c r="F26" s="345"/>
-      <c r="G26" s="345">
+      <c r="F26" s="323"/>
+      <c r="G26" s="323">
         <f>F26*E26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="347">
+      <c r="H26" s="325">
         <v>2000</v>
       </c>
-      <c r="I26" s="348">
+      <c r="I26" s="326">
         <f>H26*E26</f>
         <v>8000</v>
       </c>
-      <c r="J26" s="349">
+      <c r="J26" s="327">
         <f>I26+G26</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="380"/>
-      <c r="B27" s="381" t="s">
+    <row r="27" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="358"/>
+      <c r="B27" s="359" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="382" t="s">
+      <c r="C27" s="360" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="383" t="str">
+      <c r="D27" s="361" t="str">
         <f>IF(C27="","",IF(E27="","",IF(E27&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E27" s="384">
+      <c r="E27" s="362">
         <v>2</v>
       </c>
-      <c r="F27" s="345"/>
-      <c r="G27" s="345">
+      <c r="F27" s="323"/>
+      <c r="G27" s="323">
         <f>F27*E27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="347">
+      <c r="H27" s="325">
         <v>2000</v>
       </c>
-      <c r="I27" s="348">
+      <c r="I27" s="326">
         <f>H27*E27</f>
         <v>4000</v>
       </c>
-      <c r="J27" s="349">
+      <c r="J27" s="327">
         <f>I27+G27</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="340" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="367">
+    <row r="28" spans="1:10" s="318" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="345">
         <f>A25+0.1</f>
         <v>1.8000000000000007</v>
       </c>
-      <c r="B28" s="374"/>
-      <c r="C28" s="343" t="s">
+      <c r="B28" s="352"/>
+      <c r="C28" s="321" t="s">
         <v>239</v>
       </c>
-      <c r="D28" s="359"/>
-      <c r="E28" s="360"/>
-      <c r="F28" s="359"/>
-      <c r="G28" s="359"/>
-      <c r="H28" s="361"/>
-      <c r="I28" s="362"/>
-      <c r="J28" s="363"/>
-    </row>
-    <row r="29" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="337"/>
+      <c r="E28" s="338"/>
+      <c r="F28" s="337"/>
+      <c r="G28" s="337"/>
+      <c r="H28" s="339"/>
+      <c r="I28" s="340"/>
+      <c r="J28" s="341"/>
+    </row>
+    <row r="29" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="72"/>
-      <c r="B29" s="355" t="s">
+      <c r="B29" s="333" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="385" t="s">
+      <c r="C29" s="363" t="s">
         <v>240</v>
       </c>
       <c r="D29" s="144" t="str">
@@ -15080,29 +15072,29 @@
       <c r="E29" s="144">
         <v>4</v>
       </c>
-      <c r="F29" s="345"/>
-      <c r="G29" s="345">
+      <c r="F29" s="323"/>
+      <c r="G29" s="323">
         <f>F29*E29</f>
         <v>0</v>
       </c>
-      <c r="H29" s="347">
+      <c r="H29" s="325">
         <v>2000</v>
       </c>
-      <c r="I29" s="348">
+      <c r="I29" s="326">
         <f>H29*E29</f>
         <v>8000</v>
       </c>
-      <c r="J29" s="349">
+      <c r="J29" s="327">
         <f>I29+G29</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="72"/>
-      <c r="B30" s="355" t="s">
+      <c r="B30" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="385" t="s">
+      <c r="C30" s="363" t="s">
         <v>241</v>
       </c>
       <c r="D30" s="144" t="str">
@@ -15112,141 +15104,141 @@
       <c r="E30" s="144">
         <v>2</v>
       </c>
-      <c r="F30" s="345"/>
-      <c r="G30" s="345">
+      <c r="F30" s="323"/>
+      <c r="G30" s="323">
         <f>F30*E30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="347">
+      <c r="H30" s="325">
         <v>2000</v>
       </c>
-      <c r="I30" s="348">
+      <c r="I30" s="326">
         <f>H30*E30</f>
         <v>4000</v>
       </c>
-      <c r="J30" s="349">
+      <c r="J30" s="327">
         <f>I30+G30</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="340" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="367">
+    <row r="31" spans="1:10" s="318" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="345">
         <f>A28+0.1</f>
         <v>1.9000000000000008</v>
       </c>
-      <c r="B31" s="386"/>
-      <c r="C31" s="387" t="s">
+      <c r="B31" s="364"/>
+      <c r="C31" s="365" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="345" t="s">
+      <c r="D31" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="388">
+      <c r="E31" s="366">
         <v>3</v>
       </c>
-      <c r="F31" s="345"/>
-      <c r="G31" s="345">
+      <c r="F31" s="323"/>
+      <c r="G31" s="323">
         <f>F31*E31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="347">
+      <c r="H31" s="325">
         <v>5000</v>
       </c>
-      <c r="I31" s="348">
+      <c r="I31" s="326">
         <f>H31*E31</f>
         <v>15000</v>
       </c>
-      <c r="J31" s="349">
+      <c r="J31" s="327">
         <f>I31+G31</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="340" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="380">
+    <row r="32" spans="1:10" s="318" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="358">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B32" s="374"/>
-      <c r="C32" s="350" t="s">
+      <c r="B32" s="352"/>
+      <c r="C32" s="328" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="359"/>
-      <c r="E32" s="360"/>
-      <c r="F32" s="359"/>
-      <c r="G32" s="359"/>
-      <c r="H32" s="361"/>
-      <c r="I32" s="362"/>
-      <c r="J32" s="363"/>
-    </row>
-    <row r="33" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="380"/>
-      <c r="B33" s="389" t="s">
+      <c r="D32" s="337"/>
+      <c r="E32" s="338"/>
+      <c r="F32" s="337"/>
+      <c r="G32" s="337"/>
+      <c r="H32" s="339"/>
+      <c r="I32" s="340"/>
+      <c r="J32" s="341"/>
+    </row>
+    <row r="33" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="358"/>
+      <c r="B33" s="367" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="390" t="s">
+      <c r="C33" s="368" t="s">
         <v>244</v>
       </c>
-      <c r="D33" s="345" t="str">
+      <c r="D33" s="323" t="str">
         <f>IF(C33="","",IF(E33="","",IF(E33&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E33" s="346">
+      <c r="E33" s="324">
         <v>5</v>
       </c>
-      <c r="F33" s="345"/>
-      <c r="G33" s="345">
+      <c r="F33" s="323"/>
+      <c r="G33" s="323">
         <f>F33*E33</f>
         <v>0</v>
       </c>
-      <c r="H33" s="347">
+      <c r="H33" s="325">
         <v>500</v>
       </c>
-      <c r="I33" s="348">
+      <c r="I33" s="326">
         <f>H33*E33</f>
         <v>2500</v>
       </c>
-      <c r="J33" s="349">
+      <c r="J33" s="327">
         <f>I33+G33</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="364"/>
-      <c r="B34" s="389" t="s">
+    <row r="34" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="342"/>
+      <c r="B34" s="367" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="391" t="s">
+      <c r="C34" s="369" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="383" t="str">
+      <c r="D34" s="361" t="str">
         <f>IF(C34="","",IF(E34="","",IF(E34&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E34" s="384">
+      <c r="E34" s="362">
         <v>5</v>
       </c>
-      <c r="F34" s="345"/>
-      <c r="G34" s="345">
+      <c r="F34" s="323"/>
+      <c r="G34" s="323">
         <f>F34*E34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="347">
+      <c r="H34" s="325">
         <v>500</v>
       </c>
-      <c r="I34" s="348">
+      <c r="I34" s="326">
         <f>H34*E34</f>
         <v>2500</v>
       </c>
-      <c r="J34" s="349">
+      <c r="J34" s="327">
         <f>I34+G34</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="364"/>
-      <c r="B35" s="389" t="s">
+    <row r="35" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="342"/>
+      <c r="B35" s="367" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="391" t="s">
+      <c r="C35" s="369" t="s">
         <v>246</v>
       </c>
       <c r="D35" s="97" t="str">
@@ -15256,296 +15248,296 @@
       <c r="E35" s="97">
         <v>7</v>
       </c>
-      <c r="F35" s="345"/>
-      <c r="G35" s="345">
+      <c r="F35" s="323"/>
+      <c r="G35" s="323">
         <f>F35*E35</f>
         <v>0</v>
       </c>
-      <c r="H35" s="347">
+      <c r="H35" s="325">
         <v>500</v>
       </c>
-      <c r="I35" s="348">
+      <c r="I35" s="326">
         <f>H35*E35</f>
         <v>3500</v>
       </c>
-      <c r="J35" s="349">
+      <c r="J35" s="327">
         <f>I35+G35</f>
         <v>3500</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="364"/>
-      <c r="B36" s="389" t="s">
+    <row r="36" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="342"/>
+      <c r="B36" s="367" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="391" t="s">
+      <c r="C36" s="369" t="s">
         <v>247</v>
       </c>
-      <c r="D36" s="383" t="str">
+      <c r="D36" s="361" t="str">
         <f>IF(C36="","",IF(E36="","",IF(E36&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E36" s="384">
+      <c r="E36" s="362">
         <v>22</v>
       </c>
-      <c r="F36" s="345"/>
-      <c r="G36" s="345">
+      <c r="F36" s="323"/>
+      <c r="G36" s="323">
         <f>F36*E36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="347">
+      <c r="H36" s="325">
         <v>500</v>
       </c>
-      <c r="I36" s="348">
+      <c r="I36" s="326">
         <f>H36*E36</f>
         <v>11000</v>
       </c>
-      <c r="J36" s="349">
+      <c r="J36" s="327">
         <f>I36+G36</f>
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="340" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="392"/>
-      <c r="B37" s="393" t="s">
+    <row r="37" spans="1:10" s="318" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="370"/>
+      <c r="B37" s="371" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="394" t="s">
+      <c r="C37" s="372" t="s">
         <v>249</v>
       </c>
-      <c r="D37" s="395" t="str">
+      <c r="D37" s="373" t="str">
         <f>IF(C37="","",IF(E37="","",IF(E37&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E37" s="396">
+      <c r="E37" s="374">
         <v>5</v>
       </c>
-      <c r="F37" s="345"/>
-      <c r="G37" s="345">
+      <c r="F37" s="323"/>
+      <c r="G37" s="323">
         <f>F37*E37</f>
         <v>0</v>
       </c>
-      <c r="H37" s="347">
+      <c r="H37" s="325">
         <v>500</v>
       </c>
-      <c r="I37" s="348">
+      <c r="I37" s="326">
         <f>H37*E37</f>
         <v>2500</v>
       </c>
-      <c r="J37" s="349">
+      <c r="J37" s="327">
         <f>I37+G37</f>
         <v>2500</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="397"/>
-      <c r="B38" s="398"/>
-      <c r="C38" s="399" t="s">
+      <c r="A38" s="375"/>
+      <c r="B38" s="376"/>
+      <c r="C38" s="377" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="400"/>
-      <c r="E38" s="401"/>
-      <c r="F38" s="401"/>
-      <c r="G38" s="402"/>
-      <c r="H38" s="402"/>
-      <c r="I38" s="402"/>
-      <c r="J38" s="403"/>
+      <c r="D38" s="378"/>
+      <c r="E38" s="379"/>
+      <c r="F38" s="379"/>
+      <c r="G38" s="380"/>
+      <c r="H38" s="380"/>
+      <c r="I38" s="380"/>
+      <c r="J38" s="381"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="404"/>
-      <c r="B39" s="405"/>
-      <c r="C39" s="406" t="s">
+      <c r="A39" s="382"/>
+      <c r="B39" s="383"/>
+      <c r="C39" s="384" t="s">
         <v>251</v>
       </c>
-      <c r="D39" s="407"/>
-      <c r="E39" s="407"/>
-      <c r="F39" s="407"/>
-      <c r="G39" s="407"/>
-      <c r="H39" s="408"/>
-      <c r="I39" s="409"/>
-      <c r="J39" s="410"/>
+      <c r="D39" s="385"/>
+      <c r="E39" s="385"/>
+      <c r="F39" s="385"/>
+      <c r="G39" s="385"/>
+      <c r="H39" s="386"/>
+      <c r="I39" s="387"/>
+      <c r="J39" s="388"/>
     </row>
     <row r="40" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="44"/>
-      <c r="B40" s="411"/>
+      <c r="B40" s="389"/>
       <c r="C40" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="D40" s="359"/>
-      <c r="E40" s="359"/>
-      <c r="F40" s="359"/>
-      <c r="G40" s="359"/>
-      <c r="H40" s="412"/>
-      <c r="I40" s="413"/>
-      <c r="J40" s="414"/>
+      <c r="D40" s="337"/>
+      <c r="E40" s="337"/>
+      <c r="F40" s="337"/>
+      <c r="G40" s="337"/>
+      <c r="H40" s="390"/>
+      <c r="I40" s="391"/>
+      <c r="J40" s="392"/>
     </row>
     <row r="41" spans="1:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="72">
         <v>2.1</v>
       </c>
-      <c r="B41" s="336"/>
-      <c r="C41" s="343" t="s">
+      <c r="B41" s="314"/>
+      <c r="C41" s="321" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="359"/>
-      <c r="E41" s="359"/>
-      <c r="F41" s="359"/>
-      <c r="G41" s="359"/>
-      <c r="H41" s="412"/>
-      <c r="I41" s="413"/>
-      <c r="J41" s="414"/>
+      <c r="D41" s="337"/>
+      <c r="E41" s="337"/>
+      <c r="F41" s="337"/>
+      <c r="G41" s="337"/>
+      <c r="H41" s="390"/>
+      <c r="I41" s="391"/>
+      <c r="J41" s="392"/>
     </row>
     <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="375"/>
-      <c r="B42" s="415" t="s">
+      <c r="A42" s="353"/>
+      <c r="B42" s="393" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="416" t="s">
+      <c r="C42" s="394" t="s">
         <v>254</v>
       </c>
-      <c r="D42" s="378" t="s">
+      <c r="D42" s="356" t="s">
         <v>255</v>
       </c>
-      <c r="E42" s="379">
+      <c r="E42" s="357">
         <v>700</v>
       </c>
-      <c r="F42" s="345"/>
-      <c r="G42" s="345">
+      <c r="F42" s="323"/>
+      <c r="G42" s="323">
         <f>F42*E42</f>
         <v>0</v>
       </c>
-      <c r="H42" s="347">
+      <c r="H42" s="325">
         <v>100</v>
       </c>
-      <c r="I42" s="348">
+      <c r="I42" s="326">
         <f>H42*E42</f>
         <v>70000</v>
       </c>
-      <c r="J42" s="349">
+      <c r="J42" s="327">
         <f>I42+G42</f>
         <v>70000</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="72"/>
-      <c r="B43" s="417" t="s">
+      <c r="B43" s="395" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="390" t="s">
+      <c r="C43" s="368" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="345" t="s">
+      <c r="D43" s="323" t="s">
         <v>255</v>
       </c>
-      <c r="E43" s="346">
+      <c r="E43" s="324">
         <v>110</v>
       </c>
-      <c r="F43" s="345"/>
-      <c r="G43" s="345">
+      <c r="F43" s="323"/>
+      <c r="G43" s="323">
         <f>F43*E43</f>
         <v>0</v>
       </c>
-      <c r="H43" s="347">
+      <c r="H43" s="325">
         <v>150</v>
       </c>
-      <c r="I43" s="348">
+      <c r="I43" s="326">
         <f>H43*E43</f>
         <v>16500</v>
       </c>
-      <c r="J43" s="349">
+      <c r="J43" s="327">
         <f>I43+G43</f>
         <v>16500</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="72"/>
-      <c r="B44" s="417" t="s">
+      <c r="B44" s="395" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="390" t="s">
+      <c r="C44" s="368" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="345" t="s">
+      <c r="D44" s="323" t="s">
         <v>255</v>
       </c>
-      <c r="E44" s="346">
+      <c r="E44" s="324">
         <v>70</v>
       </c>
-      <c r="F44" s="345"/>
-      <c r="G44" s="345">
+      <c r="F44" s="323"/>
+      <c r="G44" s="323">
         <f>F44*E44</f>
         <v>0</v>
       </c>
-      <c r="H44" s="347">
+      <c r="H44" s="325">
         <v>160</v>
       </c>
-      <c r="I44" s="348">
+      <c r="I44" s="326">
         <f>H44*E44</f>
         <v>11200</v>
       </c>
-      <c r="J44" s="349">
+      <c r="J44" s="327">
         <f>I44+G44</f>
         <v>11200</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="72"/>
-      <c r="B45" s="417" t="s">
+      <c r="B45" s="395" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="391" t="s">
+      <c r="C45" s="369" t="s">
         <v>258</v>
       </c>
-      <c r="D45" s="383" t="s">
+      <c r="D45" s="361" t="s">
         <v>255</v>
       </c>
-      <c r="E45" s="384">
+      <c r="E45" s="362">
         <v>70</v>
       </c>
-      <c r="F45" s="345"/>
-      <c r="G45" s="345">
+      <c r="F45" s="323"/>
+      <c r="G45" s="323">
         <f>F45*E45</f>
         <v>0</v>
       </c>
-      <c r="H45" s="347">
+      <c r="H45" s="325">
         <v>200</v>
       </c>
-      <c r="I45" s="348">
+      <c r="I45" s="326">
         <f>H45*E45</f>
         <v>14000</v>
       </c>
-      <c r="J45" s="349">
+      <c r="J45" s="327">
         <f>I45+G45</f>
         <v>14000</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="72"/>
-      <c r="B46" s="417" t="s">
+      <c r="B46" s="395" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="391" t="s">
+      <c r="C46" s="369" t="s">
         <v>259</v>
       </c>
-      <c r="D46" s="383" t="s">
+      <c r="D46" s="361" t="s">
         <v>255</v>
       </c>
-      <c r="E46" s="384">
+      <c r="E46" s="362">
         <v>10</v>
       </c>
-      <c r="F46" s="345"/>
-      <c r="G46" s="345">
+      <c r="F46" s="323"/>
+      <c r="G46" s="323">
         <f>F46*E46</f>
         <v>0</v>
       </c>
-      <c r="H46" s="347">
+      <c r="H46" s="325">
         <v>225</v>
       </c>
-      <c r="I46" s="348">
+      <c r="I46" s="326">
         <f>H46*E46</f>
         <v>2250</v>
       </c>
-      <c r="J46" s="349">
+      <c r="J46" s="327">
         <f>I46+G46</f>
         <v>2250</v>
       </c>
@@ -15555,45 +15547,45 @@
         <f>A41+0.1</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="B47" s="336"/>
-      <c r="C47" s="343" t="s">
+      <c r="B47" s="314"/>
+      <c r="C47" s="321" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="47"/>
-      <c r="E47" s="418"/>
-      <c r="F47" s="419"/>
-      <c r="G47" s="419"/>
-      <c r="H47" s="419"/>
-      <c r="I47" s="419"/>
-      <c r="J47" s="420"/>
+      <c r="E47" s="396"/>
+      <c r="F47" s="397"/>
+      <c r="G47" s="397"/>
+      <c r="H47" s="397"/>
+      <c r="I47" s="397"/>
+      <c r="J47" s="398"/>
     </row>
     <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="421"/>
-      <c r="B48" s="422" t="s">
+      <c r="A48" s="399"/>
+      <c r="B48" s="400" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="390" t="s">
+      <c r="C48" s="368" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="144" t="s">
         <v>255</v>
       </c>
-      <c r="E48" s="423">
+      <c r="E48" s="401">
         <v>200</v>
       </c>
-      <c r="F48" s="345"/>
-      <c r="G48" s="345">
+      <c r="F48" s="323"/>
+      <c r="G48" s="323">
         <f>F48*E48</f>
         <v>0</v>
       </c>
-      <c r="H48" s="347">
+      <c r="H48" s="325">
         <v>115</v>
       </c>
-      <c r="I48" s="348">
+      <c r="I48" s="326">
         <f>H48*E48</f>
         <v>23000</v>
       </c>
-      <c r="J48" s="349">
+      <c r="J48" s="327">
         <f>I48+G48</f>
         <v>23000</v>
       </c>
@@ -15603,332 +15595,332 @@
         <f>A47+0.1</f>
         <v>2.3000000000000003</v>
       </c>
-      <c r="B49" s="424"/>
-      <c r="C49" s="425" t="s">
+      <c r="B49" s="402"/>
+      <c r="C49" s="403" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="75"/>
       <c r="E49" s="75"/>
-      <c r="F49" s="419"/>
-      <c r="G49" s="419"/>
-      <c r="H49" s="419"/>
-      <c r="I49" s="419"/>
-      <c r="J49" s="420"/>
+      <c r="F49" s="397"/>
+      <c r="G49" s="397"/>
+      <c r="H49" s="397"/>
+      <c r="I49" s="397"/>
+      <c r="J49" s="398"/>
     </row>
     <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="421"/>
-      <c r="B50" s="422" t="s">
+      <c r="A50" s="399"/>
+      <c r="B50" s="400" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="390" t="s">
+      <c r="C50" s="368" t="s">
         <v>263</v>
       </c>
       <c r="D50" s="144" t="s">
         <v>255</v>
       </c>
-      <c r="E50" s="423">
+      <c r="E50" s="401">
         <v>200</v>
       </c>
-      <c r="F50" s="345"/>
-      <c r="G50" s="345">
+      <c r="F50" s="323"/>
+      <c r="G50" s="323">
         <f>F50*E50</f>
         <v>0</v>
       </c>
-      <c r="H50" s="347">
+      <c r="H50" s="325">
         <v>25</v>
       </c>
-      <c r="I50" s="348">
+      <c r="I50" s="326">
         <f>H50*E50</f>
         <v>5000</v>
       </c>
-      <c r="J50" s="349">
+      <c r="J50" s="327">
         <f>I50+G50</f>
         <v>5000</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="341">
+      <c r="A51" s="319">
         <f>A49+0.1</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="B51" s="426"/>
-      <c r="C51" s="427" t="s">
+      <c r="B51" s="404"/>
+      <c r="C51" s="405" t="s">
         <v>264</v>
       </c>
-      <c r="D51" s="428"/>
-      <c r="E51" s="429"/>
-      <c r="F51" s="428"/>
-      <c r="G51" s="428"/>
-      <c r="H51" s="430"/>
-      <c r="I51" s="431"/>
-      <c r="J51" s="432"/>
+      <c r="D51" s="406"/>
+      <c r="E51" s="407"/>
+      <c r="F51" s="406"/>
+      <c r="G51" s="406"/>
+      <c r="H51" s="408"/>
+      <c r="I51" s="409"/>
+      <c r="J51" s="410"/>
     </row>
     <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="72"/>
-      <c r="B52" s="389" t="s">
+      <c r="B52" s="367" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="390" t="s">
+      <c r="C52" s="368" t="s">
         <v>265</v>
       </c>
-      <c r="D52" s="433" t="s">
+      <c r="D52" s="411" t="s">
         <v>255</v>
       </c>
-      <c r="E52" s="434">
+      <c r="E52" s="412">
         <v>190</v>
       </c>
-      <c r="F52" s="345"/>
-      <c r="G52" s="345">
+      <c r="F52" s="323"/>
+      <c r="G52" s="323">
         <f>F52*E52</f>
         <v>0</v>
       </c>
-      <c r="H52" s="347">
+      <c r="H52" s="325">
         <v>75</v>
       </c>
-      <c r="I52" s="348">
+      <c r="I52" s="326">
         <f>H52*E52</f>
         <v>14250</v>
       </c>
-      <c r="J52" s="349">
+      <c r="J52" s="327">
         <f>I52+G52</f>
         <v>14250</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="72"/>
-      <c r="B53" s="389" t="s">
+      <c r="B53" s="367" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="391" t="s">
+      <c r="C53" s="369" t="s">
         <v>266</v>
       </c>
-      <c r="D53" s="435" t="s">
+      <c r="D53" s="413" t="s">
         <v>255</v>
       </c>
-      <c r="E53" s="436">
+      <c r="E53" s="414">
         <v>70</v>
       </c>
-      <c r="F53" s="345"/>
-      <c r="G53" s="345">
+      <c r="F53" s="323"/>
+      <c r="G53" s="323">
         <f>F53*E53</f>
         <v>0</v>
       </c>
-      <c r="H53" s="347">
+      <c r="H53" s="325">
         <v>100</v>
       </c>
-      <c r="I53" s="348">
+      <c r="I53" s="326">
         <f>H53*E53</f>
         <v>7000</v>
       </c>
-      <c r="J53" s="349">
+      <c r="J53" s="327">
         <f>I53+G53</f>
         <v>7000</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="72"/>
-      <c r="B54" s="389" t="s">
+      <c r="B54" s="367" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="391" t="s">
+      <c r="C54" s="369" t="s">
         <v>267</v>
       </c>
-      <c r="D54" s="435" t="s">
+      <c r="D54" s="413" t="s">
         <v>255</v>
       </c>
-      <c r="E54" s="436">
+      <c r="E54" s="414">
         <v>140</v>
       </c>
-      <c r="F54" s="345"/>
-      <c r="G54" s="345">
+      <c r="F54" s="323"/>
+      <c r="G54" s="323">
         <f>F54*E54</f>
         <v>0</v>
       </c>
-      <c r="H54" s="347">
+      <c r="H54" s="325">
         <v>150</v>
       </c>
-      <c r="I54" s="348">
+      <c r="I54" s="326">
         <f>H54*E54</f>
         <v>21000</v>
       </c>
-      <c r="J54" s="349">
+      <c r="J54" s="327">
         <f>I54+G54</f>
         <v>21000</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="341">
+      <c r="A55" s="319">
         <f>A51+0.1</f>
         <v>2.5000000000000004</v>
       </c>
-      <c r="B55" s="336"/>
-      <c r="C55" s="437" t="s">
+      <c r="B55" s="314"/>
+      <c r="C55" s="415" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="359"/>
-      <c r="E55" s="360"/>
-      <c r="F55" s="359"/>
-      <c r="G55" s="359"/>
-      <c r="H55" s="412"/>
-      <c r="I55" s="413"/>
-      <c r="J55" s="414"/>
+      <c r="D55" s="337"/>
+      <c r="E55" s="338"/>
+      <c r="F55" s="337"/>
+      <c r="G55" s="337"/>
+      <c r="H55" s="390"/>
+      <c r="I55" s="391"/>
+      <c r="J55" s="392"/>
     </row>
     <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="72"/>
-      <c r="B56" s="389" t="s">
+      <c r="B56" s="367" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="390" t="s">
+      <c r="C56" s="368" t="s">
         <v>269</v>
       </c>
-      <c r="D56" s="345" t="str">
+      <c r="D56" s="323" t="str">
         <f>IF(C56="","",IF(E56="","",IF(E56&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E56" s="346">
+      <c r="E56" s="324">
         <v>31</v>
       </c>
-      <c r="F56" s="345"/>
-      <c r="G56" s="345">
+      <c r="F56" s="323"/>
+      <c r="G56" s="323">
         <f>F56*E56</f>
         <v>0</v>
       </c>
-      <c r="H56" s="347">
+      <c r="H56" s="325">
         <v>1000</v>
       </c>
-      <c r="I56" s="348">
+      <c r="I56" s="326">
         <f>H56*E56</f>
         <v>31000</v>
       </c>
-      <c r="J56" s="349">
+      <c r="J56" s="327">
         <f>I56+G56</f>
         <v>31000</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="72"/>
-      <c r="B57" s="389" t="s">
+      <c r="B57" s="367" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="391" t="s">
+      <c r="C57" s="369" t="s">
         <v>270</v>
       </c>
-      <c r="D57" s="383" t="str">
+      <c r="D57" s="361" t="str">
         <f>IF(C57="","",IF(E57="","",IF(E57&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E57" s="384">
+      <c r="E57" s="362">
         <v>4</v>
       </c>
-      <c r="F57" s="345"/>
-      <c r="G57" s="345">
+      <c r="F57" s="323"/>
+      <c r="G57" s="323">
         <f>F57*E57</f>
         <v>0</v>
       </c>
-      <c r="H57" s="347">
+      <c r="H57" s="325">
         <v>1000</v>
       </c>
-      <c r="I57" s="348">
+      <c r="I57" s="326">
         <f>H57*E57</f>
         <v>4000</v>
       </c>
-      <c r="J57" s="349">
+      <c r="J57" s="327">
         <f>I57+G57</f>
         <v>4000</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="72"/>
-      <c r="B58" s="389" t="s">
+      <c r="B58" s="367" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="391" t="s">
+      <c r="C58" s="369" t="s">
         <v>271</v>
       </c>
-      <c r="D58" s="383" t="str">
+      <c r="D58" s="361" t="str">
         <f>IF(C58="","",IF(E58="","",IF(E58&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E58" s="384">
+      <c r="E58" s="362">
         <v>2</v>
       </c>
-      <c r="F58" s="345"/>
-      <c r="G58" s="345">
+      <c r="F58" s="323"/>
+      <c r="G58" s="323">
         <f>F58*E58</f>
         <v>0</v>
       </c>
-      <c r="H58" s="347">
+      <c r="H58" s="325">
         <v>1500</v>
       </c>
-      <c r="I58" s="348">
+      <c r="I58" s="326">
         <f>H58*E58</f>
         <v>3000</v>
       </c>
-      <c r="J58" s="349">
+      <c r="J58" s="327">
         <f>I58+G58</f>
         <v>3000</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="72"/>
-      <c r="B59" s="389" t="s">
+      <c r="B59" s="367" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="391" t="s">
+      <c r="C59" s="369" t="s">
         <v>272</v>
       </c>
-      <c r="D59" s="383" t="str">
+      <c r="D59" s="361" t="str">
         <f>IF(C59="","",IF(E59="","",IF(E59&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E59" s="384">
+      <c r="E59" s="362">
         <v>3</v>
       </c>
-      <c r="F59" s="345"/>
-      <c r="G59" s="345">
+      <c r="F59" s="323"/>
+      <c r="G59" s="323">
         <f>F59*E59</f>
         <v>0</v>
       </c>
-      <c r="H59" s="347">
+      <c r="H59" s="325">
         <v>1500</v>
       </c>
-      <c r="I59" s="348">
+      <c r="I59" s="326">
         <f>H59*E59</f>
         <v>4500</v>
       </c>
-      <c r="J59" s="349">
+      <c r="J59" s="327">
         <f>I59+G59</f>
         <v>4500</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="375"/>
-      <c r="B60" s="438" t="s">
+      <c r="A60" s="353"/>
+      <c r="B60" s="416" t="s">
         <v>248</v>
       </c>
-      <c r="C60" s="439" t="s">
+      <c r="C60" s="417" t="s">
         <v>273</v>
       </c>
-      <c r="D60" s="440" t="str">
+      <c r="D60" s="418" t="str">
         <f>IF(C60="","",IF(E60="","",IF(E60&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E60" s="441">
+      <c r="E60" s="419">
         <v>5</v>
       </c>
-      <c r="F60" s="345"/>
-      <c r="G60" s="345">
+      <c r="F60" s="323"/>
+      <c r="G60" s="323">
         <f>F60*E60</f>
         <v>0</v>
       </c>
-      <c r="H60" s="347">
+      <c r="H60" s="325">
         <v>3000</v>
       </c>
-      <c r="I60" s="348">
+      <c r="I60" s="326">
         <f>H60*E60</f>
         <v>15000</v>
       </c>
-      <c r="J60" s="349">
+      <c r="J60" s="327">
         <f>I60+G60</f>
         <v>15000</v>
       </c>
@@ -15938,78 +15930,78 @@
         <f>A55+0.1</f>
         <v>2.6000000000000005</v>
       </c>
-      <c r="B61" s="336"/>
-      <c r="C61" s="437" t="s">
+      <c r="B61" s="314"/>
+      <c r="C61" s="415" t="s">
         <v>274</v>
       </c>
-      <c r="D61" s="359"/>
-      <c r="E61" s="360"/>
-      <c r="F61" s="359"/>
-      <c r="G61" s="359"/>
-      <c r="H61" s="412"/>
-      <c r="I61" s="413"/>
-      <c r="J61" s="414"/>
+      <c r="D61" s="337"/>
+      <c r="E61" s="338"/>
+      <c r="F61" s="337"/>
+      <c r="G61" s="337"/>
+      <c r="H61" s="390"/>
+      <c r="I61" s="391"/>
+      <c r="J61" s="392"/>
     </row>
     <row r="62" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="72"/>
-      <c r="B62" s="389" t="s">
+      <c r="B62" s="367" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="390" t="s">
+      <c r="C62" s="368" t="s">
         <v>272</v>
       </c>
-      <c r="D62" s="345" t="str">
+      <c r="D62" s="323" t="str">
         <f>IF(C62="","",IF(E62="","",IF(E62&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E62" s="346">
+      <c r="E62" s="324">
         <v>1</v>
       </c>
-      <c r="F62" s="345"/>
-      <c r="G62" s="345">
+      <c r="F62" s="323"/>
+      <c r="G62" s="323">
         <f>F62*E62</f>
         <v>0</v>
       </c>
-      <c r="H62" s="347">
+      <c r="H62" s="325">
         <v>2000</v>
       </c>
-      <c r="I62" s="348">
+      <c r="I62" s="326">
         <f>H62*E62</f>
         <v>2000</v>
       </c>
-      <c r="J62" s="349">
+      <c r="J62" s="327">
         <f>I62+G62</f>
         <v>2000</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="72"/>
-      <c r="B63" s="389" t="s">
+      <c r="B63" s="367" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="391" t="s">
+      <c r="C63" s="369" t="s">
         <v>273</v>
       </c>
-      <c r="D63" s="345" t="str">
+      <c r="D63" s="323" t="str">
         <f>IF(C63="","",IF(E63="","",IF(E63&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E63" s="346">
+      <c r="E63" s="324">
         <v>1</v>
       </c>
-      <c r="F63" s="345"/>
-      <c r="G63" s="345">
+      <c r="F63" s="323"/>
+      <c r="G63" s="323">
         <f>F63*E63</f>
         <v>0</v>
       </c>
-      <c r="H63" s="347">
+      <c r="H63" s="325">
         <v>3000</v>
       </c>
-      <c r="I63" s="348">
+      <c r="I63" s="326">
         <f>H63*E63</f>
         <v>3000</v>
       </c>
-      <c r="J63" s="349">
+      <c r="J63" s="327">
         <f>I63+G63</f>
         <v>3000</v>
       </c>
@@ -16019,46 +16011,46 @@
         <f>A61+0.1</f>
         <v>2.7000000000000006</v>
       </c>
-      <c r="B64" s="342"/>
-      <c r="C64" s="368" t="s">
+      <c r="B64" s="320"/>
+      <c r="C64" s="346" t="s">
         <v>275</v>
       </c>
-      <c r="D64" s="359"/>
-      <c r="E64" s="360"/>
-      <c r="F64" s="359"/>
-      <c r="G64" s="359"/>
-      <c r="H64" s="412"/>
-      <c r="I64" s="413"/>
-      <c r="J64" s="414"/>
+      <c r="D64" s="337"/>
+      <c r="E64" s="338"/>
+      <c r="F64" s="337"/>
+      <c r="G64" s="337"/>
+      <c r="H64" s="390"/>
+      <c r="I64" s="391"/>
+      <c r="J64" s="392"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="72"/>
-      <c r="B65" s="342" t="s">
+      <c r="B65" s="320" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="344" t="s">
+      <c r="C65" s="322" t="s">
         <v>276</v>
       </c>
-      <c r="D65" s="345" t="str">
+      <c r="D65" s="323" t="str">
         <f>IF(C65="","",IF(E65="","",IF(E65&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E65" s="346">
+      <c r="E65" s="324">
         <v>2</v>
       </c>
-      <c r="F65" s="345"/>
-      <c r="G65" s="345">
+      <c r="F65" s="323"/>
+      <c r="G65" s="323">
         <f>F65*E65</f>
         <v>0</v>
       </c>
-      <c r="H65" s="347">
+      <c r="H65" s="325">
         <v>1000</v>
       </c>
-      <c r="I65" s="348">
+      <c r="I65" s="326">
         <f>H65*E65</f>
         <v>2000</v>
       </c>
-      <c r="J65" s="349">
+      <c r="J65" s="327">
         <f>I65+G65</f>
         <v>2000</v>
       </c>
@@ -16068,46 +16060,46 @@
         <f>A64+0.1</f>
         <v>2.8000000000000007</v>
       </c>
-      <c r="B66" s="342"/>
-      <c r="C66" s="343" t="s">
+      <c r="B66" s="320"/>
+      <c r="C66" s="321" t="s">
         <v>277</v>
       </c>
-      <c r="D66" s="359"/>
-      <c r="E66" s="360"/>
-      <c r="F66" s="359"/>
-      <c r="G66" s="359"/>
-      <c r="H66" s="412"/>
-      <c r="I66" s="413"/>
-      <c r="J66" s="414"/>
+      <c r="D66" s="337"/>
+      <c r="E66" s="338"/>
+      <c r="F66" s="337"/>
+      <c r="G66" s="337"/>
+      <c r="H66" s="390"/>
+      <c r="I66" s="391"/>
+      <c r="J66" s="392"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="72"/>
-      <c r="B67" s="342" t="s">
+      <c r="B67" s="320" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="D67" s="345" t="str">
+      <c r="D67" s="323" t="str">
         <f>IF(C67="","",IF(E67="","",IF(E67&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E67" s="346">
+      <c r="E67" s="324">
         <v>11</v>
       </c>
-      <c r="F67" s="345"/>
-      <c r="G67" s="345">
+      <c r="F67" s="323"/>
+      <c r="G67" s="323">
         <f>F67*E67</f>
         <v>0</v>
       </c>
-      <c r="H67" s="347">
+      <c r="H67" s="325">
         <v>2000</v>
       </c>
-      <c r="I67" s="348">
+      <c r="I67" s="326">
         <f>H67*E67</f>
         <v>22000</v>
       </c>
-      <c r="J67" s="349">
+      <c r="J67" s="327">
         <f>I67+G67</f>
         <v>22000</v>
       </c>
@@ -16117,337 +16109,337 @@
         <f>A66+0.1</f>
         <v>2.9000000000000008</v>
       </c>
-      <c r="B68" s="417"/>
-      <c r="C68" s="343" t="s">
+      <c r="B68" s="395"/>
+      <c r="C68" s="321" t="s">
         <v>279</v>
       </c>
-      <c r="D68" s="359"/>
-      <c r="E68" s="360"/>
-      <c r="F68" s="359"/>
-      <c r="G68" s="442"/>
-      <c r="H68" s="359"/>
-      <c r="I68" s="359"/>
-      <c r="J68" s="443"/>
+      <c r="D68" s="337"/>
+      <c r="E68" s="338"/>
+      <c r="F68" s="337"/>
+      <c r="G68" s="420"/>
+      <c r="H68" s="337"/>
+      <c r="I68" s="337"/>
+      <c r="J68" s="421"/>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="72"/>
-      <c r="B69" s="417" t="s">
+      <c r="B69" s="395" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="444" t="s">
+      <c r="C69" s="422" t="s">
         <v>280</v>
       </c>
-      <c r="D69" s="345" t="s">
+      <c r="D69" s="323" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="346">
+      <c r="E69" s="324">
         <v>1</v>
       </c>
-      <c r="F69" s="345"/>
-      <c r="G69" s="345">
+      <c r="F69" s="323"/>
+      <c r="G69" s="323">
         <f>F69*E69</f>
         <v>0</v>
       </c>
-      <c r="H69" s="347">
+      <c r="H69" s="325">
         <v>25000</v>
       </c>
-      <c r="I69" s="348">
+      <c r="I69" s="326">
         <f>H69*E69</f>
         <v>25000</v>
       </c>
-      <c r="J69" s="349">
+      <c r="J69" s="327">
         <f>I69+G69</f>
         <v>25000</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="364">
+      <c r="A70" s="342">
         <v>2.1</v>
       </c>
-      <c r="B70" s="417"/>
-      <c r="C70" s="343" t="s">
+      <c r="B70" s="395"/>
+      <c r="C70" s="321" t="s">
         <v>281</v>
       </c>
       <c r="D70" s="47"/>
       <c r="E70" s="47"/>
-      <c r="F70" s="351"/>
-      <c r="G70" s="351"/>
-      <c r="H70" s="445"/>
-      <c r="I70" s="446"/>
-      <c r="J70" s="447"/>
+      <c r="F70" s="329"/>
+      <c r="G70" s="329"/>
+      <c r="H70" s="423"/>
+      <c r="I70" s="424"/>
+      <c r="J70" s="425"/>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="375"/>
-      <c r="B71" s="415" t="s">
+      <c r="A71" s="353"/>
+      <c r="B71" s="393" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="448" t="s">
+      <c r="C71" s="426" t="s">
         <v>282</v>
       </c>
-      <c r="D71" s="449" t="s">
+      <c r="D71" s="427" t="s">
         <v>283</v>
       </c>
-      <c r="E71" s="450">
+      <c r="E71" s="428">
         <v>1</v>
       </c>
-      <c r="F71" s="345"/>
-      <c r="G71" s="345">
+      <c r="F71" s="323"/>
+      <c r="G71" s="323">
         <f>F71*E71</f>
         <v>0</v>
       </c>
-      <c r="H71" s="347">
+      <c r="H71" s="325">
         <v>2000</v>
       </c>
-      <c r="I71" s="348">
+      <c r="I71" s="326">
         <f>H71*E71</f>
         <v>2000</v>
       </c>
-      <c r="J71" s="349">
+      <c r="J71" s="327">
         <f>I71+G71</f>
         <v>2000</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="364">
+      <c r="A72" s="342">
         <f>A70+0.01</f>
         <v>2.11</v>
       </c>
-      <c r="B72" s="417"/>
-      <c r="C72" s="451" t="s">
+      <c r="B72" s="395"/>
+      <c r="C72" s="429" t="s">
         <v>284</v>
       </c>
-      <c r="D72" s="356" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="357">
+      <c r="D72" s="334" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="335">
         <v>1</v>
       </c>
-      <c r="F72" s="345"/>
-      <c r="G72" s="345">
+      <c r="F72" s="323"/>
+      <c r="G72" s="323">
         <f>F72*E72</f>
         <v>0</v>
       </c>
-      <c r="H72" s="347">
+      <c r="H72" s="325">
         <v>15000</v>
       </c>
-      <c r="I72" s="348">
+      <c r="I72" s="326">
         <f>H72*E72</f>
         <v>15000</v>
       </c>
-      <c r="J72" s="349">
+      <c r="J72" s="327">
         <f>I72+G72</f>
         <v>15000</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="397"/>
-      <c r="B73" s="398"/>
-      <c r="C73" s="399" t="s">
+      <c r="A73" s="375"/>
+      <c r="B73" s="376"/>
+      <c r="C73" s="377" t="s">
         <v>250</v>
       </c>
-      <c r="D73" s="452"/>
-      <c r="E73" s="453"/>
-      <c r="F73" s="401"/>
-      <c r="G73" s="401"/>
-      <c r="H73" s="452"/>
-      <c r="I73" s="401"/>
-      <c r="J73" s="454"/>
+      <c r="D73" s="430"/>
+      <c r="E73" s="431"/>
+      <c r="F73" s="379"/>
+      <c r="G73" s="379"/>
+      <c r="H73" s="430"/>
+      <c r="I73" s="379"/>
+      <c r="J73" s="432"/>
     </row>
     <row r="74" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="44"/>
-      <c r="B74" s="411"/>
-      <c r="C74" s="455" t="s">
+      <c r="B74" s="389"/>
+      <c r="C74" s="433" t="s">
         <v>285</v>
       </c>
-      <c r="D74" s="359"/>
-      <c r="E74" s="359"/>
-      <c r="F74" s="359"/>
-      <c r="G74" s="359"/>
-      <c r="H74" s="412"/>
-      <c r="I74" s="413"/>
-      <c r="J74" s="414"/>
+      <c r="D74" s="337"/>
+      <c r="E74" s="337"/>
+      <c r="F74" s="337"/>
+      <c r="G74" s="337"/>
+      <c r="H74" s="390"/>
+      <c r="I74" s="391"/>
+      <c r="J74" s="392"/>
     </row>
     <row r="75" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="44"/>
-      <c r="B75" s="411"/>
-      <c r="C75" s="456" t="s">
+      <c r="B75" s="389"/>
+      <c r="C75" s="434" t="s">
         <v>286</v>
       </c>
-      <c r="D75" s="359"/>
-      <c r="E75" s="359"/>
-      <c r="F75" s="359"/>
-      <c r="G75" s="359"/>
-      <c r="H75" s="412"/>
-      <c r="I75" s="413"/>
-      <c r="J75" s="414"/>
+      <c r="D75" s="337"/>
+      <c r="E75" s="337"/>
+      <c r="F75" s="337"/>
+      <c r="G75" s="337"/>
+      <c r="H75" s="390"/>
+      <c r="I75" s="391"/>
+      <c r="J75" s="392"/>
     </row>
     <row r="76" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A76" s="72">
         <v>3.1</v>
       </c>
-      <c r="B76" s="336"/>
-      <c r="C76" s="350" t="s">
+      <c r="B76" s="314"/>
+      <c r="C76" s="328" t="s">
         <v>287</v>
       </c>
-      <c r="D76" s="359"/>
-      <c r="E76" s="359"/>
-      <c r="F76" s="359"/>
-      <c r="G76" s="359"/>
-      <c r="H76" s="412"/>
-      <c r="I76" s="413"/>
-      <c r="J76" s="414"/>
+      <c r="D76" s="337"/>
+      <c r="E76" s="337"/>
+      <c r="F76" s="337"/>
+      <c r="G76" s="337"/>
+      <c r="H76" s="390"/>
+      <c r="I76" s="391"/>
+      <c r="J76" s="392"/>
     </row>
     <row r="77" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="59"/>
-      <c r="B77" s="389" t="s">
+      <c r="B77" s="367" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="390" t="s">
+      <c r="C77" s="368" t="s">
         <v>288</v>
       </c>
-      <c r="D77" s="345" t="s">
+      <c r="D77" s="323" t="s">
         <v>255</v>
       </c>
-      <c r="E77" s="346">
+      <c r="E77" s="324">
         <v>200</v>
       </c>
-      <c r="F77" s="345"/>
-      <c r="G77" s="345">
+      <c r="F77" s="323"/>
+      <c r="G77" s="323">
         <f>F77*E77</f>
         <v>0</v>
       </c>
-      <c r="H77" s="347">
+      <c r="H77" s="325">
         <v>100</v>
       </c>
-      <c r="I77" s="348">
+      <c r="I77" s="326">
         <f>H77*E77</f>
         <v>20000</v>
       </c>
-      <c r="J77" s="349">
+      <c r="J77" s="327">
         <f>I77+G77</f>
         <v>20000</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="59"/>
-      <c r="B78" s="389" t="s">
+      <c r="B78" s="367" t="s">
         <v>42</v>
       </c>
-      <c r="C78" s="390" t="s">
+      <c r="C78" s="368" t="s">
         <v>289</v>
       </c>
-      <c r="D78" s="345" t="s">
+      <c r="D78" s="323" t="s">
         <v>255</v>
       </c>
-      <c r="E78" s="346">
+      <c r="E78" s="324">
         <v>490</v>
       </c>
-      <c r="F78" s="345"/>
-      <c r="G78" s="345">
+      <c r="F78" s="323"/>
+      <c r="G78" s="323">
         <f>F78*E78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="347">
+      <c r="H78" s="325">
         <v>150</v>
       </c>
-      <c r="I78" s="348">
+      <c r="I78" s="326">
         <f>H78*E78</f>
         <v>73500</v>
       </c>
-      <c r="J78" s="349">
+      <c r="J78" s="327">
         <f>I78+G78</f>
         <v>73500</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="59"/>
-      <c r="B79" s="389" t="s">
+      <c r="B79" s="367" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="391" t="s">
+      <c r="C79" s="369" t="s">
         <v>290</v>
       </c>
-      <c r="D79" s="383" t="s">
+      <c r="D79" s="361" t="s">
         <v>255</v>
       </c>
-      <c r="E79" s="384">
+      <c r="E79" s="362">
         <v>1120</v>
       </c>
-      <c r="F79" s="345"/>
-      <c r="G79" s="345">
+      <c r="F79" s="323"/>
+      <c r="G79" s="323">
         <f>F79*E79</f>
         <v>0</v>
       </c>
-      <c r="H79" s="347">
+      <c r="H79" s="325">
         <v>200</v>
       </c>
-      <c r="I79" s="348">
+      <c r="I79" s="326">
         <f>H79*E79</f>
         <v>224000</v>
       </c>
-      <c r="J79" s="349">
+      <c r="J79" s="327">
         <f>I79+G79</f>
         <v>224000</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="59"/>
-      <c r="B80" s="389" t="s">
+      <c r="B80" s="367" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="391" t="s">
+      <c r="C80" s="369" t="s">
         <v>291</v>
       </c>
-      <c r="D80" s="383" t="s">
+      <c r="D80" s="361" t="s">
         <v>255</v>
       </c>
-      <c r="E80" s="346">
+      <c r="E80" s="324">
         <v>60</v>
       </c>
-      <c r="F80" s="345"/>
-      <c r="G80" s="345">
+      <c r="F80" s="323"/>
+      <c r="G80" s="323">
         <f>F80*E80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="347">
+      <c r="H80" s="325">
         <v>250</v>
       </c>
-      <c r="I80" s="348">
+      <c r="I80" s="326">
         <f>H80*E80</f>
         <v>15000</v>
       </c>
-      <c r="J80" s="349">
+      <c r="J80" s="327">
         <f>I80+G80</f>
         <v>15000</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="389" t="s">
+      <c r="B81" s="367" t="s">
         <v>248</v>
       </c>
-      <c r="C81" s="391" t="s">
+      <c r="C81" s="369" t="s">
         <v>292</v>
       </c>
-      <c r="D81" s="383" t="s">
+      <c r="D81" s="361" t="s">
         <v>255</v>
       </c>
-      <c r="E81" s="346">
+      <c r="E81" s="324">
         <v>70</v>
       </c>
-      <c r="F81" s="345"/>
-      <c r="G81" s="345">
+      <c r="F81" s="323"/>
+      <c r="G81" s="323">
         <f>F81*E81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="347">
+      <c r="H81" s="325">
         <v>150</v>
       </c>
-      <c r="I81" s="348">
+      <c r="I81" s="326">
         <f>H81*E81</f>
         <v>10500</v>
       </c>
-      <c r="J81" s="349">
+      <c r="J81" s="327">
         <f>I81+G81</f>
         <v>10500</v>
       </c>
@@ -16457,46 +16449,46 @@
         <f>A76+0.1</f>
         <v>3.2</v>
       </c>
-      <c r="B82" s="336"/>
-      <c r="C82" s="457" t="s">
+      <c r="B82" s="314"/>
+      <c r="C82" s="435" t="s">
         <v>293</v>
       </c>
-      <c r="D82" s="359"/>
-      <c r="E82" s="360"/>
-      <c r="F82" s="359"/>
-      <c r="G82" s="359"/>
-      <c r="H82" s="458"/>
-      <c r="I82" s="459"/>
-      <c r="J82" s="414"/>
+      <c r="D82" s="337"/>
+      <c r="E82" s="338"/>
+      <c r="F82" s="337"/>
+      <c r="G82" s="337"/>
+      <c r="H82" s="436"/>
+      <c r="I82" s="437"/>
+      <c r="J82" s="392"/>
     </row>
     <row r="83" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="210"/>
-      <c r="B83" s="438" t="s">
+      <c r="B83" s="416" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="460" t="s">
+      <c r="C83" s="438" t="s">
         <v>294</v>
       </c>
-      <c r="D83" s="378" t="str">
+      <c r="D83" s="356" t="str">
         <f>IF(C83="","",IF(E83="","",IF(E83&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E83" s="379">
+      <c r="E83" s="357">
         <v>30</v>
       </c>
-      <c r="F83" s="345"/>
-      <c r="G83" s="345">
+      <c r="F83" s="323"/>
+      <c r="G83" s="323">
         <f>F83*E83</f>
         <v>0</v>
       </c>
-      <c r="H83" s="347">
+      <c r="H83" s="325">
         <v>1000</v>
       </c>
-      <c r="I83" s="348">
+      <c r="I83" s="326">
         <f>H83*E83</f>
         <v>30000</v>
       </c>
-      <c r="J83" s="349">
+      <c r="J83" s="327">
         <f>I83+G83</f>
         <v>30000</v>
       </c>
@@ -16506,45 +16498,45 @@
         <f>A82+0.1</f>
         <v>3.3000000000000003</v>
       </c>
-      <c r="B84" s="342"/>
-      <c r="C84" s="461" t="s">
+      <c r="B84" s="320"/>
+      <c r="C84" s="439" t="s">
         <v>295</v>
       </c>
-      <c r="D84" s="359"/>
-      <c r="E84" s="360"/>
-      <c r="F84" s="359"/>
-      <c r="G84" s="359"/>
-      <c r="H84" s="412"/>
-      <c r="I84" s="413"/>
-      <c r="J84" s="414"/>
+      <c r="D84" s="337"/>
+      <c r="E84" s="338"/>
+      <c r="F84" s="337"/>
+      <c r="G84" s="337"/>
+      <c r="H84" s="390"/>
+      <c r="I84" s="391"/>
+      <c r="J84" s="392"/>
     </row>
     <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="72"/>
-      <c r="B85" s="417" t="s">
+      <c r="B85" s="395" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="462" t="s">
+      <c r="C85" s="440" t="s">
         <v>296</v>
       </c>
-      <c r="D85" s="345" t="s">
+      <c r="D85" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="E85" s="346">
+      <c r="E85" s="324">
         <v>8</v>
       </c>
-      <c r="F85" s="345"/>
-      <c r="G85" s="345">
+      <c r="F85" s="323"/>
+      <c r="G85" s="323">
         <f>F85*E85</f>
         <v>0</v>
       </c>
-      <c r="H85" s="347">
+      <c r="H85" s="325">
         <v>1000</v>
       </c>
-      <c r="I85" s="348">
+      <c r="I85" s="326">
         <f>H85*E85</f>
         <v>8000</v>
       </c>
-      <c r="J85" s="349">
+      <c r="J85" s="327">
         <f>I85+G85</f>
         <v>8000</v>
       </c>
@@ -16554,45 +16546,45 @@
         <f>A84+0.1</f>
         <v>3.4000000000000004</v>
       </c>
-      <c r="B86" s="426"/>
-      <c r="C86" s="350" t="s">
+      <c r="B86" s="404"/>
+      <c r="C86" s="328" t="s">
         <v>297</v>
       </c>
-      <c r="D86" s="359"/>
-      <c r="E86" s="360"/>
-      <c r="F86" s="359"/>
-      <c r="G86" s="359"/>
-      <c r="H86" s="412"/>
-      <c r="I86" s="413"/>
-      <c r="J86" s="414"/>
+      <c r="D86" s="337"/>
+      <c r="E86" s="338"/>
+      <c r="F86" s="337"/>
+      <c r="G86" s="337"/>
+      <c r="H86" s="390"/>
+      <c r="I86" s="391"/>
+      <c r="J86" s="392"/>
     </row>
     <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="72"/>
-      <c r="B87" s="417" t="s">
+      <c r="B87" s="395" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="390" t="s">
+      <c r="C87" s="368" t="s">
         <v>298</v>
       </c>
-      <c r="D87" s="345" t="s">
+      <c r="D87" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="E87" s="346">
+      <c r="E87" s="324">
         <v>5</v>
       </c>
-      <c r="F87" s="345"/>
-      <c r="G87" s="345">
+      <c r="F87" s="323"/>
+      <c r="G87" s="323">
         <f>F87*E87</f>
         <v>0</v>
       </c>
-      <c r="H87" s="347">
+      <c r="H87" s="325">
         <v>1500</v>
       </c>
-      <c r="I87" s="348">
+      <c r="I87" s="326">
         <f>H87*E87</f>
         <v>7500</v>
       </c>
-      <c r="J87" s="349">
+      <c r="J87" s="327">
         <f>I87+G87</f>
         <v>7500</v>
       </c>
@@ -16602,200 +16594,200 @@
         <f>A86+0.1</f>
         <v>3.5000000000000004</v>
       </c>
-      <c r="B88" s="342"/>
-      <c r="C88" s="343" t="s">
+      <c r="B88" s="320"/>
+      <c r="C88" s="321" t="s">
         <v>299</v>
       </c>
-      <c r="D88" s="359"/>
-      <c r="E88" s="360"/>
-      <c r="F88" s="359"/>
-      <c r="G88" s="359"/>
-      <c r="H88" s="412"/>
-      <c r="I88" s="413"/>
-      <c r="J88" s="414"/>
+      <c r="D88" s="337"/>
+      <c r="E88" s="338"/>
+      <c r="F88" s="337"/>
+      <c r="G88" s="337"/>
+      <c r="H88" s="390"/>
+      <c r="I88" s="391"/>
+      <c r="J88" s="392"/>
     </row>
     <row r="89" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="59"/>
-      <c r="B89" s="389" t="s">
+      <c r="B89" s="367" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="390" t="s">
+      <c r="C89" s="368" t="s">
         <v>300</v>
       </c>
-      <c r="D89" s="345" t="str">
+      <c r="D89" s="323" t="str">
         <f>IF(C89="","",IF(E89="","",IF(E89&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E89" s="346">
+      <c r="E89" s="324">
         <v>3</v>
       </c>
-      <c r="F89" s="345"/>
-      <c r="G89" s="345">
+      <c r="F89" s="323"/>
+      <c r="G89" s="323">
         <f>F89*E89</f>
         <v>0</v>
       </c>
-      <c r="H89" s="347">
+      <c r="H89" s="325">
         <v>500</v>
       </c>
-      <c r="I89" s="348">
+      <c r="I89" s="326">
         <f>H89*E89</f>
         <v>1500</v>
       </c>
-      <c r="J89" s="349">
+      <c r="J89" s="327">
         <f>I89+G89</f>
         <v>1500</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="59"/>
-      <c r="B90" s="389" t="s">
+      <c r="B90" s="367" t="s">
         <v>42</v>
       </c>
-      <c r="C90" s="391" t="s">
+      <c r="C90" s="369" t="s">
         <v>301</v>
       </c>
-      <c r="D90" s="345" t="str">
+      <c r="D90" s="323" t="str">
         <f>IF(C90="","",IF(E90="","",IF(E90&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E90" s="346">
+      <c r="E90" s="324">
         <v>3</v>
       </c>
-      <c r="F90" s="345"/>
-      <c r="G90" s="345">
+      <c r="F90" s="323"/>
+      <c r="G90" s="323">
         <f>F90*E90</f>
         <v>0</v>
       </c>
-      <c r="H90" s="347">
+      <c r="H90" s="325">
         <v>500</v>
       </c>
-      <c r="I90" s="348">
+      <c r="I90" s="326">
         <f>H90*E90</f>
         <v>1500</v>
       </c>
-      <c r="J90" s="349">
+      <c r="J90" s="327">
         <f>I90+G90</f>
         <v>1500</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="463"/>
-      <c r="B91" s="393" t="s">
+      <c r="A91" s="441"/>
+      <c r="B91" s="371" t="s">
         <v>43</v>
       </c>
-      <c r="C91" s="391" t="s">
+      <c r="C91" s="369" t="s">
         <v>302</v>
       </c>
-      <c r="D91" s="383" t="str">
+      <c r="D91" s="361" t="str">
         <f>IF(C91="","",IF(E91="","",IF(E91&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E91" s="384">
+      <c r="E91" s="362">
         <v>1</v>
       </c>
-      <c r="F91" s="345"/>
-      <c r="G91" s="345">
+      <c r="F91" s="323"/>
+      <c r="G91" s="323">
         <f>F91*E91</f>
         <v>0</v>
       </c>
-      <c r="H91" s="347">
+      <c r="H91" s="325">
         <v>500</v>
       </c>
-      <c r="I91" s="348">
+      <c r="I91" s="326">
         <f>H91*E91</f>
         <v>500</v>
       </c>
-      <c r="J91" s="349">
+      <c r="J91" s="327">
         <f>I91+G91</f>
         <v>500</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="375"/>
-      <c r="B92" s="464"/>
-      <c r="C92" s="465" t="s">
+      <c r="A92" s="353"/>
+      <c r="B92" s="442"/>
+      <c r="C92" s="443" t="s">
         <v>250</v>
       </c>
-      <c r="D92" s="466"/>
-      <c r="E92" s="452"/>
-      <c r="F92" s="467"/>
-      <c r="G92" s="467"/>
-      <c r="H92" s="468"/>
-      <c r="I92" s="467"/>
-      <c r="J92" s="469"/>
+      <c r="D92" s="444"/>
+      <c r="E92" s="430"/>
+      <c r="F92" s="445"/>
+      <c r="G92" s="445"/>
+      <c r="H92" s="446"/>
+      <c r="I92" s="445"/>
+      <c r="J92" s="447"/>
     </row>
     <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="470"/>
-      <c r="B93" s="471"/>
-      <c r="C93" s="472" t="s">
+      <c r="A93" s="448"/>
+      <c r="B93" s="449"/>
+      <c r="C93" s="450" t="s">
         <v>303</v>
       </c>
-      <c r="D93" s="407"/>
-      <c r="E93" s="407"/>
-      <c r="F93" s="407"/>
-      <c r="G93" s="407"/>
-      <c r="H93" s="408"/>
-      <c r="I93" s="409"/>
-      <c r="J93" s="410"/>
+      <c r="D93" s="385"/>
+      <c r="E93" s="385"/>
+      <c r="F93" s="385"/>
+      <c r="G93" s="385"/>
+      <c r="H93" s="386"/>
+      <c r="I93" s="387"/>
+      <c r="J93" s="388"/>
     </row>
     <row r="94" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="470"/>
-      <c r="B94" s="471"/>
-      <c r="C94" s="456" t="s">
+      <c r="A94" s="448"/>
+      <c r="B94" s="449"/>
+      <c r="C94" s="434" t="s">
         <v>304</v>
       </c>
-      <c r="D94" s="359"/>
-      <c r="E94" s="359"/>
-      <c r="F94" s="359"/>
-      <c r="G94" s="359"/>
-      <c r="H94" s="412"/>
-      <c r="I94" s="413"/>
-      <c r="J94" s="414"/>
+      <c r="D94" s="337"/>
+      <c r="E94" s="337"/>
+      <c r="F94" s="337"/>
+      <c r="G94" s="337"/>
+      <c r="H94" s="390"/>
+      <c r="I94" s="391"/>
+      <c r="J94" s="392"/>
     </row>
     <row r="95" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="72">
         <f>4.1</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="B95" s="336"/>
-      <c r="C95" s="350" t="s">
+      <c r="B95" s="314"/>
+      <c r="C95" s="328" t="s">
         <v>305</v>
       </c>
-      <c r="D95" s="473"/>
-      <c r="E95" s="474"/>
-      <c r="F95" s="475"/>
-      <c r="G95" s="476"/>
-      <c r="H95" s="477"/>
-      <c r="I95" s="475"/>
-      <c r="J95" s="478"/>
+      <c r="D95" s="451"/>
+      <c r="E95" s="452"/>
+      <c r="F95" s="453"/>
+      <c r="G95" s="454"/>
+      <c r="H95" s="455"/>
+      <c r="I95" s="453"/>
+      <c r="J95" s="456"/>
     </row>
     <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="72"/>
-      <c r="B96" s="342" t="s">
+      <c r="B96" s="320" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="462" t="s">
+      <c r="C96" s="440" t="s">
         <v>306</v>
       </c>
-      <c r="D96" s="345" t="s">
+      <c r="D96" s="323" t="s">
         <v>255</v>
       </c>
-      <c r="E96" s="346">
+      <c r="E96" s="324">
         <v>200</v>
       </c>
-      <c r="F96" s="345"/>
-      <c r="G96" s="345">
+      <c r="F96" s="323"/>
+      <c r="G96" s="323">
         <f>F96*E96</f>
         <v>0</v>
       </c>
-      <c r="H96" s="347">
+      <c r="H96" s="325">
         <v>300</v>
       </c>
-      <c r="I96" s="348">
+      <c r="I96" s="326">
         <f>H96*E96</f>
         <v>60000</v>
       </c>
-      <c r="J96" s="349">
+      <c r="J96" s="327">
         <f>I96+G96</f>
         <v>60000</v>
       </c>
@@ -16805,45 +16797,45 @@
         <f>A95+0.1</f>
         <v>4.1999999999999993</v>
       </c>
-      <c r="B97" s="336"/>
-      <c r="C97" s="350" t="s">
+      <c r="B97" s="314"/>
+      <c r="C97" s="328" t="s">
         <v>307</v>
       </c>
-      <c r="D97" s="473"/>
-      <c r="E97" s="474"/>
-      <c r="F97" s="475"/>
-      <c r="G97" s="476"/>
-      <c r="H97" s="477"/>
-      <c r="I97" s="475"/>
-      <c r="J97" s="478"/>
+      <c r="D97" s="451"/>
+      <c r="E97" s="452"/>
+      <c r="F97" s="453"/>
+      <c r="G97" s="454"/>
+      <c r="H97" s="455"/>
+      <c r="I97" s="453"/>
+      <c r="J97" s="456"/>
     </row>
     <row r="98" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="375"/>
-      <c r="B98" s="479" t="s">
+      <c r="A98" s="353"/>
+      <c r="B98" s="457" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="377" t="s">
+      <c r="C98" s="355" t="s">
         <v>308</v>
       </c>
-      <c r="D98" s="378" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="379">
+      <c r="D98" s="356" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="357">
         <v>4</v>
       </c>
-      <c r="F98" s="345"/>
-      <c r="G98" s="345">
+      <c r="F98" s="323"/>
+      <c r="G98" s="323">
         <f>F98*E98</f>
         <v>0</v>
       </c>
-      <c r="H98" s="347">
+      <c r="H98" s="325">
         <v>3000</v>
       </c>
-      <c r="I98" s="348">
+      <c r="I98" s="326">
         <f>H98*E98</f>
         <v>12000</v>
       </c>
-      <c r="J98" s="349">
+      <c r="J98" s="327">
         <f>I98+G98</f>
         <v>12000</v>
       </c>
@@ -16853,45 +16845,45 @@
         <f>A97+0.1</f>
         <v>4.2999999999999989</v>
       </c>
-      <c r="B99" s="336"/>
-      <c r="C99" s="350" t="s">
+      <c r="B99" s="314"/>
+      <c r="C99" s="328" t="s">
         <v>309</v>
       </c>
-      <c r="D99" s="473"/>
-      <c r="E99" s="474"/>
-      <c r="F99" s="475"/>
-      <c r="G99" s="476"/>
-      <c r="H99" s="477"/>
-      <c r="I99" s="475"/>
-      <c r="J99" s="478"/>
+      <c r="D99" s="451"/>
+      <c r="E99" s="452"/>
+      <c r="F99" s="453"/>
+      <c r="G99" s="454"/>
+      <c r="H99" s="455"/>
+      <c r="I99" s="453"/>
+      <c r="J99" s="456"/>
     </row>
     <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="72"/>
-      <c r="B100" s="342" t="s">
+      <c r="B100" s="320" t="s">
         <v>41</v>
       </c>
       <c r="C100" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="D100" s="345" t="s">
+      <c r="D100" s="323" t="s">
         <v>255</v>
       </c>
-      <c r="E100" s="346">
+      <c r="E100" s="324">
         <v>55</v>
       </c>
-      <c r="F100" s="345"/>
-      <c r="G100" s="345">
+      <c r="F100" s="323"/>
+      <c r="G100" s="323">
         <f>F100*E100</f>
         <v>0</v>
       </c>
-      <c r="H100" s="347">
+      <c r="H100" s="325">
         <v>2000</v>
       </c>
-      <c r="I100" s="348">
+      <c r="I100" s="326">
         <f>H100*E100</f>
         <v>110000</v>
       </c>
-      <c r="J100" s="349">
+      <c r="J100" s="327">
         <f>I100+G100</f>
         <v>110000</v>
       </c>
@@ -16901,45 +16893,45 @@
         <f>A99+0.1</f>
         <v>4.3999999999999986</v>
       </c>
-      <c r="B101" s="336"/>
-      <c r="C101" s="480" t="s">
+      <c r="B101" s="314"/>
+      <c r="C101" s="458" t="s">
         <v>311</v>
       </c>
-      <c r="D101" s="473"/>
-      <c r="E101" s="474"/>
-      <c r="F101" s="475"/>
-      <c r="G101" s="476"/>
-      <c r="H101" s="477"/>
-      <c r="I101" s="475"/>
-      <c r="J101" s="478"/>
+      <c r="D101" s="451"/>
+      <c r="E101" s="452"/>
+      <c r="F101" s="453"/>
+      <c r="G101" s="454"/>
+      <c r="H101" s="455"/>
+      <c r="I101" s="453"/>
+      <c r="J101" s="456"/>
     </row>
     <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="72"/>
-      <c r="B102" s="342" t="s">
+      <c r="B102" s="320" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="481" t="s">
+      <c r="C102" s="459" t="s">
         <v>312</v>
       </c>
-      <c r="D102" s="345" t="s">
+      <c r="D102" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="E102" s="346">
+      <c r="E102" s="324">
         <v>6</v>
       </c>
-      <c r="F102" s="345"/>
-      <c r="G102" s="345">
+      <c r="F102" s="323"/>
+      <c r="G102" s="323">
         <f>F102*E102</f>
         <v>0</v>
       </c>
-      <c r="H102" s="347">
+      <c r="H102" s="325">
         <v>15000</v>
       </c>
-      <c r="I102" s="348">
+      <c r="I102" s="326">
         <f>H102*E102</f>
         <v>90000</v>
       </c>
-      <c r="J102" s="349">
+      <c r="J102" s="327">
         <f>I102+G102</f>
         <v>90000</v>
       </c>
@@ -16949,24 +16941,24 @@
         <f>A101+0.1</f>
         <v>4.4999999999999982</v>
       </c>
-      <c r="B103" s="417"/>
-      <c r="C103" s="480" t="s">
+      <c r="B103" s="395"/>
+      <c r="C103" s="458" t="s">
         <v>313</v>
       </c>
       <c r="D103" s="75"/>
       <c r="E103" s="75"/>
-      <c r="F103" s="482"/>
-      <c r="G103" s="359"/>
-      <c r="H103" s="412"/>
-      <c r="I103" s="483"/>
-      <c r="J103" s="414"/>
+      <c r="F103" s="460"/>
+      <c r="G103" s="337"/>
+      <c r="H103" s="390"/>
+      <c r="I103" s="461"/>
+      <c r="J103" s="392"/>
     </row>
     <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="72"/>
-      <c r="B104" s="417" t="s">
+      <c r="B104" s="395" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="484" t="s">
+      <c r="C104" s="462" t="s">
         <v>314</v>
       </c>
       <c r="D104" s="62" t="s">
@@ -16975,19 +16967,19 @@
       <c r="E104" s="62">
         <v>2</v>
       </c>
-      <c r="F104" s="345"/>
-      <c r="G104" s="345">
+      <c r="F104" s="323"/>
+      <c r="G104" s="323">
         <f>F104*E104</f>
         <v>0</v>
       </c>
-      <c r="H104" s="347">
+      <c r="H104" s="325">
         <v>25000</v>
       </c>
-      <c r="I104" s="348">
+      <c r="I104" s="326">
         <f>H104*E104</f>
         <v>50000</v>
       </c>
-      <c r="J104" s="349">
+      <c r="J104" s="327">
         <f>I104+G104</f>
         <v>50000</v>
       </c>
@@ -16997,57 +16989,57 @@
         <f>A103+0.1</f>
         <v>4.5999999999999979</v>
       </c>
-      <c r="B105" s="417"/>
-      <c r="C105" s="350" t="s">
+      <c r="B105" s="395"/>
+      <c r="C105" s="328" t="s">
         <v>315</v>
       </c>
       <c r="D105" s="47"/>
       <c r="E105" s="47"/>
-      <c r="F105" s="482"/>
-      <c r="G105" s="359"/>
-      <c r="H105" s="412"/>
-      <c r="I105" s="483"/>
-      <c r="J105" s="414"/>
+      <c r="F105" s="460"/>
+      <c r="G105" s="337"/>
+      <c r="H105" s="390"/>
+      <c r="I105" s="461"/>
+      <c r="J105" s="392"/>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="341"/>
-      <c r="B106" s="417" t="s">
+      <c r="A106" s="319"/>
+      <c r="B106" s="395" t="s">
         <v>41</v>
       </c>
-      <c r="C106" s="444" t="s">
+      <c r="C106" s="422" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="345" t="str">
+      <c r="D106" s="323" t="str">
         <f>IF(C106="","",IF(E106="","",IF(E106&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
       <c r="E106" s="144">
         <v>2</v>
       </c>
-      <c r="F106" s="345"/>
-      <c r="G106" s="345">
+      <c r="F106" s="323"/>
+      <c r="G106" s="323">
         <f>F106*E106</f>
         <v>0</v>
       </c>
-      <c r="H106" s="347">
+      <c r="H106" s="325">
         <v>1000</v>
       </c>
-      <c r="I106" s="348">
+      <c r="I106" s="326">
         <f>H106*E106</f>
         <v>2000</v>
       </c>
-      <c r="J106" s="349">
+      <c r="J106" s="327">
         <f>I106+G106</f>
         <v>2000</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="341">
+      <c r="A107" s="319">
         <f>A105+0.1</f>
         <v>4.6999999999999975</v>
       </c>
-      <c r="B107" s="417"/>
-      <c r="C107" s="456" t="s">
+      <c r="B107" s="395"/>
+      <c r="C107" s="434" t="s">
         <v>317</v>
       </c>
       <c r="D107" s="144" t="s">
@@ -17056,93 +17048,93 @@
       <c r="E107" s="144">
         <v>2</v>
       </c>
-      <c r="F107" s="345"/>
-      <c r="G107" s="345">
+      <c r="F107" s="323"/>
+      <c r="G107" s="323">
         <f>F107*E107</f>
         <v>0</v>
       </c>
-      <c r="H107" s="347">
+      <c r="H107" s="325">
         <v>5000</v>
       </c>
-      <c r="I107" s="348">
+      <c r="I107" s="326">
         <f>H107*E107</f>
         <v>10000</v>
       </c>
-      <c r="J107" s="349">
+      <c r="J107" s="327">
         <f>I107+G107</f>
         <v>10000</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="485"/>
-      <c r="B108" s="486"/>
-      <c r="C108" s="399" t="s">
+      <c r="A108" s="463"/>
+      <c r="B108" s="464"/>
+      <c r="C108" s="377" t="s">
         <v>250</v>
       </c>
-      <c r="D108" s="452"/>
-      <c r="E108" s="452"/>
-      <c r="F108" s="400"/>
-      <c r="G108" s="400"/>
-      <c r="H108" s="452"/>
-      <c r="I108" s="400"/>
-      <c r="J108" s="487"/>
+      <c r="D108" s="430"/>
+      <c r="E108" s="430"/>
+      <c r="F108" s="378"/>
+      <c r="G108" s="378"/>
+      <c r="H108" s="430"/>
+      <c r="I108" s="378"/>
+      <c r="J108" s="465"/>
     </row>
     <row r="109" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="72"/>
-      <c r="B109" s="336"/>
-      <c r="C109" s="488" t="s">
+      <c r="B109" s="314"/>
+      <c r="C109" s="466" t="s">
         <v>318</v>
       </c>
-      <c r="D109" s="407"/>
-      <c r="E109" s="407"/>
-      <c r="F109" s="407"/>
-      <c r="G109" s="407"/>
-      <c r="H109" s="408"/>
-      <c r="I109" s="409"/>
-      <c r="J109" s="410"/>
+      <c r="D109" s="385"/>
+      <c r="E109" s="385"/>
+      <c r="F109" s="385"/>
+      <c r="G109" s="385"/>
+      <c r="H109" s="386"/>
+      <c r="I109" s="387"/>
+      <c r="J109" s="388"/>
     </row>
     <row r="110" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="72"/>
-      <c r="B110" s="336"/>
-      <c r="C110" s="489" t="s">
+      <c r="B110" s="314"/>
+      <c r="C110" s="467" t="s">
         <v>319</v>
       </c>
-      <c r="D110" s="359"/>
-      <c r="E110" s="359"/>
-      <c r="F110" s="359"/>
-      <c r="G110" s="359"/>
-      <c r="H110" s="412"/>
-      <c r="I110" s="413"/>
-      <c r="J110" s="414"/>
+      <c r="D110" s="337"/>
+      <c r="E110" s="337"/>
+      <c r="F110" s="337"/>
+      <c r="G110" s="337"/>
+      <c r="H110" s="390"/>
+      <c r="I110" s="391"/>
+      <c r="J110" s="392"/>
     </row>
     <row r="111" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="72">
         <f>5.1</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="B111" s="336"/>
-      <c r="C111" s="456" t="s">
+      <c r="B111" s="314"/>
+      <c r="C111" s="434" t="s">
         <v>320</v>
       </c>
-      <c r="D111" s="345" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="346">
+      <c r="D111" s="323" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="324">
         <v>1</v>
       </c>
-      <c r="F111" s="345"/>
-      <c r="G111" s="345">
+      <c r="F111" s="323"/>
+      <c r="G111" s="323">
         <f>F111*E111</f>
         <v>0</v>
       </c>
-      <c r="H111" s="347">
-        <v>0</v>
-      </c>
-      <c r="I111" s="348">
+      <c r="H111" s="325">
+        <v>0</v>
+      </c>
+      <c r="I111" s="326">
         <f>H111*E111</f>
         <v>0</v>
       </c>
-      <c r="J111" s="349">
+      <c r="J111" s="327">
         <f>I111+G111</f>
         <v>0</v>
       </c>
@@ -17152,29 +17144,29 @@
         <f>A111+0.1</f>
         <v>5.1999999999999993</v>
       </c>
-      <c r="B112" s="336"/>
-      <c r="C112" s="456" t="s">
+      <c r="B112" s="314"/>
+      <c r="C112" s="434" t="s">
         <v>321</v>
       </c>
-      <c r="D112" s="345" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="346">
+      <c r="D112" s="323" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="324">
         <v>1</v>
       </c>
-      <c r="F112" s="345"/>
-      <c r="G112" s="345">
+      <c r="F112" s="323"/>
+      <c r="G112" s="323">
         <f>F112*E112</f>
         <v>0</v>
       </c>
-      <c r="H112" s="347">
+      <c r="H112" s="325">
         <v>35000</v>
       </c>
-      <c r="I112" s="348">
+      <c r="I112" s="326">
         <f>H112*E112</f>
         <v>35000</v>
       </c>
-      <c r="J112" s="349">
+      <c r="J112" s="327">
         <f>I112+G112</f>
         <v>35000</v>
       </c>
@@ -17184,64 +17176,64 @@
         <f>A112+0.1</f>
         <v>5.2999999999999989</v>
       </c>
-      <c r="B113" s="336"/>
-      <c r="C113" s="456" t="s">
+      <c r="B113" s="314"/>
+      <c r="C113" s="434" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="345" t="s">
-        <v>0</v>
-      </c>
-      <c r="E113" s="346">
+      <c r="D113" s="323" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="324">
         <v>1</v>
       </c>
-      <c r="F113" s="345"/>
-      <c r="G113" s="345">
+      <c r="F113" s="323"/>
+      <c r="G113" s="323">
         <f>F113*E113</f>
         <v>0</v>
       </c>
-      <c r="H113" s="347">
+      <c r="H113" s="325">
         <v>50000</v>
       </c>
-      <c r="I113" s="348">
+      <c r="I113" s="326">
         <f>H113*E113</f>
         <v>50000</v>
       </c>
-      <c r="J113" s="349">
+      <c r="J113" s="327">
         <f>I113+G113</f>
         <v>50000</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="490"/>
-      <c r="B114" s="491"/>
-      <c r="C114" s="399" t="s">
+      <c r="A114" s="640"/>
+      <c r="B114" s="641"/>
+      <c r="C114" s="377" t="s">
         <v>250</v>
       </c>
-      <c r="D114" s="452"/>
-      <c r="E114" s="452"/>
-      <c r="F114" s="400"/>
-      <c r="G114" s="492"/>
-      <c r="H114" s="492"/>
-      <c r="I114" s="492"/>
-      <c r="J114" s="403"/>
+      <c r="D114" s="430"/>
+      <c r="E114" s="430"/>
+      <c r="F114" s="378"/>
+      <c r="G114" s="468"/>
+      <c r="H114" s="468"/>
+      <c r="I114" s="468"/>
+      <c r="J114" s="381"/>
     </row>
     <row r="115" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="493"/>
-      <c r="J115" s="496"/>
+      <c r="A115" s="469"/>
+      <c r="J115" s="472"/>
     </row>
     <row r="116" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="497"/>
-      <c r="B116" s="498"/>
-      <c r="C116" s="499" t="s">
+      <c r="A116" s="473"/>
+      <c r="B116" s="474"/>
+      <c r="C116" s="475" t="s">
         <v>323</v>
       </c>
-      <c r="D116" s="500"/>
-      <c r="E116" s="501"/>
-      <c r="F116" s="502"/>
-      <c r="G116" s="503"/>
-      <c r="H116" s="504"/>
-      <c r="I116" s="503"/>
-      <c r="J116" s="505">
+      <c r="D116" s="476"/>
+      <c r="E116" s="477"/>
+      <c r="F116" s="478"/>
+      <c r="G116" s="479"/>
+      <c r="H116" s="480"/>
+      <c r="I116" s="479"/>
+      <c r="J116" s="481">
         <f>SUM(J10:J114)</f>
         <v>1335200</v>
       </c>
@@ -17284,1841 +17276,1841 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="631" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="631" customWidth="1"/>
-    <col min="3" max="3" width="44" style="632" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="631" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="631" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="631" customWidth="1"/>
-    <col min="7" max="10" width="12.625" style="631" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="518"/>
+    <col min="1" max="1" width="3" style="593" customWidth="1"/>
+    <col min="2" max="2" width="4.625" style="593" customWidth="1"/>
+    <col min="3" max="3" width="44" style="594" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="593" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="593" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="593" customWidth="1"/>
+    <col min="7" max="10" width="12.625" style="593" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="494"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="510" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="506" t="s">
+    <row r="1" spans="1:10" s="486" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="482" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="508"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
-    </row>
-    <row r="2" spans="1:10" s="510" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="511" t="s">
+      <c r="B1" s="482"/>
+      <c r="C1" s="483"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="485"/>
+      <c r="F1" s="485"/>
+      <c r="G1" s="485"/>
+      <c r="H1" s="485"/>
+      <c r="I1" s="485"/>
+      <c r="J1" s="485"/>
+    </row>
+    <row r="2" spans="1:10" s="486" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="487" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="511"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="513"/>
-      <c r="E2" s="509"/>
-      <c r="F2" s="509"/>
-      <c r="G2" s="509"/>
-      <c r="H2" s="509"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="509"/>
-    </row>
-    <row r="3" spans="1:10" s="510" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="512"/>
-      <c r="B3" s="512"/>
-      <c r="C3" s="512"/>
-      <c r="D3" s="514"/>
-      <c r="E3" s="509"/>
-      <c r="F3" s="509"/>
-      <c r="G3" s="509"/>
-      <c r="H3" s="509"/>
-      <c r="I3" s="509"/>
-      <c r="J3" s="509"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="485"/>
+      <c r="F2" s="485"/>
+      <c r="G2" s="485"/>
+      <c r="H2" s="485"/>
+      <c r="I2" s="485"/>
+      <c r="J2" s="485"/>
+    </row>
+    <row r="3" spans="1:10" s="486" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="488"/>
+      <c r="B3" s="488"/>
+      <c r="C3" s="488"/>
+      <c r="D3" s="490"/>
+      <c r="E3" s="485"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="485"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="485"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="506" t="s">
+      <c r="A4" s="482" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="506"/>
-      <c r="C4" s="515"/>
-      <c r="D4" s="516"/>
-      <c r="E4" s="509"/>
-      <c r="F4" s="509"/>
-      <c r="G4" s="509"/>
-      <c r="H4" s="509"/>
-      <c r="I4" s="516"/>
-      <c r="J4" s="517" t="s">
+      <c r="B4" s="482"/>
+      <c r="C4" s="491"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="485"/>
+      <c r="F4" s="485"/>
+      <c r="G4" s="485"/>
+      <c r="H4" s="485"/>
+      <c r="I4" s="492"/>
+      <c r="J4" s="493" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="519" t="s">
+      <c r="A5" s="495" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="520"/>
-      <c r="C5" s="515"/>
-      <c r="D5" s="516"/>
-      <c r="E5" s="509"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="521"/>
-      <c r="H5" s="521"/>
-      <c r="I5" s="521"/>
-      <c r="J5" s="522" t="s">
+      <c r="B5" s="496"/>
+      <c r="C5" s="491"/>
+      <c r="D5" s="492"/>
+      <c r="E5" s="485"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="497"/>
+      <c r="I5" s="497"/>
+      <c r="J5" s="498" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="519"/>
-      <c r="B6" s="519"/>
-      <c r="C6" s="512"/>
-      <c r="D6" s="523"/>
-      <c r="E6" s="509"/>
-      <c r="F6" s="524"/>
-      <c r="G6" s="524"/>
-      <c r="H6" s="524"/>
-      <c r="I6" s="524"/>
-      <c r="J6" s="524"/>
+      <c r="A6" s="495"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="488"/>
+      <c r="D6" s="499"/>
+      <c r="E6" s="485"/>
+      <c r="F6" s="654"/>
+      <c r="G6" s="654"/>
+      <c r="H6" s="654"/>
+      <c r="I6" s="654"/>
+      <c r="J6" s="654"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="525" t="s">
+      <c r="A7" s="655" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="526"/>
-      <c r="C7" s="527" t="s">
+      <c r="B7" s="656"/>
+      <c r="C7" s="659" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="527" t="s">
+      <c r="D7" s="659" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="528" t="s">
+      <c r="E7" s="661" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="529" t="s">
+      <c r="F7" s="663" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="530"/>
-      <c r="H7" s="529" t="s">
+      <c r="G7" s="664"/>
+      <c r="H7" s="663" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="531"/>
-      <c r="J7" s="532" t="s">
+      <c r="I7" s="665"/>
+      <c r="J7" s="500" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="537" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="533"/>
-      <c r="B8" s="534"/>
-      <c r="C8" s="535"/>
-      <c r="D8" s="535"/>
-      <c r="E8" s="536"/>
-      <c r="F8" s="326" t="s">
+    <row r="8" spans="1:10" s="501" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="657"/>
+      <c r="B8" s="658"/>
+      <c r="C8" s="660"/>
+      <c r="D8" s="660"/>
+      <c r="E8" s="662"/>
+      <c r="F8" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="327" t="s">
+      <c r="G8" s="305" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="326" t="s">
+      <c r="H8" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="327" t="s">
+      <c r="I8" s="305" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="328" t="s">
+      <c r="J8" s="306" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="538"/>
-      <c r="B9" s="539"/>
-      <c r="C9" s="540" t="s">
+      <c r="A9" s="502"/>
+      <c r="B9" s="503"/>
+      <c r="C9" s="504" t="s">
         <v>326</v>
       </c>
-      <c r="D9" s="541"/>
-      <c r="E9" s="542"/>
-      <c r="F9" s="542"/>
-      <c r="G9" s="542"/>
-      <c r="H9" s="542"/>
-      <c r="I9" s="542"/>
-      <c r="J9" s="543"/>
+      <c r="D9" s="505"/>
+      <c r="E9" s="506"/>
+      <c r="F9" s="506"/>
+      <c r="G9" s="506"/>
+      <c r="H9" s="506"/>
+      <c r="I9" s="506"/>
+      <c r="J9" s="507"/>
     </row>
     <row r="10" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="544"/>
-      <c r="B10" s="545"/>
-      <c r="C10" s="546" t="s">
+      <c r="A10" s="508"/>
+      <c r="B10" s="509"/>
+      <c r="C10" s="510" t="s">
         <v>327</v>
       </c>
-      <c r="D10" s="547"/>
-      <c r="E10" s="542"/>
-      <c r="F10" s="542"/>
-      <c r="G10" s="542"/>
-      <c r="H10" s="542"/>
-      <c r="I10" s="542"/>
-      <c r="J10" s="548"/>
+      <c r="D10" s="511"/>
+      <c r="E10" s="506"/>
+      <c r="F10" s="506"/>
+      <c r="G10" s="506"/>
+      <c r="H10" s="506"/>
+      <c r="I10" s="506"/>
+      <c r="J10" s="512"/>
     </row>
     <row r="11" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="549">
+      <c r="A11" s="513">
         <v>1</v>
       </c>
-      <c r="B11" s="550"/>
-      <c r="C11" s="551" t="s">
+      <c r="B11" s="514"/>
+      <c r="C11" s="515" t="s">
         <v>328</v>
       </c>
-      <c r="D11" s="552"/>
-      <c r="E11" s="542"/>
-      <c r="F11" s="542"/>
-      <c r="G11" s="542"/>
-      <c r="H11" s="542"/>
-      <c r="I11" s="542"/>
-      <c r="J11" s="548"/>
+      <c r="D11" s="516"/>
+      <c r="E11" s="506"/>
+      <c r="F11" s="506"/>
+      <c r="G11" s="506"/>
+      <c r="H11" s="506"/>
+      <c r="I11" s="506"/>
+      <c r="J11" s="512"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="549"/>
-      <c r="B12" s="553" t="s">
+      <c r="A12" s="513"/>
+      <c r="B12" s="517" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="554" t="s">
+      <c r="C12" s="518" t="s">
         <v>329</v>
       </c>
-      <c r="D12" s="555" t="str">
+      <c r="D12" s="519" t="str">
         <f>IF(C12="","",IF(E12="","",IF(E12&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E12" s="556">
+      <c r="E12" s="520">
         <v>14</v>
       </c>
-      <c r="F12" s="557"/>
-      <c r="G12" s="558"/>
-      <c r="H12" s="557">
+      <c r="F12" s="521"/>
+      <c r="G12" s="522"/>
+      <c r="H12" s="521">
         <v>6000</v>
       </c>
-      <c r="I12" s="558">
+      <c r="I12" s="522">
         <f>H12*E12</f>
         <v>84000</v>
       </c>
-      <c r="J12" s="559">
+      <c r="J12" s="523">
         <f>I12+G12</f>
         <v>84000</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="549">
+      <c r="A13" s="513">
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="560"/>
-      <c r="C13" s="561" t="s">
+      <c r="B13" s="524"/>
+      <c r="C13" s="525" t="s">
         <v>330</v>
       </c>
-      <c r="D13" s="562"/>
-      <c r="E13" s="563"/>
-      <c r="F13" s="564"/>
-      <c r="G13" s="565"/>
-      <c r="H13" s="564"/>
-      <c r="I13" s="565"/>
-      <c r="J13" s="566"/>
+      <c r="D13" s="526"/>
+      <c r="E13" s="527"/>
+      <c r="F13" s="528"/>
+      <c r="G13" s="529"/>
+      <c r="H13" s="528"/>
+      <c r="I13" s="529"/>
+      <c r="J13" s="530"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="549"/>
-      <c r="B14" s="553" t="s">
+      <c r="A14" s="513"/>
+      <c r="B14" s="517" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="567" t="s">
+      <c r="C14" s="531" t="s">
         <v>331</v>
       </c>
-      <c r="D14" s="555" t="str">
+      <c r="D14" s="519" t="str">
         <f>IF(C14="","",IF(E14="","",IF(E14&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E14" s="556">
+      <c r="E14" s="520">
         <v>1</v>
       </c>
-      <c r="F14" s="557"/>
-      <c r="G14" s="558"/>
-      <c r="H14" s="557">
+      <c r="F14" s="521"/>
+      <c r="G14" s="522"/>
+      <c r="H14" s="521">
         <v>6000</v>
       </c>
-      <c r="I14" s="558">
+      <c r="I14" s="522">
         <f>H14*E14</f>
         <v>6000</v>
       </c>
-      <c r="J14" s="559">
+      <c r="J14" s="523">
         <f>I14+G14</f>
         <v>6000</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="549">
+      <c r="A15" s="513">
         <f>A13+1</f>
         <v>3</v>
       </c>
-      <c r="B15" s="550"/>
-      <c r="C15" s="568" t="s">
+      <c r="B15" s="514"/>
+      <c r="C15" s="532" t="s">
         <v>332</v>
       </c>
-      <c r="D15" s="569" t="str">
+      <c r="D15" s="533" t="str">
         <f>IF(C15="","",IF(E15="","",IF(E15&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E15" s="570">
+      <c r="E15" s="534">
         <v>2</v>
       </c>
-      <c r="F15" s="557"/>
-      <c r="G15" s="558"/>
-      <c r="H15" s="557">
+      <c r="F15" s="521"/>
+      <c r="G15" s="522"/>
+      <c r="H15" s="521">
         <v>5000</v>
       </c>
-      <c r="I15" s="558">
+      <c r="I15" s="522">
         <f>H15*E15</f>
         <v>10000</v>
       </c>
-      <c r="J15" s="559">
+      <c r="J15" s="523">
         <f>I15+G15</f>
         <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="571">
+      <c r="A16" s="535">
         <f>A15+1</f>
         <v>4</v>
       </c>
-      <c r="B16" s="572"/>
-      <c r="C16" s="554" t="s">
+      <c r="B16" s="536"/>
+      <c r="C16" s="518" t="s">
         <v>333</v>
       </c>
-      <c r="D16" s="555" t="str">
+      <c r="D16" s="519" t="str">
         <f t="shared" ref="D16" si="0">IF(C16="","",IF(E16="","",IF(E16&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E16" s="556">
+      <c r="E16" s="520">
         <v>10</v>
       </c>
-      <c r="F16" s="557"/>
-      <c r="G16" s="558"/>
-      <c r="H16" s="557">
+      <c r="F16" s="521"/>
+      <c r="G16" s="522"/>
+      <c r="H16" s="521">
         <v>3000</v>
       </c>
-      <c r="I16" s="558">
+      <c r="I16" s="522">
         <f>H16*E16</f>
         <v>30000</v>
       </c>
-      <c r="J16" s="559">
+      <c r="J16" s="523">
         <f>I16+G16</f>
         <v>30000</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="549">
+      <c r="A17" s="513">
         <f>A16+1</f>
         <v>5</v>
       </c>
-      <c r="B17" s="550"/>
-      <c r="C17" s="561" t="s">
+      <c r="B17" s="514"/>
+      <c r="C17" s="525" t="s">
         <v>334</v>
       </c>
-      <c r="D17" s="562"/>
-      <c r="E17" s="563"/>
-      <c r="F17" s="564"/>
-      <c r="G17" s="573"/>
-      <c r="H17" s="564"/>
-      <c r="I17" s="573"/>
-      <c r="J17" s="574"/>
+      <c r="D17" s="526"/>
+      <c r="E17" s="527"/>
+      <c r="F17" s="528"/>
+      <c r="G17" s="537"/>
+      <c r="H17" s="528"/>
+      <c r="I17" s="537"/>
+      <c r="J17" s="538"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
-      <c r="B18" s="576" t="s">
+      <c r="A18" s="539"/>
+      <c r="B18" s="540" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="577" t="s">
+      <c r="C18" s="541" t="s">
         <v>335</v>
       </c>
-      <c r="D18" s="578" t="s">
+      <c r="D18" s="542" t="s">
         <v>255</v>
       </c>
-      <c r="E18" s="579">
+      <c r="E18" s="543">
         <v>3910</v>
       </c>
-      <c r="F18" s="557"/>
-      <c r="G18" s="558"/>
-      <c r="H18" s="557">
+      <c r="F18" s="521"/>
+      <c r="G18" s="522"/>
+      <c r="H18" s="521">
         <v>180</v>
       </c>
-      <c r="I18" s="558">
+      <c r="I18" s="522">
         <f t="shared" ref="I18:I25" si="1">H18*E18</f>
         <v>703800</v>
       </c>
-      <c r="J18" s="559">
+      <c r="J18" s="523">
         <f t="shared" ref="J18:J25" si="2">I18+G18</f>
         <v>703800</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="549"/>
-      <c r="B19" s="580" t="s">
+      <c r="A19" s="513"/>
+      <c r="B19" s="544" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="554" t="s">
+      <c r="C19" s="518" t="s">
         <v>336</v>
       </c>
-      <c r="D19" s="555" t="s">
+      <c r="D19" s="519" t="s">
         <v>255</v>
       </c>
-      <c r="E19" s="556">
+      <c r="E19" s="520">
         <v>1200</v>
       </c>
-      <c r="F19" s="557"/>
-      <c r="G19" s="558"/>
-      <c r="H19" s="557">
+      <c r="F19" s="521"/>
+      <c r="G19" s="522"/>
+      <c r="H19" s="521">
         <v>200</v>
       </c>
-      <c r="I19" s="558">
+      <c r="I19" s="522">
         <f t="shared" si="1"/>
         <v>240000</v>
       </c>
-      <c r="J19" s="559">
+      <c r="J19" s="523">
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="549"/>
-      <c r="B20" s="580" t="s">
+      <c r="A20" s="513"/>
+      <c r="B20" s="544" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="554" t="s">
+      <c r="C20" s="518" t="s">
         <v>337</v>
       </c>
-      <c r="D20" s="555" t="s">
+      <c r="D20" s="519" t="s">
         <v>255</v>
       </c>
-      <c r="E20" s="556">
+      <c r="E20" s="520">
         <v>540</v>
       </c>
-      <c r="F20" s="557"/>
-      <c r="G20" s="558"/>
-      <c r="H20" s="557">
+      <c r="F20" s="521"/>
+      <c r="G20" s="522"/>
+      <c r="H20" s="521">
         <v>225</v>
       </c>
-      <c r="I20" s="558">
+      <c r="I20" s="522">
         <f t="shared" si="1"/>
         <v>121500</v>
       </c>
-      <c r="J20" s="559">
+      <c r="J20" s="523">
         <f t="shared" si="2"/>
         <v>121500</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="549"/>
-      <c r="B21" s="580" t="s">
+      <c r="A21" s="513"/>
+      <c r="B21" s="544" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="581" t="s">
+      <c r="C21" s="545" t="s">
         <v>338</v>
       </c>
-      <c r="D21" s="555" t="s">
+      <c r="D21" s="519" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="556">
+      <c r="E21" s="520">
         <v>510</v>
       </c>
-      <c r="F21" s="557"/>
-      <c r="G21" s="558"/>
-      <c r="H21" s="557">
+      <c r="F21" s="521"/>
+      <c r="G21" s="522"/>
+      <c r="H21" s="521">
         <v>250</v>
       </c>
-      <c r="I21" s="558">
+      <c r="I21" s="522">
         <f t="shared" si="1"/>
         <v>127500</v>
       </c>
-      <c r="J21" s="559">
+      <c r="J21" s="523">
         <f t="shared" si="2"/>
         <v>127500</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="549"/>
-      <c r="B22" s="580" t="s">
+      <c r="A22" s="513"/>
+      <c r="B22" s="544" t="s">
         <v>248</v>
       </c>
-      <c r="C22" s="554" t="s">
+      <c r="C22" s="518" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="555" t="s">
+      <c r="D22" s="519" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="556">
+      <c r="E22" s="520">
         <v>560</v>
       </c>
-      <c r="F22" s="557"/>
-      <c r="G22" s="558"/>
-      <c r="H22" s="557">
+      <c r="F22" s="521"/>
+      <c r="G22" s="522"/>
+      <c r="H22" s="521">
         <v>275</v>
       </c>
-      <c r="I22" s="558">
+      <c r="I22" s="522">
         <f t="shared" si="1"/>
         <v>154000</v>
       </c>
-      <c r="J22" s="559">
+      <c r="J22" s="523">
         <f t="shared" si="2"/>
         <v>154000</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="549"/>
-      <c r="B23" s="580" t="s">
+      <c r="A23" s="513"/>
+      <c r="B23" s="544" t="s">
         <v>340</v>
       </c>
-      <c r="C23" s="581" t="s">
+      <c r="C23" s="545" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="569" t="s">
+      <c r="D23" s="533" t="s">
         <v>255</v>
       </c>
-      <c r="E23" s="570">
+      <c r="E23" s="534">
         <v>760</v>
       </c>
-      <c r="F23" s="557"/>
-      <c r="G23" s="558"/>
-      <c r="H23" s="557">
+      <c r="F23" s="521"/>
+      <c r="G23" s="522"/>
+      <c r="H23" s="521">
         <v>300</v>
       </c>
-      <c r="I23" s="558">
+      <c r="I23" s="522">
         <f t="shared" si="1"/>
         <v>228000</v>
       </c>
-      <c r="J23" s="559">
+      <c r="J23" s="523">
         <f t="shared" si="2"/>
         <v>228000</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="549"/>
-      <c r="B24" s="580" t="s">
+      <c r="A24" s="513"/>
+      <c r="B24" s="544" t="s">
         <v>342</v>
       </c>
-      <c r="C24" s="581" t="s">
+      <c r="C24" s="545" t="s">
         <v>343</v>
       </c>
-      <c r="D24" s="569" t="s">
+      <c r="D24" s="533" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="570">
+      <c r="E24" s="534">
         <v>840</v>
       </c>
-      <c r="F24" s="557"/>
-      <c r="G24" s="558"/>
-      <c r="H24" s="557">
+      <c r="F24" s="521"/>
+      <c r="G24" s="522"/>
+      <c r="H24" s="521">
         <v>350</v>
       </c>
-      <c r="I24" s="558">
+      <c r="I24" s="522">
         <f t="shared" si="1"/>
         <v>294000</v>
       </c>
-      <c r="J24" s="559">
+      <c r="J24" s="523">
         <f t="shared" si="2"/>
         <v>294000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="582" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="549"/>
-      <c r="B25" s="580" t="s">
+    <row r="25" spans="1:10" s="546" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="513"/>
+      <c r="B25" s="544" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="581" t="s">
+      <c r="C25" s="545" t="s">
         <v>345</v>
       </c>
-      <c r="D25" s="569" t="s">
+      <c r="D25" s="533" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="570">
+      <c r="E25" s="534">
         <v>260</v>
       </c>
-      <c r="F25" s="557"/>
-      <c r="G25" s="558"/>
-      <c r="H25" s="557">
+      <c r="F25" s="521"/>
+      <c r="G25" s="522"/>
+      <c r="H25" s="521">
         <v>400</v>
       </c>
-      <c r="I25" s="558">
+      <c r="I25" s="522">
         <f t="shared" si="1"/>
         <v>104000</v>
       </c>
-      <c r="J25" s="559">
+      <c r="J25" s="523">
         <f t="shared" si="2"/>
         <v>104000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="589" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="549">
+    <row r="26" spans="1:10" s="553" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="513">
         <f>A17+1</f>
         <v>6</v>
       </c>
-      <c r="B26" s="572"/>
-      <c r="C26" s="583" t="s">
+      <c r="B26" s="536"/>
+      <c r="C26" s="547" t="s">
         <v>346</v>
       </c>
-      <c r="D26" s="584"/>
-      <c r="E26" s="585"/>
-      <c r="F26" s="586"/>
-      <c r="G26" s="587"/>
-      <c r="H26" s="586"/>
-      <c r="I26" s="587"/>
-      <c r="J26" s="588"/>
-    </row>
-    <row r="27" spans="1:10" s="591" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="571"/>
-      <c r="B27" s="590" t="s">
+      <c r="D26" s="548"/>
+      <c r="E26" s="549"/>
+      <c r="F26" s="550"/>
+      <c r="G26" s="551"/>
+      <c r="H26" s="550"/>
+      <c r="I26" s="551"/>
+      <c r="J26" s="552"/>
+    </row>
+    <row r="27" spans="1:10" s="555" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="535"/>
+      <c r="B27" s="554" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="554" t="s">
+      <c r="C27" s="518" t="s">
         <v>347</v>
       </c>
-      <c r="D27" s="555" t="str">
+      <c r="D27" s="519" t="str">
         <f>IF(C27="","",IF(E27="","",IF(E27&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E27" s="556">
+      <c r="E27" s="520">
         <v>600</v>
       </c>
-      <c r="F27" s="557"/>
-      <c r="G27" s="558"/>
-      <c r="H27" s="557">
+      <c r="F27" s="521"/>
+      <c r="G27" s="522"/>
+      <c r="H27" s="521">
         <v>600</v>
       </c>
-      <c r="I27" s="558">
+      <c r="I27" s="522">
         <f>H27*E27</f>
         <v>360000</v>
       </c>
-      <c r="J27" s="559">
+      <c r="J27" s="523">
         <f>I27+G27</f>
         <v>360000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="591" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="571"/>
-      <c r="B28" s="590" t="s">
+    <row r="28" spans="1:10" s="555" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="535"/>
+      <c r="B28" s="554" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="581" t="s">
+      <c r="C28" s="545" t="s">
         <v>348</v>
       </c>
-      <c r="D28" s="569" t="str">
+      <c r="D28" s="533" t="str">
         <f>IF(C28="","",IF(E28="","",IF(E28&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E28" s="570">
+      <c r="E28" s="534">
         <v>66</v>
       </c>
-      <c r="F28" s="557"/>
-      <c r="G28" s="558"/>
-      <c r="H28" s="557">
+      <c r="F28" s="521"/>
+      <c r="G28" s="522"/>
+      <c r="H28" s="521">
         <v>500</v>
       </c>
-      <c r="I28" s="558">
+      <c r="I28" s="522">
         <f>H28*E28</f>
         <v>33000</v>
       </c>
-      <c r="J28" s="559">
+      <c r="J28" s="523">
         <f>I28+G28</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="589" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="571"/>
-      <c r="B29" s="590" t="s">
+    <row r="29" spans="1:10" s="553" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="535"/>
+      <c r="B29" s="554" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="581" t="s">
+      <c r="C29" s="545" t="s">
         <v>349</v>
       </c>
-      <c r="D29" s="569" t="str">
+      <c r="D29" s="533" t="str">
         <f>IF(C29="","",IF(E29="","",IF(E29&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E29" s="570">
+      <c r="E29" s="534">
         <v>1</v>
       </c>
-      <c r="F29" s="557"/>
-      <c r="G29" s="558"/>
-      <c r="H29" s="557">
+      <c r="F29" s="521"/>
+      <c r="G29" s="522"/>
+      <c r="H29" s="521">
         <v>500</v>
       </c>
-      <c r="I29" s="558">
+      <c r="I29" s="522">
         <f>H29*E29</f>
         <v>500</v>
       </c>
-      <c r="J29" s="559">
+      <c r="J29" s="523">
         <f>I29+G29</f>
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="589" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="571">
+    <row r="30" spans="1:10" s="553" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="535">
         <f>A26+1</f>
         <v>7</v>
       </c>
-      <c r="B30" s="592"/>
-      <c r="C30" s="583" t="s">
+      <c r="B30" s="556"/>
+      <c r="C30" s="547" t="s">
         <v>350</v>
       </c>
-      <c r="D30" s="593"/>
-      <c r="E30" s="552"/>
-      <c r="F30" s="594"/>
-      <c r="G30" s="587"/>
-      <c r="H30" s="594"/>
-      <c r="I30" s="587"/>
-      <c r="J30" s="588"/>
+      <c r="D30" s="557"/>
+      <c r="E30" s="516"/>
+      <c r="F30" s="558"/>
+      <c r="G30" s="551"/>
+      <c r="H30" s="558"/>
+      <c r="I30" s="551"/>
+      <c r="J30" s="552"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="595"/>
-      <c r="B31" s="580" t="s">
+      <c r="A31" s="559"/>
+      <c r="B31" s="544" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="567" t="s">
+      <c r="C31" s="531" t="s">
         <v>351</v>
       </c>
-      <c r="D31" s="555" t="str">
+      <c r="D31" s="519" t="str">
         <f t="shared" ref="D31:D36" si="3">IF(C31="","",IF(E31="","",IF(E31&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E31" s="596">
+      <c r="E31" s="560">
         <v>10</v>
       </c>
-      <c r="F31" s="557"/>
-      <c r="G31" s="558"/>
-      <c r="H31" s="557">
+      <c r="F31" s="521"/>
+      <c r="G31" s="522"/>
+      <c r="H31" s="521">
         <v>500</v>
       </c>
-      <c r="I31" s="558">
+      <c r="I31" s="522">
         <f t="shared" ref="I31:I36" si="4">H31*E31</f>
         <v>5000</v>
       </c>
-      <c r="J31" s="559">
+      <c r="J31" s="523">
         <f t="shared" ref="J31:J36" si="5">I31+G31</f>
         <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="595"/>
-      <c r="B32" s="580" t="s">
+      <c r="A32" s="559"/>
+      <c r="B32" s="544" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="597" t="s">
+      <c r="C32" s="561" t="s">
         <v>352</v>
       </c>
-      <c r="D32" s="569" t="str">
+      <c r="D32" s="533" t="str">
         <f t="shared" si="3"/>
         <v>Nos.</v>
       </c>
-      <c r="E32" s="598">
+      <c r="E32" s="562">
         <v>10</v>
       </c>
-      <c r="F32" s="557"/>
-      <c r="G32" s="558"/>
-      <c r="H32" s="557">
+      <c r="F32" s="521"/>
+      <c r="G32" s="522"/>
+      <c r="H32" s="521">
         <v>500</v>
       </c>
-      <c r="I32" s="558">
+      <c r="I32" s="522">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J32" s="559">
+      <c r="J32" s="523">
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="595"/>
-      <c r="B33" s="580" t="s">
+      <c r="A33" s="559"/>
+      <c r="B33" s="544" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="554" t="s">
+      <c r="C33" s="518" t="s">
         <v>353</v>
       </c>
-      <c r="D33" s="555" t="str">
+      <c r="D33" s="519" t="str">
         <f t="shared" si="3"/>
         <v>No.</v>
       </c>
-      <c r="E33" s="596">
+      <c r="E33" s="560">
         <v>1</v>
       </c>
-      <c r="F33" s="557"/>
-      <c r="G33" s="558"/>
-      <c r="H33" s="557">
+      <c r="F33" s="521"/>
+      <c r="G33" s="522"/>
+      <c r="H33" s="521">
         <v>500</v>
       </c>
-      <c r="I33" s="558">
+      <c r="I33" s="522">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J33" s="559">
+      <c r="J33" s="523">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="582" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="595"/>
-      <c r="B34" s="580" t="s">
+    <row r="34" spans="1:10" s="546" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="559"/>
+      <c r="B34" s="544" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="581" t="s">
+      <c r="C34" s="545" t="s">
         <v>354</v>
       </c>
-      <c r="D34" s="569" t="s">
+      <c r="D34" s="533" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="570">
+      <c r="E34" s="534">
         <v>4</v>
       </c>
-      <c r="F34" s="557"/>
-      <c r="G34" s="558"/>
-      <c r="H34" s="557">
+      <c r="F34" s="521"/>
+      <c r="G34" s="522"/>
+      <c r="H34" s="521">
         <v>500</v>
       </c>
-      <c r="I34" s="558">
+      <c r="I34" s="522">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J34" s="559">
+      <c r="J34" s="523">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="595"/>
-      <c r="B35" s="580" t="s">
+      <c r="A35" s="559"/>
+      <c r="B35" s="544" t="s">
         <v>248</v>
       </c>
-      <c r="C35" s="554" t="s">
+      <c r="C35" s="518" t="s">
         <v>355</v>
       </c>
-      <c r="D35" s="555" t="str">
+      <c r="D35" s="519" t="str">
         <f t="shared" si="3"/>
         <v>No.</v>
       </c>
-      <c r="E35" s="596">
+      <c r="E35" s="560">
         <v>1</v>
       </c>
-      <c r="F35" s="557"/>
-      <c r="G35" s="558"/>
-      <c r="H35" s="557">
+      <c r="F35" s="521"/>
+      <c r="G35" s="522"/>
+      <c r="H35" s="521">
         <v>500</v>
       </c>
-      <c r="I35" s="558">
+      <c r="I35" s="522">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J35" s="559">
+      <c r="J35" s="523">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="601" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="599"/>
-      <c r="B36" s="576" t="s">
+    <row r="36" spans="1:10" s="565" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="563"/>
+      <c r="B36" s="540" t="s">
         <v>340</v>
       </c>
-      <c r="C36" s="577" t="s">
+      <c r="C36" s="541" t="s">
         <v>356</v>
       </c>
-      <c r="D36" s="578" t="str">
+      <c r="D36" s="542" t="str">
         <f t="shared" si="3"/>
         <v>Nos.</v>
       </c>
-      <c r="E36" s="600">
+      <c r="E36" s="564">
         <v>2</v>
       </c>
-      <c r="F36" s="557"/>
-      <c r="G36" s="558"/>
-      <c r="H36" s="557">
+      <c r="F36" s="521"/>
+      <c r="G36" s="522"/>
+      <c r="H36" s="521">
         <v>2000</v>
       </c>
-      <c r="I36" s="558">
+      <c r="I36" s="522">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="J36" s="559">
+      <c r="J36" s="523">
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="601" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="549">
+    <row r="37" spans="1:10" s="565" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="513">
         <f>A30+1</f>
         <v>8</v>
       </c>
-      <c r="B37" s="550"/>
-      <c r="C37" s="583" t="s">
+      <c r="B37" s="514"/>
+      <c r="C37" s="547" t="s">
         <v>357</v>
       </c>
-      <c r="D37" s="584"/>
-      <c r="E37" s="585"/>
-      <c r="F37" s="586"/>
-      <c r="G37" s="587"/>
-      <c r="H37" s="586"/>
-      <c r="I37" s="587"/>
-      <c r="J37" s="588"/>
-    </row>
-    <row r="38" spans="1:10" s="601" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="549"/>
-      <c r="B38" s="590" t="s">
+      <c r="D37" s="548"/>
+      <c r="E37" s="549"/>
+      <c r="F37" s="550"/>
+      <c r="G37" s="551"/>
+      <c r="H37" s="550"/>
+      <c r="I37" s="551"/>
+      <c r="J37" s="552"/>
+    </row>
+    <row r="38" spans="1:10" s="565" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="513"/>
+      <c r="B38" s="554" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="602" t="s">
+      <c r="C38" s="566" t="s">
         <v>358</v>
       </c>
-      <c r="D38" s="584"/>
-      <c r="E38" s="585"/>
-      <c r="F38" s="586"/>
-      <c r="G38" s="587"/>
-      <c r="H38" s="586"/>
-      <c r="I38" s="587"/>
-      <c r="J38" s="588"/>
-    </row>
-    <row r="39" spans="1:10" s="601" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="549"/>
-      <c r="B39" s="590" t="s">
+      <c r="D38" s="548"/>
+      <c r="E38" s="549"/>
+      <c r="F38" s="550"/>
+      <c r="G38" s="551"/>
+      <c r="H38" s="550"/>
+      <c r="I38" s="551"/>
+      <c r="J38" s="552"/>
+    </row>
+    <row r="39" spans="1:10" s="565" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="513"/>
+      <c r="B39" s="554" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="602" t="s">
+      <c r="C39" s="566" t="s">
         <v>359</v>
       </c>
-      <c r="D39" s="584"/>
-      <c r="E39" s="585"/>
-      <c r="F39" s="586"/>
-      <c r="G39" s="587"/>
-      <c r="H39" s="586"/>
-      <c r="I39" s="587"/>
-      <c r="J39" s="588"/>
-    </row>
-    <row r="40" spans="1:10" s="601" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="549"/>
-      <c r="B40" s="590" t="s">
+      <c r="D39" s="548"/>
+      <c r="E39" s="549"/>
+      <c r="F39" s="550"/>
+      <c r="G39" s="551"/>
+      <c r="H39" s="550"/>
+      <c r="I39" s="551"/>
+      <c r="J39" s="552"/>
+    </row>
+    <row r="40" spans="1:10" s="565" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="513"/>
+      <c r="B40" s="554" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="602" t="s">
+      <c r="C40" s="566" t="s">
         <v>360</v>
       </c>
-      <c r="D40" s="584" t="str">
+      <c r="D40" s="548" t="str">
         <f>IF(C40="","",IF(E40="","",IF(E40&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E40" s="585">
+      <c r="E40" s="549">
         <v>5</v>
       </c>
-      <c r="F40" s="557"/>
-      <c r="G40" s="558"/>
-      <c r="H40" s="557">
+      <c r="F40" s="521"/>
+      <c r="G40" s="522"/>
+      <c r="H40" s="521">
         <v>8000</v>
       </c>
-      <c r="I40" s="558">
+      <c r="I40" s="522">
         <f>H40*E40</f>
         <v>40000</v>
       </c>
-      <c r="J40" s="559">
+      <c r="J40" s="523">
         <f>I40+G40</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="601" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="549"/>
-      <c r="B41" s="590" t="s">
+    <row r="41" spans="1:10" s="565" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="513"/>
+      <c r="B41" s="554" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="602" t="s">
+      <c r="C41" s="566" t="s">
         <v>361</v>
       </c>
-      <c r="D41" s="584"/>
-      <c r="E41" s="585"/>
-      <c r="F41" s="586"/>
-      <c r="G41" s="587"/>
-      <c r="H41" s="586"/>
-      <c r="I41" s="587"/>
-      <c r="J41" s="588"/>
-    </row>
-    <row r="42" spans="1:10" s="601" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="549"/>
-      <c r="B42" s="590" t="s">
+      <c r="D41" s="548"/>
+      <c r="E41" s="549"/>
+      <c r="F41" s="550"/>
+      <c r="G41" s="551"/>
+      <c r="H41" s="550"/>
+      <c r="I41" s="551"/>
+      <c r="J41" s="552"/>
+    </row>
+    <row r="42" spans="1:10" s="565" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="513"/>
+      <c r="B42" s="554" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="602" t="s">
+      <c r="C42" s="566" t="s">
         <v>362</v>
       </c>
-      <c r="D42" s="584"/>
-      <c r="E42" s="585"/>
-      <c r="F42" s="586"/>
-      <c r="G42" s="587"/>
-      <c r="H42" s="586"/>
-      <c r="I42" s="587"/>
-      <c r="J42" s="588"/>
-    </row>
-    <row r="43" spans="1:10" s="601" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="549"/>
-      <c r="B43" s="590" t="s">
+      <c r="D42" s="548"/>
+      <c r="E42" s="549"/>
+      <c r="F42" s="550"/>
+      <c r="G42" s="551"/>
+      <c r="H42" s="550"/>
+      <c r="I42" s="551"/>
+      <c r="J42" s="552"/>
+    </row>
+    <row r="43" spans="1:10" s="565" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="513"/>
+      <c r="B43" s="554" t="s">
         <v>340</v>
       </c>
-      <c r="C43" s="554" t="s">
+      <c r="C43" s="518" t="s">
         <v>363</v>
       </c>
-      <c r="D43" s="555"/>
-      <c r="E43" s="556"/>
-      <c r="F43" s="557"/>
-      <c r="G43" s="558"/>
-      <c r="H43" s="557"/>
-      <c r="I43" s="558"/>
-      <c r="J43" s="559"/>
+      <c r="D43" s="519"/>
+      <c r="E43" s="520"/>
+      <c r="F43" s="521"/>
+      <c r="G43" s="522"/>
+      <c r="H43" s="521"/>
+      <c r="I43" s="522"/>
+      <c r="J43" s="523"/>
     </row>
     <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="549">
+      <c r="A44" s="513">
         <f>A37+1</f>
         <v>9</v>
       </c>
-      <c r="B44" s="550"/>
-      <c r="C44" s="602" t="s">
+      <c r="B44" s="514"/>
+      <c r="C44" s="566" t="s">
         <v>364</v>
       </c>
-      <c r="D44" s="584"/>
-      <c r="E44" s="585"/>
-      <c r="F44" s="586"/>
-      <c r="G44" s="587"/>
-      <c r="H44" s="586"/>
-      <c r="I44" s="587"/>
-      <c r="J44" s="588"/>
+      <c r="D44" s="548"/>
+      <c r="E44" s="549"/>
+      <c r="F44" s="550"/>
+      <c r="G44" s="551"/>
+      <c r="H44" s="550"/>
+      <c r="I44" s="551"/>
+      <c r="J44" s="552"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="549"/>
-      <c r="B45" s="580" t="s">
+      <c r="A45" s="513"/>
+      <c r="B45" s="544" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="567" t="s">
+      <c r="C45" s="531" t="s">
         <v>365</v>
       </c>
-      <c r="D45" s="555" t="str">
+      <c r="D45" s="519" t="str">
         <f t="shared" ref="D45:D52" si="6">IF(C45="","",IF(E45="","",IF(E45&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E45" s="556">
+      <c r="E45" s="520">
         <v>1</v>
       </c>
-      <c r="F45" s="557"/>
-      <c r="G45" s="558"/>
-      <c r="H45" s="557">
+      <c r="F45" s="521"/>
+      <c r="G45" s="522"/>
+      <c r="H45" s="521">
         <v>1000</v>
       </c>
-      <c r="I45" s="558">
+      <c r="I45" s="522">
         <f t="shared" ref="I45:I52" si="7">H45*E45</f>
         <v>1000</v>
       </c>
-      <c r="J45" s="559">
+      <c r="J45" s="523">
         <f t="shared" ref="J45:J52" si="8">I45+G45</f>
         <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="571">
+      <c r="A46" s="535">
         <f>A44+1</f>
         <v>10</v>
       </c>
-      <c r="B46" s="572"/>
-      <c r="C46" s="554" t="s">
+      <c r="B46" s="536"/>
+      <c r="C46" s="518" t="s">
         <v>366</v>
       </c>
-      <c r="D46" s="555" t="str">
+      <c r="D46" s="519" t="str">
         <f t="shared" si="6"/>
         <v>No.</v>
       </c>
-      <c r="E46" s="556">
+      <c r="E46" s="520">
         <v>1</v>
       </c>
-      <c r="F46" s="557"/>
-      <c r="G46" s="558"/>
-      <c r="H46" s="557">
+      <c r="F46" s="521"/>
+      <c r="G46" s="522"/>
+      <c r="H46" s="521">
         <v>1000</v>
       </c>
-      <c r="I46" s="558">
+      <c r="I46" s="522">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
-      <c r="J46" s="559">
+      <c r="J46" s="523">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="589" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="571">
+    <row r="47" spans="1:10" s="553" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="535">
         <f t="shared" ref="A47:A53" si="9">A46+1</f>
         <v>11</v>
       </c>
-      <c r="B47" s="572"/>
-      <c r="C47" s="581" t="s">
+      <c r="B47" s="536"/>
+      <c r="C47" s="545" t="s">
         <v>367</v>
       </c>
-      <c r="D47" s="569" t="str">
+      <c r="D47" s="533" t="str">
         <f t="shared" si="6"/>
         <v>No.</v>
       </c>
-      <c r="E47" s="570">
+      <c r="E47" s="534">
         <v>1</v>
       </c>
-      <c r="F47" s="557"/>
-      <c r="G47" s="558"/>
-      <c r="H47" s="557">
+      <c r="F47" s="521"/>
+      <c r="G47" s="522"/>
+      <c r="H47" s="521">
         <v>1000</v>
       </c>
-      <c r="I47" s="558">
+      <c r="I47" s="522">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
-      <c r="J47" s="559">
+      <c r="J47" s="523">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="589" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="571">
+    <row r="48" spans="1:10" s="553" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="535">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="B48" s="572"/>
-      <c r="C48" s="581" t="s">
+      <c r="B48" s="536"/>
+      <c r="C48" s="545" t="s">
         <v>368</v>
       </c>
-      <c r="D48" s="569" t="str">
+      <c r="D48" s="533" t="str">
         <f t="shared" si="6"/>
         <v>Nos.</v>
       </c>
-      <c r="E48" s="570">
+      <c r="E48" s="534">
         <v>4</v>
       </c>
-      <c r="F48" s="557"/>
-      <c r="G48" s="558"/>
-      <c r="H48" s="557">
+      <c r="F48" s="521"/>
+      <c r="G48" s="522"/>
+      <c r="H48" s="521">
         <v>1000</v>
       </c>
-      <c r="I48" s="558">
+      <c r="I48" s="522">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-      <c r="J48" s="559">
+      <c r="J48" s="523">
         <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="589" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="571">
+    <row r="49" spans="1:10" s="553" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="535">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="B49" s="572"/>
-      <c r="C49" s="581" t="s">
+      <c r="B49" s="536"/>
+      <c r="C49" s="545" t="s">
         <v>369</v>
       </c>
-      <c r="D49" s="569" t="str">
+      <c r="D49" s="533" t="str">
         <f t="shared" si="6"/>
         <v>Nos.</v>
       </c>
-      <c r="E49" s="570">
+      <c r="E49" s="534">
         <v>4</v>
       </c>
-      <c r="F49" s="557"/>
-      <c r="G49" s="558"/>
-      <c r="H49" s="557">
+      <c r="F49" s="521"/>
+      <c r="G49" s="522"/>
+      <c r="H49" s="521">
         <v>1000</v>
       </c>
-      <c r="I49" s="558">
+      <c r="I49" s="522">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-      <c r="J49" s="559">
+      <c r="J49" s="523">
         <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="589" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="571">
+    <row r="50" spans="1:10" s="553" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="535">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="B50" s="572"/>
-      <c r="C50" s="581" t="s">
+      <c r="B50" s="536"/>
+      <c r="C50" s="545" t="s">
         <v>370</v>
       </c>
-      <c r="D50" s="569" t="str">
+      <c r="D50" s="533" t="str">
         <f t="shared" si="6"/>
         <v>No.</v>
       </c>
-      <c r="E50" s="570">
+      <c r="E50" s="534">
         <v>1</v>
       </c>
-      <c r="F50" s="557"/>
-      <c r="G50" s="558"/>
-      <c r="H50" s="557">
+      <c r="F50" s="521"/>
+      <c r="G50" s="522"/>
+      <c r="H50" s="521">
         <v>1000</v>
       </c>
-      <c r="I50" s="558">
+      <c r="I50" s="522">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
-      <c r="J50" s="559">
+      <c r="J50" s="523">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="589" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="571">
+    <row r="51" spans="1:10" s="553" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="535">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="B51" s="572"/>
-      <c r="C51" s="554" t="s">
+      <c r="B51" s="536"/>
+      <c r="C51" s="518" t="s">
         <v>371</v>
       </c>
-      <c r="D51" s="555" t="str">
+      <c r="D51" s="519" t="str">
         <f t="shared" si="6"/>
         <v>No.</v>
       </c>
-      <c r="E51" s="556">
+      <c r="E51" s="520">
         <v>1</v>
       </c>
-      <c r="F51" s="557"/>
-      <c r="G51" s="558"/>
-      <c r="H51" s="557">
+      <c r="F51" s="521"/>
+      <c r="G51" s="522"/>
+      <c r="H51" s="521">
         <v>5000</v>
       </c>
-      <c r="I51" s="558">
+      <c r="I51" s="522">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="J51" s="559">
+      <c r="J51" s="523">
         <f t="shared" si="8"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="589" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="571">
+    <row r="52" spans="1:10" s="553" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="535">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="B52" s="572"/>
-      <c r="C52" s="554" t="s">
+      <c r="B52" s="536"/>
+      <c r="C52" s="518" t="s">
         <v>372</v>
       </c>
-      <c r="D52" s="555" t="str">
+      <c r="D52" s="519" t="str">
         <f t="shared" si="6"/>
         <v>No.</v>
       </c>
-      <c r="E52" s="556">
+      <c r="E52" s="520">
         <v>1</v>
       </c>
-      <c r="F52" s="557"/>
-      <c r="G52" s="558"/>
-      <c r="H52" s="557">
+      <c r="F52" s="521"/>
+      <c r="G52" s="522"/>
+      <c r="H52" s="521">
         <v>5000</v>
       </c>
-      <c r="I52" s="558">
+      <c r="I52" s="522">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="J52" s="559">
+      <c r="J52" s="523">
         <f t="shared" si="8"/>
         <v>5000</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="571">
+      <c r="A53" s="535">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="B53" s="572"/>
-      <c r="C53" s="603" t="s">
+      <c r="B53" s="536"/>
+      <c r="C53" s="567" t="s">
         <v>373</v>
       </c>
-      <c r="D53" s="562"/>
-      <c r="E53" s="563"/>
-      <c r="F53" s="564"/>
-      <c r="G53" s="604"/>
-      <c r="H53" s="564"/>
-      <c r="I53" s="604"/>
-      <c r="J53" s="605"/>
-    </row>
-    <row r="54" spans="1:10" s="601" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="549"/>
-      <c r="B54" s="580" t="s">
+      <c r="D53" s="526"/>
+      <c r="E53" s="527"/>
+      <c r="F53" s="528"/>
+      <c r="G53" s="568"/>
+      <c r="H53" s="528"/>
+      <c r="I53" s="568"/>
+      <c r="J53" s="569"/>
+    </row>
+    <row r="54" spans="1:10" s="565" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="513"/>
+      <c r="B54" s="544" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="606" t="s">
+      <c r="C54" s="570" t="s">
         <v>374</v>
       </c>
-      <c r="D54" s="555" t="str">
+      <c r="D54" s="519" t="str">
         <f>IF(C54="","",IF(E54="","",IF(E54&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E54" s="556">
+      <c r="E54" s="520">
         <v>3</v>
       </c>
-      <c r="F54" s="557"/>
-      <c r="G54" s="558"/>
-      <c r="H54" s="557">
+      <c r="F54" s="521"/>
+      <c r="G54" s="522"/>
+      <c r="H54" s="521">
         <v>3000</v>
       </c>
-      <c r="I54" s="558">
+      <c r="I54" s="522">
         <f t="shared" ref="I54:I56" si="10">H54*E54</f>
         <v>9000</v>
       </c>
-      <c r="J54" s="559">
+      <c r="J54" s="523">
         <f t="shared" ref="J54:J56" si="11">I54+G54</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="601" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="549"/>
-      <c r="B55" s="580" t="s">
+    <row r="55" spans="1:10" s="565" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="513"/>
+      <c r="B55" s="544" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="606" t="s">
+      <c r="C55" s="570" t="s">
         <v>375</v>
       </c>
-      <c r="D55" s="555" t="str">
+      <c r="D55" s="519" t="str">
         <f>IF(C55="","",IF(E55="","",IF(E55&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E55" s="556">
+      <c r="E55" s="520">
         <v>1</v>
       </c>
-      <c r="F55" s="557"/>
-      <c r="G55" s="558"/>
-      <c r="H55" s="557">
+      <c r="F55" s="521"/>
+      <c r="G55" s="522"/>
+      <c r="H55" s="521">
         <v>4000</v>
       </c>
-      <c r="I55" s="558">
+      <c r="I55" s="522">
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="J55" s="559">
+      <c r="J55" s="523">
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="601" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="549"/>
-      <c r="B56" s="580" t="s">
+    <row r="56" spans="1:10" s="565" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="513"/>
+      <c r="B56" s="544" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="606" t="s">
+      <c r="C56" s="570" t="s">
         <v>376</v>
       </c>
-      <c r="D56" s="569" t="str">
+      <c r="D56" s="533" t="str">
         <f>IF(C56="","",IF(E56="","",IF(E56&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E56" s="570">
+      <c r="E56" s="534">
         <v>5</v>
       </c>
-      <c r="F56" s="557"/>
-      <c r="G56" s="558"/>
-      <c r="H56" s="557">
+      <c r="F56" s="521"/>
+      <c r="G56" s="522"/>
+      <c r="H56" s="521">
         <v>5000</v>
       </c>
-      <c r="I56" s="558">
+      <c r="I56" s="522">
         <f t="shared" si="10"/>
         <v>25000</v>
       </c>
-      <c r="J56" s="559">
+      <c r="J56" s="523">
         <f t="shared" si="11"/>
         <v>25000</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="571">
+      <c r="A57" s="535">
         <f>A53+1</f>
         <v>18</v>
       </c>
-      <c r="B57" s="572"/>
-      <c r="C57" s="607" t="s">
+      <c r="B57" s="536"/>
+      <c r="C57" s="571" t="s">
         <v>377</v>
       </c>
-      <c r="D57" s="584"/>
-      <c r="E57" s="585"/>
-      <c r="F57" s="586"/>
-      <c r="G57" s="608"/>
-      <c r="H57" s="586"/>
-      <c r="I57" s="608"/>
-      <c r="J57" s="609"/>
+      <c r="D57" s="548"/>
+      <c r="E57" s="549"/>
+      <c r="F57" s="550"/>
+      <c r="G57" s="572"/>
+      <c r="H57" s="550"/>
+      <c r="I57" s="572"/>
+      <c r="J57" s="573"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
-      <c r="B58" s="610" t="s">
+      <c r="A58" s="539"/>
+      <c r="B58" s="574" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="611" t="s">
+      <c r="C58" s="575" t="s">
         <v>376</v>
       </c>
-      <c r="D58" s="578" t="str">
+      <c r="D58" s="542" t="str">
         <f>IF(C58="","",IF(E58="","",IF(E58&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E58" s="579">
+      <c r="E58" s="543">
         <v>2</v>
       </c>
-      <c r="F58" s="557"/>
-      <c r="G58" s="558"/>
-      <c r="H58" s="557">
+      <c r="F58" s="521"/>
+      <c r="G58" s="522"/>
+      <c r="H58" s="521">
         <v>5000</v>
       </c>
-      <c r="I58" s="558">
+      <c r="I58" s="522">
         <f>H58*E58</f>
         <v>10000</v>
       </c>
-      <c r="J58" s="559">
+      <c r="J58" s="523">
         <f>I58+G58</f>
         <v>10000</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="571">
+      <c r="A59" s="535">
         <f>A57+1</f>
         <v>19</v>
       </c>
-      <c r="B59" s="560"/>
-      <c r="C59" s="602" t="s">
+      <c r="B59" s="524"/>
+      <c r="C59" s="566" t="s">
         <v>378</v>
       </c>
-      <c r="D59" s="584"/>
-      <c r="E59" s="585"/>
-      <c r="F59" s="586"/>
-      <c r="G59" s="608"/>
-      <c r="H59" s="586"/>
-      <c r="I59" s="608"/>
-      <c r="J59" s="609"/>
-    </row>
-    <row r="60" spans="1:10" s="589" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="571"/>
-      <c r="B60" s="612" t="s">
+      <c r="D59" s="548"/>
+      <c r="E59" s="549"/>
+      <c r="F59" s="550"/>
+      <c r="G59" s="572"/>
+      <c r="H59" s="550"/>
+      <c r="I59" s="572"/>
+      <c r="J59" s="573"/>
+    </row>
+    <row r="60" spans="1:10" s="553" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="535"/>
+      <c r="B60" s="576" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="613" t="s">
+      <c r="C60" s="577" t="s">
         <v>375</v>
       </c>
-      <c r="D60" s="555" t="str">
+      <c r="D60" s="519" t="str">
         <f>IF(C60="","",IF(E60="","",IF(E60&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E60" s="556">
+      <c r="E60" s="520">
         <v>1</v>
       </c>
-      <c r="F60" s="557"/>
-      <c r="G60" s="558"/>
-      <c r="H60" s="557">
+      <c r="F60" s="521"/>
+      <c r="G60" s="522"/>
+      <c r="H60" s="521">
         <v>4000</v>
       </c>
-      <c r="I60" s="558">
+      <c r="I60" s="522">
         <f t="shared" ref="I60:I70" si="12">H60*E60</f>
         <v>4000</v>
       </c>
-      <c r="J60" s="559">
+      <c r="J60" s="523">
         <f t="shared" ref="J60:J70" si="13">I60+G60</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="589" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="571"/>
-      <c r="B61" s="553" t="s">
+    <row r="61" spans="1:10" s="553" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="535"/>
+      <c r="B61" s="517" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="613" t="s">
+      <c r="C61" s="577" t="s">
         <v>376</v>
       </c>
-      <c r="D61" s="555" t="str">
+      <c r="D61" s="519" t="str">
         <f>IF(C61="","",IF(E61="","",IF(E61&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E61" s="556">
+      <c r="E61" s="520">
         <v>2</v>
       </c>
-      <c r="F61" s="557"/>
-      <c r="G61" s="558"/>
-      <c r="H61" s="557">
+      <c r="F61" s="521"/>
+      <c r="G61" s="522"/>
+      <c r="H61" s="521">
         <v>5000</v>
       </c>
-      <c r="I61" s="558">
+      <c r="I61" s="522">
         <f t="shared" si="12"/>
         <v>10000</v>
       </c>
-      <c r="J61" s="559">
+      <c r="J61" s="523">
         <f t="shared" si="13"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="615" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="549">
+    <row r="62" spans="1:10" s="579" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="513">
         <f>A59+1</f>
         <v>20</v>
       </c>
-      <c r="B62" s="614"/>
-      <c r="C62" s="551" t="s">
+      <c r="B62" s="578"/>
+      <c r="C62" s="515" t="s">
         <v>379</v>
       </c>
-      <c r="D62" s="584" t="s">
+      <c r="D62" s="548" t="s">
         <v>283</v>
       </c>
-      <c r="E62" s="585">
+      <c r="E62" s="549">
         <v>1</v>
       </c>
-      <c r="F62" s="557"/>
-      <c r="G62" s="558"/>
-      <c r="H62" s="557">
+      <c r="F62" s="521"/>
+      <c r="G62" s="522"/>
+      <c r="H62" s="521">
         <v>100000</v>
       </c>
-      <c r="I62" s="558">
+      <c r="I62" s="522">
         <f t="shared" si="12"/>
         <v>100000</v>
       </c>
-      <c r="J62" s="559">
+      <c r="J62" s="523">
         <f t="shared" si="13"/>
         <v>100000</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="616">
+      <c r="A63" s="580">
         <f>A62+1</f>
         <v>21</v>
       </c>
-      <c r="B63" s="550"/>
-      <c r="C63" s="581" t="s">
+      <c r="B63" s="514"/>
+      <c r="C63" s="545" t="s">
         <v>380</v>
       </c>
-      <c r="D63" s="569" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="598">
+      <c r="D63" s="533" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="562">
         <v>1</v>
       </c>
-      <c r="F63" s="557"/>
-      <c r="G63" s="558"/>
-      <c r="H63" s="557">
+      <c r="F63" s="521"/>
+      <c r="G63" s="522"/>
+      <c r="H63" s="521">
         <v>50000</v>
       </c>
-      <c r="I63" s="558">
+      <c r="I63" s="522">
         <f t="shared" si="12"/>
         <v>50000</v>
       </c>
-      <c r="J63" s="559">
+      <c r="J63" s="523">
         <f t="shared" si="13"/>
         <v>50000</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="549">
+      <c r="A64" s="513">
         <f t="shared" ref="A64:A70" si="14">A63+1</f>
         <v>22</v>
       </c>
-      <c r="B64" s="550"/>
-      <c r="C64" s="568" t="s">
+      <c r="B64" s="514"/>
+      <c r="C64" s="532" t="s">
         <v>381</v>
       </c>
-      <c r="D64" s="569" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="570">
+      <c r="D64" s="533" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="534">
         <v>1</v>
       </c>
-      <c r="F64" s="557"/>
-      <c r="G64" s="558"/>
-      <c r="H64" s="557">
+      <c r="F64" s="521"/>
+      <c r="G64" s="522"/>
+      <c r="H64" s="521">
         <v>45000</v>
       </c>
-      <c r="I64" s="558">
+      <c r="I64" s="522">
         <f t="shared" si="12"/>
         <v>45000</v>
       </c>
-      <c r="J64" s="559">
+      <c r="J64" s="523">
         <f t="shared" si="13"/>
         <v>45000</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="111.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="549">
+      <c r="A65" s="513">
         <f t="shared" si="14"/>
         <v>23</v>
       </c>
-      <c r="B65" s="550"/>
-      <c r="C65" s="581" t="s">
+      <c r="B65" s="514"/>
+      <c r="C65" s="545" t="s">
         <v>382</v>
       </c>
-      <c r="D65" s="569" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="570">
+      <c r="D65" s="533" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="534">
         <v>1</v>
       </c>
-      <c r="F65" s="557"/>
-      <c r="G65" s="558"/>
-      <c r="H65" s="557">
+      <c r="F65" s="521"/>
+      <c r="G65" s="522"/>
+      <c r="H65" s="521">
         <v>35000</v>
       </c>
-      <c r="I65" s="558">
+      <c r="I65" s="522">
         <f t="shared" si="12"/>
         <v>35000</v>
       </c>
-      <c r="J65" s="559">
+      <c r="J65" s="523">
         <f t="shared" si="13"/>
         <v>35000</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="575">
+      <c r="A66" s="539">
         <f>A65+1</f>
         <v>24</v>
       </c>
-      <c r="B66" s="617"/>
-      <c r="C66" s="377" t="s">
+      <c r="B66" s="581"/>
+      <c r="C66" s="355" t="s">
         <v>383</v>
       </c>
-      <c r="D66" s="578" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="579">
+      <c r="D66" s="542" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="543">
         <v>1</v>
       </c>
-      <c r="F66" s="557"/>
-      <c r="G66" s="558"/>
-      <c r="H66" s="557">
+      <c r="F66" s="521"/>
+      <c r="G66" s="522"/>
+      <c r="H66" s="521">
         <v>10000</v>
       </c>
-      <c r="I66" s="558">
+      <c r="I66" s="522">
         <f t="shared" si="12"/>
         <v>10000</v>
       </c>
-      <c r="J66" s="559">
+      <c r="J66" s="523">
         <f t="shared" si="13"/>
         <v>10000</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="549">
+      <c r="A67" s="513">
         <f>A66+1</f>
         <v>25</v>
       </c>
-      <c r="B67" s="550"/>
-      <c r="C67" s="618" t="s">
+      <c r="B67" s="514"/>
+      <c r="C67" s="582" t="s">
         <v>384</v>
       </c>
-      <c r="D67" s="555" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="556">
+      <c r="D67" s="519" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="520">
         <v>1</v>
       </c>
-      <c r="F67" s="557"/>
-      <c r="G67" s="558"/>
-      <c r="H67" s="557">
+      <c r="F67" s="521"/>
+      <c r="G67" s="522"/>
+      <c r="H67" s="521">
         <v>20000</v>
       </c>
-      <c r="I67" s="558">
+      <c r="I67" s="522">
         <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="J67" s="559">
+      <c r="J67" s="523">
         <f t="shared" si="13"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="589" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="549">
+    <row r="68" spans="1:17" s="553" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="513">
         <f>A67+1</f>
         <v>26</v>
       </c>
-      <c r="B68" s="572"/>
-      <c r="C68" s="554" t="s">
+      <c r="B68" s="536"/>
+      <c r="C68" s="518" t="s">
         <v>385</v>
       </c>
-      <c r="D68" s="555" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="556">
+      <c r="D68" s="519" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="520">
         <v>1</v>
       </c>
-      <c r="F68" s="557"/>
-      <c r="G68" s="558"/>
-      <c r="H68" s="557">
+      <c r="F68" s="521"/>
+      <c r="G68" s="522"/>
+      <c r="H68" s="521">
         <v>150000</v>
       </c>
-      <c r="I68" s="558">
+      <c r="I68" s="522">
         <f t="shared" si="12"/>
         <v>150000</v>
       </c>
-      <c r="J68" s="559">
+      <c r="J68" s="523">
         <f t="shared" si="13"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="589" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="571">
+    <row r="69" spans="1:17" s="553" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="535">
         <f t="shared" si="14"/>
         <v>27</v>
       </c>
-      <c r="B69" s="572"/>
-      <c r="C69" s="554" t="s">
+      <c r="B69" s="536"/>
+      <c r="C69" s="518" t="s">
         <v>386</v>
       </c>
-      <c r="D69" s="555" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="556">
+      <c r="D69" s="519" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="520">
         <v>1</v>
       </c>
-      <c r="F69" s="557"/>
-      <c r="G69" s="558"/>
-      <c r="H69" s="557">
+      <c r="F69" s="521"/>
+      <c r="G69" s="522"/>
+      <c r="H69" s="521">
         <v>45000</v>
       </c>
-      <c r="I69" s="558">
+      <c r="I69" s="522">
         <f t="shared" si="12"/>
         <v>45000</v>
       </c>
-      <c r="J69" s="559">
+      <c r="J69" s="523">
         <f t="shared" si="13"/>
         <v>45000</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="549">
+      <c r="A70" s="513">
         <f t="shared" si="14"/>
         <v>28</v>
       </c>
-      <c r="B70" s="550"/>
-      <c r="C70" s="619" t="s">
+      <c r="B70" s="514"/>
+      <c r="C70" s="583" t="s">
         <v>387</v>
       </c>
-      <c r="D70" s="555" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="556">
+      <c r="D70" s="519" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="520">
         <v>1</v>
       </c>
-      <c r="F70" s="557"/>
-      <c r="G70" s="558"/>
-      <c r="H70" s="557">
+      <c r="F70" s="521"/>
+      <c r="G70" s="522"/>
+      <c r="H70" s="521">
         <v>50000</v>
       </c>
-      <c r="I70" s="558">
+      <c r="I70" s="522">
         <f t="shared" si="12"/>
         <v>50000</v>
       </c>
-      <c r="J70" s="559">
+      <c r="J70" s="523">
         <f t="shared" si="13"/>
         <v>50000</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="620"/>
-      <c r="B71" s="621"/>
-      <c r="C71" s="622" t="s">
+      <c r="A71" s="584"/>
+      <c r="B71" s="585"/>
+      <c r="C71" s="586" t="s">
         <v>388</v>
       </c>
-      <c r="D71" s="623"/>
-      <c r="E71" s="623"/>
-      <c r="F71" s="624"/>
-      <c r="G71" s="625"/>
-      <c r="H71" s="624"/>
-      <c r="I71" s="625"/>
-      <c r="J71" s="626">
+      <c r="D71" s="587"/>
+      <c r="E71" s="587"/>
+      <c r="F71" s="588"/>
+      <c r="G71" s="589"/>
+      <c r="H71" s="588"/>
+      <c r="I71" s="589"/>
+      <c r="J71" s="590">
         <f>SUM(J6:J70)</f>
         <v>3142300</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="516"/>
-      <c r="B72" s="516"/>
-      <c r="C72" s="515"/>
-      <c r="D72" s="516"/>
-      <c r="E72" s="516"/>
-      <c r="F72" s="516"/>
-      <c r="G72" s="516"/>
-      <c r="H72" s="516"/>
-      <c r="I72" s="516"/>
-      <c r="J72" s="516"/>
+      <c r="A72" s="492"/>
+      <c r="B72" s="492"/>
+      <c r="C72" s="491"/>
+      <c r="D72" s="492"/>
+      <c r="E72" s="492"/>
+      <c r="F72" s="492"/>
+      <c r="G72" s="492"/>
+      <c r="H72" s="492"/>
+      <c r="I72" s="492"/>
+      <c r="J72" s="492"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="627" t="s">
+      <c r="A73" s="652" t="s">
         <v>389</v>
       </c>
-      <c r="B73" s="627"/>
-      <c r="C73" s="515"/>
-      <c r="D73" s="516"/>
-      <c r="E73" s="516"/>
-      <c r="F73" s="516"/>
-      <c r="G73" s="516"/>
-      <c r="H73" s="516"/>
-      <c r="I73" s="516"/>
-      <c r="J73" s="516"/>
+      <c r="B73" s="652"/>
+      <c r="C73" s="491"/>
+      <c r="D73" s="492"/>
+      <c r="E73" s="492"/>
+      <c r="F73" s="492"/>
+      <c r="G73" s="492"/>
+      <c r="H73" s="492"/>
+      <c r="I73" s="492"/>
+      <c r="J73" s="492"/>
     </row>
     <row r="74" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="628" t="s">
+      <c r="A74" s="591" t="s">
         <v>390</v>
       </c>
-      <c r="B74" s="629" t="s">
+      <c r="B74" s="653" t="s">
         <v>391</v>
       </c>
-      <c r="C74" s="629"/>
-      <c r="D74" s="629"/>
-      <c r="E74" s="629"/>
-      <c r="F74" s="629"/>
-      <c r="G74" s="629"/>
-      <c r="H74" s="629"/>
-      <c r="I74" s="629"/>
-      <c r="J74" s="629"/>
-      <c r="K74" s="630"/>
-      <c r="L74" s="630"/>
-      <c r="M74" s="630"/>
-      <c r="N74" s="630"/>
-      <c r="O74" s="630"/>
-      <c r="P74" s="630"/>
-      <c r="Q74" s="630"/>
+      <c r="C74" s="653"/>
+      <c r="D74" s="653"/>
+      <c r="E74" s="653"/>
+      <c r="F74" s="653"/>
+      <c r="G74" s="653"/>
+      <c r="H74" s="653"/>
+      <c r="I74" s="653"/>
+      <c r="J74" s="653"/>
+      <c r="K74" s="592"/>
+      <c r="L74" s="592"/>
+      <c r="M74" s="592"/>
+      <c r="N74" s="592"/>
+      <c r="O74" s="592"/>
+      <c r="P74" s="592"/>
+      <c r="Q74" s="592"/>
     </row>
     <row r="75" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="628" t="s">
+      <c r="A75" s="591" t="s">
         <v>390</v>
       </c>
-      <c r="B75" s="629" t="s">
+      <c r="B75" s="653" t="s">
         <v>392</v>
       </c>
-      <c r="C75" s="629"/>
-      <c r="D75" s="629"/>
-      <c r="E75" s="629"/>
-      <c r="F75" s="629"/>
-      <c r="G75" s="629"/>
-      <c r="H75" s="629"/>
-      <c r="I75" s="629"/>
-      <c r="J75" s="629"/>
-      <c r="K75" s="630"/>
-      <c r="L75" s="630"/>
-      <c r="M75" s="630"/>
-      <c r="N75" s="630"/>
-      <c r="O75" s="630"/>
-      <c r="P75" s="630"/>
-      <c r="Q75" s="630"/>
+      <c r="C75" s="653"/>
+      <c r="D75" s="653"/>
+      <c r="E75" s="653"/>
+      <c r="F75" s="653"/>
+      <c r="G75" s="653"/>
+      <c r="H75" s="653"/>
+      <c r="I75" s="653"/>
+      <c r="J75" s="653"/>
+      <c r="K75" s="592"/>
+      <c r="L75" s="592"/>
+      <c r="M75" s="592"/>
+      <c r="N75" s="592"/>
+      <c r="O75" s="592"/>
+      <c r="P75" s="592"/>
+      <c r="Q75" s="592"/>
     </row>
     <row r="76" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="628" t="s">
+      <c r="A76" s="591" t="s">
         <v>390</v>
       </c>
-      <c r="B76" s="629" t="s">
+      <c r="B76" s="653" t="s">
         <v>393</v>
       </c>
-      <c r="C76" s="629"/>
-      <c r="D76" s="629"/>
-      <c r="E76" s="629"/>
-      <c r="F76" s="629"/>
-      <c r="G76" s="629"/>
-      <c r="H76" s="629"/>
-      <c r="I76" s="629"/>
-      <c r="J76" s="629"/>
-      <c r="K76" s="630"/>
-      <c r="L76" s="630"/>
-      <c r="M76" s="630"/>
-      <c r="N76" s="630"/>
-      <c r="O76" s="630"/>
-      <c r="P76" s="630"/>
-      <c r="Q76" s="630"/>
+      <c r="C76" s="653"/>
+      <c r="D76" s="653"/>
+      <c r="E76" s="653"/>
+      <c r="F76" s="653"/>
+      <c r="G76" s="653"/>
+      <c r="H76" s="653"/>
+      <c r="I76" s="653"/>
+      <c r="J76" s="653"/>
+      <c r="K76" s="592"/>
+      <c r="L76" s="592"/>
+      <c r="M76" s="592"/>
+      <c r="N76" s="592"/>
+      <c r="O76" s="592"/>
+      <c r="P76" s="592"/>
+      <c r="Q76" s="592"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Running projects/Imtiaz Korangi (Labour RAtes)/1- BOQ of ACMV Works.xlsx
+++ b/Running projects/Imtiaz Korangi (Labour RAtes)/1- BOQ of ACMV Works.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Imtiaz Korangi (Labour RAtes)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5B515C-0E1E-49FF-9BE9-42F407CD2F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA71A13-705D-4633-8D5F-87D3684160AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="52" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <definedName name="WTP">#REF!</definedName>
     <definedName name="WWTP">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -4730,7 +4730,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Normal Basis"/>
@@ -5147,7 +5147,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Bill 1"/>
@@ -5446,11 +5446,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Approved List of Manufacturers"/>
       <sheetName val="Summary"/>
@@ -5474,11 +5471,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="BiIl of Quantities"/>
     </sheetNames>
@@ -5496,9 +5490,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5536,9 +5530,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5571,9 +5565,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5606,9 +5617,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5784,7 +5812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713D1CC8-AF42-4A0D-969E-5576E90FEB60}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -6033,8 +6061,8 @@
   </sheetPr>
   <dimension ref="A1:P294"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A268" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C291" sqref="C291"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179:H184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Running projects/Imtiaz Korangi (Labour RAtes)/1- BOQ of ACMV Works.xlsx
+++ b/Running projects/Imtiaz Korangi (Labour RAtes)/1- BOQ of ACMV Works.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Imtiaz Korangi (Labour RAtes)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA71A13-705D-4633-8D5F-87D3684160AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C9F9D5-D205-49A9-9297-7594F7E8004D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="52" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="415">
   <si>
     <t>Job.</t>
   </si>
@@ -1438,6 +1438,21 @@
   </si>
   <si>
     <t>Less WHT 6.60%</t>
+  </si>
+  <si>
+    <t>Less WHT 6.6087%</t>
+  </si>
+  <si>
+    <t>Rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Received </t>
+  </si>
+  <si>
+    <t>wok Order</t>
+  </si>
+  <si>
+    <t>Remaining</t>
   </si>
 </sst>
 </file>
@@ -2855,7 +2870,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="666">
+  <cellXfs count="670">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -4540,12 +4555,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="73" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4690,6 +4699,16 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="76" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="16" applyFont="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
@@ -5810,10 +5829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713D1CC8-AF42-4A0D-969E-5576E90FEB60}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -5823,34 +5842,38 @@
     <col min="3" max="3" width="22.75" style="595" customWidth="1"/>
     <col min="4" max="4" width="8" style="595"/>
     <col min="5" max="5" width="10.75" style="595" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8" style="595"/>
+    <col min="6" max="7" width="8" style="595"/>
+    <col min="8" max="8" width="11.5" style="595" customWidth="1"/>
+    <col min="9" max="9" width="11" style="595" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="595" customWidth="1"/>
+    <col min="11" max="16384" width="8" style="595"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="627" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="625" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="627"/>
-      <c r="C1" s="627"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="625"/>
+      <c r="C1" s="625"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="596"/>
       <c r="B2" s="596"/>
       <c r="C2" s="597"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="624" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="622" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="624"/>
-      <c r="C3" s="624"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="625"/>
-      <c r="B4" s="625"/>
+      <c r="B3" s="622"/>
+      <c r="C3" s="622"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="623"/>
+      <c r="B4" s="623"/>
       <c r="C4" s="598"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="599" t="s">
         <v>395</v>
       </c>
@@ -5861,125 +5884,148 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="600"/>
       <c r="B6" s="601"/>
       <c r="C6" s="605"/>
     </row>
-    <row r="7" spans="1:5" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="600" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="601" t="s">
         <v>399</v>
       </c>
-      <c r="C7" s="618">
+      <c r="C7" s="616">
         <f>HVAC!J276</f>
         <v>9687950</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="600" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="601" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="618">
+      <c r="C8" s="616">
         <f>Plumbing!J116</f>
         <v>1335200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="602" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="600" t="s">
         <v>398</v>
       </c>
       <c r="B9" s="604" t="s">
         <v>403</v>
       </c>
-      <c r="C9" s="618">
+      <c r="C9" s="616">
         <f>FIre!J71</f>
         <v>3142300</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="620" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="618" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="600"/>
       <c r="B10" s="606" t="s">
         <v>401</v>
       </c>
-      <c r="C10" s="619">
+      <c r="C10" s="617">
         <f>SUM(C7:C9)</f>
         <v>14165450</v>
       </c>
       <c r="D10" s="602"/>
       <c r="E10" s="603"/>
     </row>
-    <row r="11" spans="1:5" s="620" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="618" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="600"/>
       <c r="B11" s="606" t="s">
         <v>405</v>
       </c>
-      <c r="C11" s="619">
+      <c r="C11" s="617">
         <f>C10*11.757%</f>
         <v>1665431.9564999999</v>
       </c>
       <c r="D11" s="602"/>
       <c r="E11" s="603"/>
     </row>
-    <row r="12" spans="1:5" s="620" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="618" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="600"/>
       <c r="B12" s="606" t="s">
         <v>404</v>
       </c>
-      <c r="C12" s="619">
+      <c r="C12" s="617">
         <f>C10-C11</f>
         <v>12500018.043500001</v>
       </c>
       <c r="D12" s="602"/>
       <c r="E12" s="603"/>
     </row>
-    <row r="13" spans="1:5" s="620" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="618" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="600"/>
       <c r="B13" s="606"/>
-      <c r="C13" s="621"/>
+      <c r="C13" s="619"/>
       <c r="D13" s="602"/>
       <c r="E13" s="603"/>
     </row>
-    <row r="14" spans="1:5" s="620" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="618" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="600"/>
       <c r="B14" s="606" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="619">
+      <c r="C14" s="617">
         <f>C12*15%</f>
         <v>1875002.706525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="620" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="626" t="s">
+    <row r="15" spans="1:10" s="618" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="624" t="s">
         <v>406</v>
       </c>
-      <c r="B15" s="626"/>
-      <c r="C15" s="623">
+      <c r="B15" s="624"/>
+      <c r="C15" s="621">
         <f>C14+C12</f>
         <v>14375020.750025</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="620" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="622"/>
-      <c r="B16" s="622"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H15" s="664"/>
+      <c r="I15" s="664"/>
+      <c r="J15" s="665">
+        <f>C19</f>
+        <v>5750008.3000100004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="618" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="620"/>
+      <c r="B16" s="620"/>
+      <c r="H16" s="664"/>
+      <c r="I16" s="664"/>
+      <c r="J16" s="665">
+        <f>C26</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="607"/>
       <c r="B17" s="607"/>
       <c r="C17" s="608"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H17" s="666"/>
+      <c r="I17" s="666"/>
+      <c r="J17" s="666"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="609"/>
       <c r="B18" s="607"/>
       <c r="C18" s="610"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H18" s="666" t="s">
+        <v>412</v>
+      </c>
+      <c r="I18" s="666"/>
+      <c r="J18" s="667">
+        <f>SUM(J15:J17)</f>
+        <v>10750008.300009999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="611"/>
       <c r="B19" s="611" t="s">
         <v>408</v>
@@ -5988,12 +6034,23 @@
         <f>C15*40%</f>
         <v>5750008.3000100004</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H19" s="666"/>
+      <c r="I19" s="666"/>
+      <c r="J19" s="666"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="607"/>
       <c r="B20" s="607"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H20" s="666" t="s">
+        <v>413</v>
+      </c>
+      <c r="I20" s="666"/>
+      <c r="J20" s="668">
+        <f>C15</f>
+        <v>14375020.750025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="607"/>
       <c r="B21" s="607" t="s">
         <v>409</v>
@@ -6002,12 +6059,23 @@
         <f>C19*6.6008%</f>
         <v>379546.54786706012</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H21" s="666"/>
+      <c r="I21" s="666"/>
+      <c r="J21" s="666"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="607"/>
       <c r="B22" s="607"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H22" s="666" t="s">
+        <v>414</v>
+      </c>
+      <c r="I22" s="666"/>
+      <c r="J22" s="669">
+        <f>J20-J18</f>
+        <v>3625012.450015001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="613"/>
       <c r="B23" s="607"/>
       <c r="C23" s="610">
@@ -6015,29 +6083,47 @@
         <v>5370461.7521429406</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="614"/>
       <c r="B24" s="607"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="613"/>
       <c r="B25" s="607"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="613"/>
-      <c r="B26" s="607"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="611" t="s">
+        <v>411</v>
+      </c>
+      <c r="C26" s="612">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="615"/>
-      <c r="B27" s="616"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="607"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="615"/>
-      <c r="B28" s="616"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="607" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" s="610">
+        <f>C26*6.6087%</f>
+        <v>330434.99999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="615"/>
-      <c r="B29" s="617"/>
+      <c r="B29" s="607"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="607"/>
+      <c r="C30" s="610">
+        <f>C26-C28</f>
+        <v>4669565</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6061,7 +6147,7 @@
   </sheetPr>
   <dimension ref="A1:P294"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A175" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H179" sqref="H179:H184"/>
     </sheetView>
   </sheetViews>
@@ -6171,24 +6257,24 @@
       <c r="B7" s="22"/>
       <c r="D7" s="23"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="631" t="s">
+      <c r="F7" s="629" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="632"/>
-      <c r="H7" s="633" t="s">
+      <c r="G7" s="630"/>
+      <c r="H7" s="631" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="634"/>
+      <c r="I7" s="632"/>
       <c r="J7" s="27" t="s">
         <v>92</v>
       </c>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="635" t="s">
+      <c r="A8" s="633" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="636"/>
+      <c r="B8" s="634"/>
       <c r="C8" s="29" t="s">
         <v>87</v>
       </c>
@@ -13672,50 +13758,50 @@
       <c r="J277" s="20"/>
     </row>
     <row r="278" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="630" t="s">
+      <c r="A278" s="628" t="s">
         <v>124</v>
       </c>
-      <c r="B278" s="630"/>
-      <c r="C278" s="630"/>
-      <c r="D278" s="630"/>
-      <c r="E278" s="630"/>
-      <c r="F278" s="630"/>
-      <c r="G278" s="630"/>
-      <c r="H278" s="630"/>
-      <c r="I278" s="630"/>
-      <c r="J278" s="630"/>
+      <c r="B278" s="628"/>
+      <c r="C278" s="628"/>
+      <c r="D278" s="628"/>
+      <c r="E278" s="628"/>
+      <c r="F278" s="628"/>
+      <c r="G278" s="628"/>
+      <c r="H278" s="628"/>
+      <c r="I278" s="628"/>
+      <c r="J278" s="628"/>
       <c r="K278" s="16">
         <f>J276+'[3]Bill of Quantities'!$J$116+'[4]BiIl of Quantities'!$J$71</f>
         <v>14165450</v>
       </c>
     </row>
     <row r="279" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="629" t="s">
+      <c r="A279" s="627" t="s">
         <v>155</v>
       </c>
-      <c r="B279" s="629"/>
-      <c r="C279" s="629"/>
-      <c r="D279" s="629"/>
-      <c r="E279" s="629"/>
-      <c r="F279" s="629"/>
-      <c r="G279" s="629"/>
-      <c r="H279" s="629"/>
-      <c r="I279" s="629"/>
-      <c r="J279" s="629"/>
+      <c r="B279" s="627"/>
+      <c r="C279" s="627"/>
+      <c r="D279" s="627"/>
+      <c r="E279" s="627"/>
+      <c r="F279" s="627"/>
+      <c r="G279" s="627"/>
+      <c r="H279" s="627"/>
+      <c r="I279" s="627"/>
+      <c r="J279" s="627"/>
     </row>
     <row r="280" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="629" t="s">
+      <c r="A280" s="627" t="s">
         <v>156</v>
       </c>
-      <c r="B280" s="629"/>
-      <c r="C280" s="629"/>
-      <c r="D280" s="629"/>
-      <c r="E280" s="629"/>
-      <c r="F280" s="629"/>
-      <c r="G280" s="629"/>
-      <c r="H280" s="629"/>
-      <c r="I280" s="629"/>
-      <c r="J280" s="629"/>
+      <c r="B280" s="627"/>
+      <c r="C280" s="627"/>
+      <c r="D280" s="627"/>
+      <c r="E280" s="627"/>
+      <c r="F280" s="627"/>
+      <c r="G280" s="627"/>
+      <c r="H280" s="627"/>
+      <c r="I280" s="627"/>
+      <c r="J280" s="627"/>
       <c r="K280" s="287">
         <v>12500000</v>
       </c>
@@ -13727,80 +13813,80 @@
       </c>
     </row>
     <row r="281" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="629" t="s">
+      <c r="A281" s="627" t="s">
         <v>154</v>
       </c>
-      <c r="B281" s="629"/>
-      <c r="C281" s="629"/>
-      <c r="D281" s="629"/>
-      <c r="E281" s="629"/>
-      <c r="F281" s="629"/>
-      <c r="G281" s="629"/>
-      <c r="H281" s="629"/>
-      <c r="I281" s="629"/>
-      <c r="J281" s="629"/>
+      <c r="B281" s="627"/>
+      <c r="C281" s="627"/>
+      <c r="D281" s="627"/>
+      <c r="E281" s="627"/>
+      <c r="F281" s="627"/>
+      <c r="G281" s="627"/>
+      <c r="H281" s="627"/>
+      <c r="I281" s="627"/>
+      <c r="J281" s="627"/>
     </row>
     <row r="282" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="630" t="s">
+      <c r="A282" s="628" t="s">
         <v>123</v>
       </c>
-      <c r="B282" s="630"/>
-      <c r="C282" s="630"/>
-      <c r="D282" s="630"/>
-      <c r="E282" s="630"/>
-      <c r="F282" s="630"/>
-      <c r="G282" s="630"/>
-      <c r="H282" s="630"/>
-      <c r="I282" s="630"/>
-      <c r="J282" s="630"/>
+      <c r="B282" s="628"/>
+      <c r="C282" s="628"/>
+      <c r="D282" s="628"/>
+      <c r="E282" s="628"/>
+      <c r="F282" s="628"/>
+      <c r="G282" s="628"/>
+      <c r="H282" s="628"/>
+      <c r="I282" s="628"/>
+      <c r="J282" s="628"/>
       <c r="K282" s="289">
         <f>K278-K280</f>
         <v>1665450</v>
       </c>
     </row>
     <row r="283" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="630" t="s">
+      <c r="A283" s="628" t="s">
         <v>122</v>
       </c>
-      <c r="B283" s="630"/>
-      <c r="C283" s="630"/>
-      <c r="D283" s="630"/>
-      <c r="E283" s="630"/>
-      <c r="F283" s="630"/>
-      <c r="G283" s="630"/>
-      <c r="H283" s="630"/>
-      <c r="I283" s="630"/>
-      <c r="J283" s="630"/>
+      <c r="B283" s="628"/>
+      <c r="C283" s="628"/>
+      <c r="D283" s="628"/>
+      <c r="E283" s="628"/>
+      <c r="F283" s="628"/>
+      <c r="G283" s="628"/>
+      <c r="H283" s="628"/>
+      <c r="I283" s="628"/>
+      <c r="J283" s="628"/>
       <c r="K283" s="289">
         <f>K282/K278</f>
         <v>0.11757127376821774</v>
       </c>
     </row>
     <row r="284" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="K284" s="628" t="s">
+      <c r="K284" s="626" t="s">
         <v>214</v>
       </c>
-      <c r="L284" s="628"/>
+      <c r="L284" s="626"/>
       <c r="M284" s="290"/>
       <c r="N284" s="290"/>
       <c r="O284" s="290"/>
       <c r="P284" s="290"/>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K285" s="628"/>
-      <c r="L285" s="628"/>
+      <c r="K285" s="626"/>
+      <c r="L285" s="626"/>
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K286" s="628"/>
-      <c r="L286" s="628"/>
+      <c r="K286" s="626"/>
+      <c r="L286" s="626"/>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K287" s="628"/>
-      <c r="L287" s="628"/>
+      <c r="K287" s="626"/>
+      <c r="L287" s="626"/>
     </row>
     <row r="288" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K288" s="628"/>
-      <c r="L288" s="628"/>
+      <c r="K288" s="626"/>
+      <c r="L288" s="626"/>
     </row>
     <row r="289" spans="3:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C289" s="190"/>
@@ -14474,11 +14560,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="642" t="s">
+      <c r="A1" s="640" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="642"/>
-      <c r="C1" s="642"/>
+      <c r="B1" s="640"/>
+      <c r="C1" s="640"/>
       <c r="D1" s="294"/>
       <c r="E1" s="294"/>
       <c r="F1" s="294"/>
@@ -14488,11 +14574,11 @@
       <c r="J1" s="296"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="643" t="s">
+      <c r="A2" s="641" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="643"/>
-      <c r="C2" s="643"/>
+      <c r="B2" s="641"/>
+      <c r="C2" s="641"/>
       <c r="D2" s="294"/>
       <c r="E2" s="294"/>
       <c r="F2" s="294"/>
@@ -14552,37 +14638,37 @@
       <c r="J6" s="296"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="644" t="s">
+      <c r="A7" s="642" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="645"/>
-      <c r="C7" s="648" t="s">
+      <c r="B7" s="643"/>
+      <c r="C7" s="646" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="648" t="s">
+      <c r="D7" s="646" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="650" t="s">
+      <c r="E7" s="648" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="637" t="s">
+      <c r="F7" s="635" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="638"/>
-      <c r="H7" s="637" t="s">
+      <c r="G7" s="636"/>
+      <c r="H7" s="635" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="639"/>
+      <c r="I7" s="637"/>
       <c r="J7" s="303" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="646"/>
-      <c r="B8" s="647"/>
-      <c r="C8" s="649"/>
-      <c r="D8" s="649"/>
-      <c r="E8" s="651"/>
+      <c r="A8" s="644"/>
+      <c r="B8" s="645"/>
+      <c r="C8" s="647"/>
+      <c r="D8" s="647"/>
+      <c r="E8" s="649"/>
       <c r="F8" s="304" t="s">
         <v>93</v>
       </c>
@@ -17232,8 +17318,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="640"/>
-      <c r="B114" s="641"/>
+      <c r="A114" s="638"/>
+      <c r="B114" s="639"/>
       <c r="C114" s="377" t="s">
         <v>250</v>
       </c>
@@ -17392,44 +17478,44 @@
       <c r="C6" s="488"/>
       <c r="D6" s="499"/>
       <c r="E6" s="485"/>
-      <c r="F6" s="654"/>
-      <c r="G6" s="654"/>
-      <c r="H6" s="654"/>
-      <c r="I6" s="654"/>
-      <c r="J6" s="654"/>
+      <c r="F6" s="652"/>
+      <c r="G6" s="652"/>
+      <c r="H6" s="652"/>
+      <c r="I6" s="652"/>
+      <c r="J6" s="652"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="655" t="s">
+      <c r="A7" s="653" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="656"/>
-      <c r="C7" s="659" t="s">
+      <c r="B7" s="654"/>
+      <c r="C7" s="657" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="659" t="s">
+      <c r="D7" s="657" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="661" t="s">
+      <c r="E7" s="659" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="663" t="s">
+      <c r="F7" s="661" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="664"/>
-      <c r="H7" s="663" t="s">
+      <c r="G7" s="662"/>
+      <c r="H7" s="661" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="665"/>
+      <c r="I7" s="663"/>
       <c r="J7" s="500" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="501" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="657"/>
-      <c r="B8" s="658"/>
-      <c r="C8" s="660"/>
-      <c r="D8" s="660"/>
-      <c r="E8" s="662"/>
+      <c r="A8" s="655"/>
+      <c r="B8" s="656"/>
+      <c r="C8" s="658"/>
+      <c r="D8" s="658"/>
+      <c r="E8" s="660"/>
       <c r="F8" s="304" t="s">
         <v>93</v>
       </c>
@@ -19058,10 +19144,10 @@
       <c r="J72" s="492"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="652" t="s">
+      <c r="A73" s="650" t="s">
         <v>389</v>
       </c>
-      <c r="B73" s="652"/>
+      <c r="B73" s="650"/>
       <c r="C73" s="491"/>
       <c r="D73" s="492"/>
       <c r="E73" s="492"/>
@@ -19075,17 +19161,17 @@
       <c r="A74" s="591" t="s">
         <v>390</v>
       </c>
-      <c r="B74" s="653" t="s">
+      <c r="B74" s="651" t="s">
         <v>391</v>
       </c>
-      <c r="C74" s="653"/>
-      <c r="D74" s="653"/>
-      <c r="E74" s="653"/>
-      <c r="F74" s="653"/>
-      <c r="G74" s="653"/>
-      <c r="H74" s="653"/>
-      <c r="I74" s="653"/>
-      <c r="J74" s="653"/>
+      <c r="C74" s="651"/>
+      <c r="D74" s="651"/>
+      <c r="E74" s="651"/>
+      <c r="F74" s="651"/>
+      <c r="G74" s="651"/>
+      <c r="H74" s="651"/>
+      <c r="I74" s="651"/>
+      <c r="J74" s="651"/>
       <c r="K74" s="592"/>
       <c r="L74" s="592"/>
       <c r="M74" s="592"/>
@@ -19098,17 +19184,17 @@
       <c r="A75" s="591" t="s">
         <v>390</v>
       </c>
-      <c r="B75" s="653" t="s">
+      <c r="B75" s="651" t="s">
         <v>392</v>
       </c>
-      <c r="C75" s="653"/>
-      <c r="D75" s="653"/>
-      <c r="E75" s="653"/>
-      <c r="F75" s="653"/>
-      <c r="G75" s="653"/>
-      <c r="H75" s="653"/>
-      <c r="I75" s="653"/>
-      <c r="J75" s="653"/>
+      <c r="C75" s="651"/>
+      <c r="D75" s="651"/>
+      <c r="E75" s="651"/>
+      <c r="F75" s="651"/>
+      <c r="G75" s="651"/>
+      <c r="H75" s="651"/>
+      <c r="I75" s="651"/>
+      <c r="J75" s="651"/>
       <c r="K75" s="592"/>
       <c r="L75" s="592"/>
       <c r="M75" s="592"/>
@@ -19121,17 +19207,17 @@
       <c r="A76" s="591" t="s">
         <v>390</v>
       </c>
-      <c r="B76" s="653" t="s">
+      <c r="B76" s="651" t="s">
         <v>393</v>
       </c>
-      <c r="C76" s="653"/>
-      <c r="D76" s="653"/>
-      <c r="E76" s="653"/>
-      <c r="F76" s="653"/>
-      <c r="G76" s="653"/>
-      <c r="H76" s="653"/>
-      <c r="I76" s="653"/>
-      <c r="J76" s="653"/>
+      <c r="C76" s="651"/>
+      <c r="D76" s="651"/>
+      <c r="E76" s="651"/>
+      <c r="F76" s="651"/>
+      <c r="G76" s="651"/>
+      <c r="H76" s="651"/>
+      <c r="I76" s="651"/>
+      <c r="J76" s="651"/>
       <c r="K76" s="592"/>
       <c r="L76" s="592"/>
       <c r="M76" s="592"/>
